--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50CF50F-EB19-8446-9231-0F5726C80D7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75759162-B1D0-3441-A9DE-98178D79D4F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="-20000" windowWidth="21000" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7300" yWindow="-20440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="230721" sheetId="1" r:id="rId1"/>
-    <sheet name="230712" sheetId="2" r:id="rId2"/>
+    <sheet name="230920" sheetId="3" r:id="rId1"/>
+    <sheet name="230721" sheetId="1" r:id="rId2"/>
+    <sheet name="230712" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -417,16 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -443,7 +448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -451,30 +456,24 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1610</v>
+        <f t="shared" ref="C2:C5" si="0">G2</f>
+        <v>1639.1717314198845</v>
       </c>
       <c r="D2">
-        <v>310</v>
+        <f t="shared" ref="D2:D32" si="1">H2+40</f>
+        <v>359.83237973804944</v>
       </c>
       <c r="E2">
         <v>65</v>
       </c>
       <c r="G2">
-        <v>1604.6029030107932</v>
+        <v>1639.1717314198845</v>
       </c>
       <c r="H2">
-        <v>280.65774254218428</v>
-      </c>
-      <c r="J2">
-        <f>C2-G2</f>
-        <v>5.3970969892068297</v>
-      </c>
-      <c r="K2">
-        <f>D2-H2</f>
-        <v>29.34225745781572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>319.83237973804944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,30 +481,24 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1634.1133863263742</v>
+        <f t="shared" si="0"/>
+        <v>1643.9999999999998</v>
       </c>
       <c r="D3">
-        <v>840.99907164175033</v>
+        <f t="shared" si="1"/>
+        <v>894.46737652347861</v>
       </c>
       <c r="E3">
         <v>65</v>
       </c>
       <c r="G3">
-        <v>1628.7162893371674</v>
+        <v>1643.9999999999998</v>
       </c>
       <c r="H3">
-        <v>811.65681418393456</v>
-      </c>
-      <c r="J3">
-        <f>G3+$J$2</f>
-        <v>1634.1133863263742</v>
-      </c>
-      <c r="K3">
-        <f>H3+$K$2</f>
-        <v>840.99907164175033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>854.46737652347861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -513,30 +506,24 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1268.3970969892068</v>
+        <f t="shared" si="0"/>
+        <v>1272.5801841324005</v>
       </c>
       <c r="D4">
-        <v>859.34225745781578</v>
+        <f t="shared" si="1"/>
+        <v>898.18178999713712</v>
       </c>
       <c r="E4">
         <v>65</v>
       </c>
       <c r="G4">
-        <v>1263</v>
+        <v>1272.5801841324005</v>
       </c>
       <c r="H4">
-        <v>830</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="0">G4+$J$2</f>
-        <v>1268.3970969892068</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K9" si="1">H4+$K$2</f>
-        <v>859.34225745781578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>858.18178999713712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -544,30 +531,24 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1246.3970969892068</v>
+        <f t="shared" si="0"/>
+        <v>1268.5762666689691</v>
       </c>
       <c r="D5">
-        <v>314.34225745781572</v>
+        <f t="shared" si="1"/>
+        <v>354</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
       <c r="G5">
-        <v>1241</v>
+        <v>1268.5762666689691</v>
       </c>
       <c r="H5">
-        <v>285</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1246.3970969892068</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>314.34225745781572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -575,30 +556,24 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>865.67033058093421</v>
+        <f>G6</f>
+        <v>885.59657808465863</v>
       </c>
       <c r="D6">
-        <v>320.34137828619572</v>
+        <f t="shared" si="1"/>
+        <v>353</v>
       </c>
       <c r="E6">
         <v>65</v>
       </c>
       <c r="G6">
-        <v>860.27323359172738</v>
+        <v>885.59657808465863</v>
       </c>
       <c r="H6">
-        <v>290.99912082838</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>865.67033058093421</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>320.34137828619572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -606,30 +581,24 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>891.36408755458558</v>
+        <f t="shared" ref="C7:C13" si="2">G7</f>
+        <v>901.40459917471139</v>
       </c>
       <c r="D7">
-        <v>863.34225745781578</v>
+        <f t="shared" si="1"/>
+        <v>895.07874963393658</v>
       </c>
       <c r="E7">
         <v>65</v>
       </c>
       <c r="G7">
-        <v>885.96699056537875</v>
+        <v>901.40459917471139</v>
       </c>
       <c r="H7">
-        <v>834</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>891.36408755458558</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>863.34225745781578</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>855.07874963393658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -637,30 +606,24 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>511.39709698920683</v>
+        <f t="shared" si="2"/>
+        <v>519.34751984964259</v>
       </c>
       <c r="D8">
-        <v>871.80117305920476</v>
+        <f t="shared" si="1"/>
+        <v>894</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
       <c r="G8">
-        <v>506</v>
+        <v>519.34751984964259</v>
       </c>
       <c r="H8">
-        <v>842.45891560138898</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>511.39709698920683</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>871.80117305920476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -668,30 +631,24 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>486.79800496054139</v>
+        <f t="shared" si="2"/>
+        <v>506.96689540353066</v>
       </c>
       <c r="D9">
-        <v>328.93127036364535</v>
+        <f t="shared" si="1"/>
+        <v>350.86695692728279</v>
       </c>
       <c r="E9">
         <v>65</v>
       </c>
       <c r="G9">
-        <v>481.40090797133456</v>
+        <v>506.96689540353066</v>
       </c>
       <c r="H9">
-        <v>299.58901290582963</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>486.79800496054139</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>328.93127036364535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>310.86695692728279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -699,30 +656,24 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1595</v>
+        <f t="shared" si="2"/>
+        <v>1634.7010749651322</v>
       </c>
       <c r="D10">
-        <v>465</v>
+        <f t="shared" ref="D10:D13" si="3">H10+60</f>
+        <v>516.27290178450971</v>
       </c>
       <c r="E10">
         <v>65</v>
       </c>
       <c r="G10">
-        <v>1606</v>
+        <v>1634.7010749651322</v>
       </c>
       <c r="H10">
-        <v>425</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J3:J33" si="2">C10-G10</f>
-        <v>-11</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K3:K33" si="3">D10-H10</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>456.27290178450977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -730,30 +681,24 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1609.9445240019663</v>
+        <f t="shared" si="2"/>
+        <v>1641.2250068153903</v>
       </c>
       <c r="D11">
-        <v>999.47984336260345</v>
+        <f t="shared" si="3"/>
+        <v>1054.651358203427</v>
       </c>
       <c r="E11">
         <v>65</v>
       </c>
       <c r="G11">
-        <v>1620.9445240019663</v>
+        <v>1641.2250068153903</v>
       </c>
       <c r="H11">
-        <v>959.47984336260345</v>
-      </c>
-      <c r="J11">
-        <f>G11+J$10</f>
-        <v>1609.9445240019663</v>
-      </c>
-      <c r="K11">
-        <f>H11+K$10</f>
-        <v>999.47984336260345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>994.65135820342698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -761,30 +706,24 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1245</v>
+        <f t="shared" si="2"/>
+        <v>1267.2034747743264</v>
       </c>
       <c r="D12">
-        <v>1014</v>
+        <f t="shared" si="3"/>
+        <v>1057.3494990915842</v>
       </c>
       <c r="E12">
         <v>65</v>
       </c>
       <c r="G12">
-        <v>1256</v>
+        <v>1267.2034747743264</v>
       </c>
       <c r="H12">
-        <v>974</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J17" si="4">G12+J$10</f>
-        <v>1245</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K17" si="5">H12+K$10</f>
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>997.34949909158422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -792,30 +731,24 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1226.2074574032038</v>
+        <f t="shared" si="2"/>
+        <v>1263.0758786270517</v>
       </c>
       <c r="D13">
-        <v>471.50098570018065</v>
+        <f t="shared" si="3"/>
+        <v>513.19384543003525</v>
       </c>
       <c r="E13">
         <v>65</v>
       </c>
       <c r="G13">
-        <v>1237.2074574032038</v>
+        <v>1263.0758786270517</v>
       </c>
       <c r="H13">
-        <v>431.50098570018065</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>1226.2074574032038</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>471.50098570018065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>453.19384543003525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -823,30 +756,24 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>841.36344463680052</v>
+        <f>G14</f>
+        <v>881.48745637488901</v>
       </c>
       <c r="D14">
-        <v>477.74724778007908</v>
+        <f>H14+60</f>
+        <v>509.53178358312277</v>
       </c>
       <c r="E14">
         <v>65</v>
       </c>
       <c r="G14">
-        <v>852.36344463680052</v>
+        <v>881.48745637488901</v>
       </c>
       <c r="H14">
-        <v>437.74724778007908</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>841.36344463680052</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>477.74724778007908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>449.53178358312277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -854,30 +781,24 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>871.53773646259197</v>
+        <f t="shared" ref="C15:C17" si="4">G15</f>
+        <v>894.85975735881163</v>
       </c>
       <c r="D15">
-        <v>1021.0000000000001</v>
+        <f t="shared" ref="D15:D17" si="5">H15+60</f>
+        <v>1057.1252570136976</v>
       </c>
       <c r="E15">
         <v>65</v>
       </c>
       <c r="G15">
-        <v>882.53773646259197</v>
+        <v>894.85975735881163</v>
       </c>
       <c r="H15">
-        <v>981.00000000000011</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>871.53773646259197</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>1021.0000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>997.12525701369748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -885,30 +806,24 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>489.64185533341998</v>
+        <f t="shared" si="4"/>
+        <v>512.55653425087291</v>
       </c>
       <c r="D16">
-        <v>1029.3219241389984</v>
+        <f t="shared" si="5"/>
+        <v>1050.8142339811116</v>
       </c>
       <c r="E16">
         <v>65</v>
       </c>
       <c r="G16">
-        <v>500.64185533341998</v>
+        <v>512.55653425087291</v>
       </c>
       <c r="H16">
-        <v>989.32192413899827</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>489.64185533341998</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>1029.3219241389984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>990.81423398111144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -916,30 +831,24 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>463.89341345569784</v>
+        <f t="shared" si="4"/>
+        <v>501.782476538195</v>
       </c>
       <c r="D17">
-        <v>488.84585525987632</v>
+        <f t="shared" si="5"/>
+        <v>510.51792350975768</v>
       </c>
       <c r="E17">
         <v>65</v>
       </c>
       <c r="G17">
-        <v>474.89341345569784</v>
+        <v>501.782476538195</v>
       </c>
       <c r="H17">
-        <v>448.84585525987632</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>463.89341345569784</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>488.84585525987632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>450.51792350975768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>3</v>
       </c>
@@ -947,22 +856,24 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1467.5283069529205</v>
+        <f t="shared" ref="C2:C32" si="6">G18-25</f>
+        <v>1473</v>
       </c>
       <c r="D18">
-        <v>279.48143931656074</v>
+        <f t="shared" si="1"/>
+        <v>357</v>
       </c>
       <c r="E18">
         <v>65</v>
       </c>
       <c r="G18">
-        <v>1467.5283069529205</v>
+        <v>1498</v>
       </c>
       <c r="H18">
-        <v>279.48143931656074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>3</v>
       </c>
@@ -970,22 +881,24 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1489.5885413497574</v>
+        <f t="shared" si="6"/>
+        <v>1485</v>
       </c>
       <c r="D19">
-        <v>813.23295593386445</v>
+        <f t="shared" si="1"/>
+        <v>894.00000000000011</v>
       </c>
       <c r="E19">
         <v>65</v>
       </c>
       <c r="G19">
-        <v>1489.5885413497574</v>
+        <v>1510</v>
       </c>
       <c r="H19">
-        <v>813.23295593386445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>854.00000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>3</v>
       </c>
@@ -993,22 +906,24 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1117.0168346154469</v>
+        <f t="shared" si="6"/>
+        <v>1111.2251969457127</v>
       </c>
       <c r="D20">
-        <v>829.28943124222167</v>
+        <f t="shared" si="1"/>
+        <v>895.06141688646005</v>
       </c>
       <c r="E20">
         <v>65</v>
       </c>
       <c r="G20">
-        <v>1117.0168346154469</v>
+        <v>1136.2251969457127</v>
       </c>
       <c r="H20">
-        <v>829.28943124222167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>855.06141688646005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1016,22 +931,24 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>1093.2565289139898</v>
+        <f t="shared" si="6"/>
+        <v>1104.4400268714517</v>
       </c>
       <c r="D21">
-        <v>282.76894231476359</v>
+        <f t="shared" si="1"/>
+        <v>353.01796391130733</v>
       </c>
       <c r="E21">
         <v>65</v>
       </c>
       <c r="G21">
-        <v>1093.2565289139898</v>
+        <v>1129.4400268714517</v>
       </c>
       <c r="H21">
-        <v>282.76894231476359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>313.01796391130733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1039,22 +956,24 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>710.50943405789167</v>
+        <f t="shared" si="6"/>
+        <v>721.4743615261151</v>
       </c>
       <c r="D22">
-        <v>291.00000000000006</v>
+        <f t="shared" si="1"/>
+        <v>349</v>
       </c>
       <c r="E22">
         <v>65</v>
       </c>
       <c r="G22">
-        <v>710.50943405789167</v>
+        <v>746.4743615261151</v>
       </c>
       <c r="H22">
-        <v>291.00000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1062,22 +981,24 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>739</v>
+        <f t="shared" si="6"/>
+        <v>734.50109136046171</v>
       </c>
       <c r="D23">
-        <v>831.51615876175674</v>
+        <f t="shared" si="1"/>
+        <v>889.48663760499494</v>
       </c>
       <c r="E23">
         <v>65</v>
       </c>
       <c r="G23">
-        <v>739</v>
+        <v>759.50109136046171</v>
       </c>
       <c r="H23">
-        <v>831.51615876175674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>849.48663760499494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1085,22 +1006,24 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>358.00000000000006</v>
+        <f t="shared" si="6"/>
+        <v>354.82446642322049</v>
       </c>
       <c r="D24">
-        <v>836.56843813389787</v>
+        <f t="shared" si="1"/>
+        <v>888.11683665181329</v>
       </c>
       <c r="E24">
         <v>65</v>
       </c>
       <c r="G24">
-        <v>358.00000000000006</v>
+        <v>379.82446642322049</v>
       </c>
       <c r="H24">
-        <v>836.56843813389787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>848.11683665181329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1108,22 +1031,24 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>335.52599426336445</v>
+        <f t="shared" si="6"/>
+        <v>344.05779300371512</v>
       </c>
       <c r="D25">
-        <v>300.52825243257473</v>
+        <f t="shared" si="1"/>
+        <v>352.31099366099261</v>
       </c>
       <c r="E25">
         <v>65</v>
       </c>
       <c r="G25">
-        <v>335.52599426336445</v>
+        <v>369.05779300371512</v>
       </c>
       <c r="H25">
-        <v>300.52825243257473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>312.31099366099261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1131,30 +1056,24 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1440</v>
+        <f t="shared" si="6"/>
+        <v>1470.2353306905293</v>
       </c>
       <c r="D26">
-        <v>450</v>
+        <f t="shared" si="1"/>
+        <v>490.50236367984337</v>
       </c>
       <c r="E26">
         <v>65</v>
       </c>
       <c r="G26">
-        <v>1464.0259861843795</v>
+        <v>1495.2353306905293</v>
       </c>
       <c r="H26">
-        <v>421.85523734651008</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>-24.025986184379462</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>28.14476265348992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>450.50236367984337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1162,30 +1081,24 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1458.2983203939734</v>
+        <f t="shared" si="6"/>
+        <v>1476.7148948701831</v>
       </c>
       <c r="D27">
-        <v>987.80748757663412</v>
+        <f t="shared" si="1"/>
+        <v>1028.6335969067704</v>
       </c>
       <c r="E27">
         <v>65</v>
       </c>
       <c r="G27">
-        <v>1482.3243065783529</v>
+        <v>1501.7148948701831</v>
       </c>
       <c r="H27">
-        <v>959.6627249231442</v>
-      </c>
-      <c r="J27">
-        <f>G27+J$26</f>
-        <v>1458.2983203939734</v>
-      </c>
-      <c r="K27">
-        <f>H27+K$26</f>
-        <v>987.80748757663412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>988.63359690677044</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1193,30 +1106,24 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1087.8927864481791</v>
+        <f t="shared" si="6"/>
+        <v>1104.4112184328715</v>
       </c>
       <c r="D28">
-        <v>998.63525095173111</v>
+        <f t="shared" si="1"/>
+        <v>1029.5839006362316</v>
       </c>
       <c r="E28">
         <v>65</v>
       </c>
       <c r="G28">
-        <v>1111.9187726325586</v>
+        <v>1129.4112184328715</v>
       </c>
       <c r="H28">
-        <v>970.49048829824119</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28:J33" si="6">G28+J$26</f>
-        <v>1087.8927864481791</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ref="K28:K33" si="7">H28+K$26</f>
-        <v>998.63525095173111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>989.58390063623153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1224,30 +1131,24 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1066.9740138156205</v>
+        <f t="shared" si="6"/>
+        <v>1098.2219701040583</v>
       </c>
       <c r="D29">
-        <v>453.14476265348998</v>
+        <f t="shared" si="1"/>
+        <v>489.16738984616353</v>
       </c>
       <c r="E29">
         <v>65</v>
       </c>
       <c r="G29">
-        <v>1091</v>
+        <v>1123.2219701040583</v>
       </c>
       <c r="H29">
-        <v>425.00000000000006</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="6"/>
-        <v>1066.9740138156205</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="7"/>
-        <v>453.14476265348998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>449.16738984616353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1255,30 +1156,24 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>683.45364405722387</v>
+        <f t="shared" si="6"/>
+        <v>716.00373505082587</v>
       </c>
       <c r="D30">
-        <v>462.61791541004521</v>
+        <f t="shared" si="1"/>
+        <v>486.4840362551991</v>
       </c>
       <c r="E30">
         <v>65</v>
       </c>
       <c r="G30">
-        <v>707.47963024160333</v>
+        <v>741.00373505082587</v>
       </c>
       <c r="H30">
-        <v>434.47315275655529</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="6"/>
-        <v>683.45364405722387</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="7"/>
-        <v>462.61791541004521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>446.4840362551991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1286,30 +1181,24 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>712.97599525204703</v>
+        <f t="shared" si="6"/>
+        <v>730.47095031350148</v>
       </c>
       <c r="D31">
-        <v>1005.4059517454439</v>
+        <f t="shared" si="1"/>
+        <v>1028</v>
       </c>
       <c r="E31">
         <v>65</v>
       </c>
       <c r="G31">
-        <v>737.00198143642649</v>
+        <v>755.47095031350148</v>
       </c>
       <c r="H31">
-        <v>977.26118909195395</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="6"/>
-        <v>712.97599525204703</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="7"/>
-        <v>1005.4059517454439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1317,30 +1206,24 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>336.97401381562054</v>
+        <f t="shared" si="6"/>
+        <v>354.43228956640741</v>
       </c>
       <c r="D32">
-        <v>1011.1447626534898</v>
+        <f t="shared" si="1"/>
+        <v>1021.2040069956981</v>
       </c>
       <c r="E32">
         <v>65</v>
       </c>
       <c r="G32">
-        <v>361</v>
+        <v>379.43228956640741</v>
       </c>
       <c r="H32">
-        <v>982.99999999999989</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="6"/>
-        <v>336.97401381562054</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="7"/>
-        <v>1011.1447626534898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>981.20400699569814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1348,27 +1231,21 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>305.32538502469168</v>
+        <f>G33-25</f>
+        <v>336</v>
       </c>
       <c r="D33">
-        <v>472.94631367607565</v>
+        <f>H33+40</f>
+        <v>485</v>
       </c>
       <c r="E33">
         <v>65</v>
       </c>
       <c r="G33">
-        <v>329.35137120907115</v>
+        <v>361</v>
       </c>
       <c r="H33">
-        <v>444.80155102258573</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="6"/>
-        <v>305.32538502469168</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="7"/>
-        <v>472.94631367607565</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -1378,11 +1255,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1610</v>
+      </c>
+      <c r="D2">
+        <v>310</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>1604.6029030107932</v>
+      </c>
+      <c r="H2">
+        <v>280.65774254218428</v>
+      </c>
+      <c r="J2">
+        <f>C2-G2</f>
+        <v>5.3970969892068297</v>
+      </c>
+      <c r="K2">
+        <f>D2-H2</f>
+        <v>29.34225745781572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1634.1133863263742</v>
+      </c>
+      <c r="D3">
+        <v>840.99907164175033</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>1628.7162893371674</v>
+      </c>
+      <c r="H3">
+        <v>811.65681418393456</v>
+      </c>
+      <c r="J3">
+        <f>G3+$J$2</f>
+        <v>1634.1133863263742</v>
+      </c>
+      <c r="K3">
+        <f>H3+$K$2</f>
+        <v>840.99907164175033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1268.3970969892068</v>
+      </c>
+      <c r="D4">
+        <v>859.34225745781578</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>1263</v>
+      </c>
+      <c r="H4">
+        <v>830</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="0">G4+$J$2</f>
+        <v>1268.3970969892068</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K9" si="1">H4+$K$2</f>
+        <v>859.34225745781578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1246.3970969892068</v>
+      </c>
+      <c r="D5">
+        <v>314.34225745781572</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>1241</v>
+      </c>
+      <c r="H5">
+        <v>285</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1246.3970969892068</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>314.34225745781572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>865.67033058093421</v>
+      </c>
+      <c r="D6">
+        <v>320.34137828619572</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>860.27323359172738</v>
+      </c>
+      <c r="H6">
+        <v>290.99912082838</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>865.67033058093421</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>320.34137828619572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>891.36408755458558</v>
+      </c>
+      <c r="D7">
+        <v>863.34225745781578</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>885.96699056537875</v>
+      </c>
+      <c r="H7">
+        <v>834</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>891.36408755458558</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>863.34225745781578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>511.39709698920683</v>
+      </c>
+      <c r="D8">
+        <v>871.80117305920476</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>506</v>
+      </c>
+      <c r="H8">
+        <v>842.45891560138898</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>511.39709698920683</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>871.80117305920476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>486.79800496054139</v>
+      </c>
+      <c r="D9">
+        <v>328.93127036364535</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>481.40090797133456</v>
+      </c>
+      <c r="H9">
+        <v>299.58901290582963</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>486.79800496054139</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>328.93127036364535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1595</v>
+      </c>
+      <c r="D10">
+        <v>465</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>1606</v>
+      </c>
+      <c r="H10">
+        <v>425</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J26" si="2">C10-G10</f>
+        <v>-11</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K26" si="3">D10-H10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1609.9445240019663</v>
+      </c>
+      <c r="D11">
+        <v>999.47984336260345</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>1620.9445240019663</v>
+      </c>
+      <c r="H11">
+        <v>959.47984336260345</v>
+      </c>
+      <c r="J11">
+        <f>G11+J$10</f>
+        <v>1609.9445240019663</v>
+      </c>
+      <c r="K11">
+        <f>H11+K$10</f>
+        <v>999.47984336260345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1245</v>
+      </c>
+      <c r="D12">
+        <v>1014</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>1256</v>
+      </c>
+      <c r="H12">
+        <v>974</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J17" si="4">G12+J$10</f>
+        <v>1245</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K17" si="5">H12+K$10</f>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1226.2074574032038</v>
+      </c>
+      <c r="D13">
+        <v>471.50098570018065</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>1237.2074574032038</v>
+      </c>
+      <c r="H13">
+        <v>431.50098570018065</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>1226.2074574032038</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>471.50098570018065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>841.36344463680052</v>
+      </c>
+      <c r="D14">
+        <v>477.74724778007908</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>852.36344463680052</v>
+      </c>
+      <c r="H14">
+        <v>437.74724778007908</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>841.36344463680052</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>477.74724778007908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>871.53773646259197</v>
+      </c>
+      <c r="D15">
+        <v>1021.0000000000001</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>882.53773646259197</v>
+      </c>
+      <c r="H15">
+        <v>981.00000000000011</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>871.53773646259197</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1021.0000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>489.64185533341998</v>
+      </c>
+      <c r="D16">
+        <v>1029.3219241389984</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>500.64185533341998</v>
+      </c>
+      <c r="H16">
+        <v>989.32192413899827</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>489.64185533341998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1029.3219241389984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>463.89341345569784</v>
+      </c>
+      <c r="D17">
+        <v>488.84585525987632</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>474.89341345569784</v>
+      </c>
+      <c r="H17">
+        <v>448.84585525987632</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>463.89341345569784</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>488.84585525987632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1467.5283069529205</v>
+      </c>
+      <c r="D18">
+        <v>279.48143931656074</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>1467.5283069529205</v>
+      </c>
+      <c r="H18">
+        <v>279.48143931656074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1489.5885413497574</v>
+      </c>
+      <c r="D19">
+        <v>813.23295593386445</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>1489.5885413497574</v>
+      </c>
+      <c r="H19">
+        <v>813.23295593386445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1117.0168346154469</v>
+      </c>
+      <c r="D20">
+        <v>829.28943124222167</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>1117.0168346154469</v>
+      </c>
+      <c r="H20">
+        <v>829.28943124222167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1093.2565289139898</v>
+      </c>
+      <c r="D21">
+        <v>282.76894231476359</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>1093.2565289139898</v>
+      </c>
+      <c r="H21">
+        <v>282.76894231476359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>710.50943405789167</v>
+      </c>
+      <c r="D22">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>710.50943405789167</v>
+      </c>
+      <c r="H22">
+        <v>291.00000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>739</v>
+      </c>
+      <c r="D23">
+        <v>831.51615876175674</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>739</v>
+      </c>
+      <c r="H23">
+        <v>831.51615876175674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>358.00000000000006</v>
+      </c>
+      <c r="D24">
+        <v>836.56843813389787</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>358.00000000000006</v>
+      </c>
+      <c r="H24">
+        <v>836.56843813389787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>335.52599426336445</v>
+      </c>
+      <c r="D25">
+        <v>300.52825243257473</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="G25">
+        <v>335.52599426336445</v>
+      </c>
+      <c r="H25">
+        <v>300.52825243257473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1440</v>
+      </c>
+      <c r="D26">
+        <v>450</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>1464.0259861843795</v>
+      </c>
+      <c r="H26">
+        <v>421.85523734651008</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>-24.025986184379462</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>28.14476265348992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1458.2983203939734</v>
+      </c>
+      <c r="D27">
+        <v>987.80748757663412</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <v>1482.3243065783529</v>
+      </c>
+      <c r="H27">
+        <v>959.6627249231442</v>
+      </c>
+      <c r="J27">
+        <f>G27+J$26</f>
+        <v>1458.2983203939734</v>
+      </c>
+      <c r="K27">
+        <f>H27+K$26</f>
+        <v>987.80748757663412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1087.8927864481791</v>
+      </c>
+      <c r="D28">
+        <v>998.63525095173111</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>1111.9187726325586</v>
+      </c>
+      <c r="H28">
+        <v>970.49048829824119</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J33" si="6">G28+J$26</f>
+        <v>1087.8927864481791</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K33" si="7">H28+K$26</f>
+        <v>998.63525095173111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1066.9740138156205</v>
+      </c>
+      <c r="D29">
+        <v>453.14476265348998</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>1091</v>
+      </c>
+      <c r="H29">
+        <v>425.00000000000006</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>1066.9740138156205</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>453.14476265348998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>683.45364405722387</v>
+      </c>
+      <c r="D30">
+        <v>462.61791541004521</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>707.47963024160333</v>
+      </c>
+      <c r="H30">
+        <v>434.47315275655529</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>683.45364405722387</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>462.61791541004521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>712.97599525204703</v>
+      </c>
+      <c r="D31">
+        <v>1005.4059517454439</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>737.00198143642649</v>
+      </c>
+      <c r="H31">
+        <v>977.26118909195395</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>712.97599525204703</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>1005.4059517454439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>336.97401381562054</v>
+      </c>
+      <c r="D32">
+        <v>1011.1447626534898</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+      <c r="G32">
+        <v>361</v>
+      </c>
+      <c r="H32">
+        <v>982.99999999999989</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>336.97401381562054</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>1011.1447626534898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>305.32538502469168</v>
+      </c>
+      <c r="D33">
+        <v>472.94631367607565</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>329.35137120907115</v>
+      </c>
+      <c r="H33">
+        <v>444.80155102258573</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>305.32538502469168</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>472.94631367607565</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D33"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75759162-B1D0-3441-A9DE-98178D79D4F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3758451-B315-C240-AC76-4C6C2CD8E352}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="-20440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -785,8 +785,8 @@
         <v>894.85975735881163</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D17" si="5">H15+60</f>
-        <v>1057.1252570136976</v>
+        <f t="shared" ref="D11:D17" si="5">H15+50</f>
+        <v>1047.1252570136976</v>
       </c>
       <c r="E15">
         <v>65</v>
@@ -811,7 +811,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>1050.8142339811116</v>
+        <v>1040.8142339811116</v>
       </c>
       <c r="E16">
         <v>65</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>510.51792350975768</v>
+        <v>500.51792350975768</v>
       </c>
       <c r="E17">
         <v>65</v>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3758451-B315-C240-AC76-4C6C2CD8E352}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668DD4AA-FAFA-F542-A17B-155FEAA08C53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="-20440" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="230920" sheetId="3" r:id="rId1"/>
-    <sheet name="230721" sheetId="1" r:id="rId2"/>
-    <sheet name="230712" sheetId="2" r:id="rId3"/>
+    <sheet name="230921" sheetId="4" r:id="rId1"/>
+    <sheet name="230920" sheetId="3" r:id="rId2"/>
+    <sheet name="230721" sheetId="1" r:id="rId3"/>
+    <sheet name="230712" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -54,12 +55,16 @@
     <t>timing</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>backup</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +80,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +97,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -98,11 +125,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,11 +451,1235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>G2+5</f>
+        <v>1643.4265443435393</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D3" si="0">H2+30</f>
+        <v>344.1904554392429</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>1638.4265443435393</v>
+      </c>
+      <c r="H2">
+        <v>314.1904554392429</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1643.4265439999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>344.19045540000002</v>
+      </c>
+      <c r="M2" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>G3+5</f>
+        <v>1645.5832371432114</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>879</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>1640.5832371432114</v>
+      </c>
+      <c r="H3">
+        <v>849</v>
+      </c>
+      <c r="I3">
+        <v>65</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1645.5832370000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>879</v>
+      </c>
+      <c r="M3" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C17" si="1">G4+5</f>
+        <v>1283.4976351483458</v>
+      </c>
+      <c r="D4">
+        <f>H4+30</f>
+        <v>880.50371781189858</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>1278.4976351483458</v>
+      </c>
+      <c r="H4">
+        <v>850.50371781189858</v>
+      </c>
+      <c r="I4">
+        <v>65</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1283.4976349999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>880.5037178</v>
+      </c>
+      <c r="M4" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1275.2992618674946</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D17" si="2">H5+30</f>
+        <v>335.8398448017395</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>1270.2992618674946</v>
+      </c>
+      <c r="H5">
+        <v>305.8398448017395</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1275.299262</v>
+      </c>
+      <c r="L5" s="3">
+        <v>335.83984479999998</v>
+      </c>
+      <c r="M5" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>895.39997528745789</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>334.15420968300811</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>890.39997528745789</v>
+      </c>
+      <c r="H6">
+        <v>304.15420968300811</v>
+      </c>
+      <c r="I6">
+        <v>65</v>
+      </c>
+      <c r="K6" s="3">
+        <v>895.39997530000005</v>
+      </c>
+      <c r="L6" s="3">
+        <v>334.15420970000002</v>
+      </c>
+      <c r="M6" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>907.0054514726379</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>882.00067032311472</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>902.0054514726379</v>
+      </c>
+      <c r="H7">
+        <v>852.00067032311472</v>
+      </c>
+      <c r="I7">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3">
+        <v>907.00545150000005</v>
+      </c>
+      <c r="L7" s="3">
+        <v>882.00067030000002</v>
+      </c>
+      <c r="M7" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>526.458800788433</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>875.01899490184496</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>521.458800788433</v>
+      </c>
+      <c r="H8">
+        <v>845.01899490184496</v>
+      </c>
+      <c r="I8">
+        <v>65</v>
+      </c>
+      <c r="K8" s="3">
+        <v>526.45880079999995</v>
+      </c>
+      <c r="L8" s="3">
+        <v>875.01899490000005</v>
+      </c>
+      <c r="M8" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>510</v>
+      </c>
+      <c r="H9">
+        <v>304</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="K9" s="3">
+        <v>515</v>
+      </c>
+      <c r="L9" s="3">
+        <v>334</v>
+      </c>
+      <c r="M9" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>1638</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>483.5340062361679</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>1633</v>
+      </c>
+      <c r="H10">
+        <v>453.5340062361679</v>
+      </c>
+      <c r="I10">
+        <v>65</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1638</v>
+      </c>
+      <c r="L10" s="3">
+        <v>483.53400620000002</v>
+      </c>
+      <c r="M10" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1642.4630275922909</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1019.9493538404563</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>1637.4630275922909</v>
+      </c>
+      <c r="H11">
+        <v>989.9493538404563</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1642.4630279999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1019.949354</v>
+      </c>
+      <c r="M11" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1273.6105560128537</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1026.1994263586266</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>1268.6105560128537</v>
+      </c>
+      <c r="H12">
+        <v>996.19942635862651</v>
+      </c>
+      <c r="I12">
+        <v>65</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1273.6105560000001</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1026.1994259999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1269.8986241372759</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>482.98930052173625</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>1264.8986241372759</v>
+      </c>
+      <c r="H13">
+        <v>452.98930052173625</v>
+      </c>
+      <c r="I13">
+        <v>65</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1269.8986239999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>482.98930050000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>886.11815473245372</v>
+      </c>
+      <c r="D14">
+        <f>H14+30</f>
+        <v>475.1151043261882</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>881.11815473245372</v>
+      </c>
+      <c r="H14">
+        <v>445.1151043261882</v>
+      </c>
+      <c r="I14">
+        <v>65</v>
+      </c>
+      <c r="K14" s="3">
+        <v>886.11815469999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>475.11510429999998</v>
+      </c>
+      <c r="M14" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>G15+5</f>
+        <v>899.30901366636238</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1022.3414742931637</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>894.30901366636238</v>
+      </c>
+      <c r="H15">
+        <v>992.34147429316374</v>
+      </c>
+      <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="K15" s="3">
+        <v>899.30901370000004</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1022.3414739999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>517.06667877099005</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1017.4941583555814</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="G16">
+        <v>512.06667877099005</v>
+      </c>
+      <c r="H16">
+        <v>987.49415835558136</v>
+      </c>
+      <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="K16" s="3">
+        <v>517.06667879999998</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1017.494158</v>
+      </c>
+      <c r="M16" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>506.03760659484539</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>475.63522811947422</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>501.03760659484539</v>
+      </c>
+      <c r="H17">
+        <v>445.63522811947422</v>
+      </c>
+      <c r="I17">
+        <v>65</v>
+      </c>
+      <c r="K17" s="3">
+        <v>506.0376066</v>
+      </c>
+      <c r="L17" s="3">
+        <v>475.63522810000001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>C2-C10+C26</f>
+        <v>1480.4265443435393</v>
+      </c>
+      <c r="D18">
+        <f>D2-D10+D26</f>
+        <v>329.656449203075</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>1500</v>
+      </c>
+      <c r="H18">
+        <v>309</v>
+      </c>
+      <c r="I18">
+        <v>65</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1480.4265439999999</v>
+      </c>
+      <c r="L18" s="3">
+        <v>329.6564492</v>
+      </c>
+      <c r="M18" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D25" si="3">C3-C11+C27</f>
+        <v>1484.1471548572047</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>869.01259634775022</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="G19">
+        <v>1507.4170525137188</v>
+      </c>
+      <c r="H19">
+        <v>848.80732756498946</v>
+      </c>
+      <c r="I19">
+        <v>65</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1484.1471550000001</v>
+      </c>
+      <c r="L19" s="3">
+        <v>869.01259630000004</v>
+      </c>
+      <c r="M19" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>1118.3885938896296</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>866.80312659864478</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>1134.8380913459309</v>
+      </c>
+      <c r="H20">
+        <v>848.36948917416635</v>
+      </c>
+      <c r="I20">
+        <v>65</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1118.388594</v>
+      </c>
+      <c r="L20" s="3">
+        <v>866.80312660000004</v>
+      </c>
+      <c r="M20" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>1107.4006377302187</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>319.85054428000325</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>1126.9999999999998</v>
+      </c>
+      <c r="H21">
+        <v>303.46386067619034</v>
+      </c>
+      <c r="I21">
+        <v>65</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1107.4006380000001</v>
+      </c>
+      <c r="L21" s="3">
+        <v>319.85054430000002</v>
+      </c>
+      <c r="M21" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>726.29048359479486</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>322.21486543594295</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>746.66826419851839</v>
+      </c>
+      <c r="H22">
+        <v>301.37423485472425</v>
+      </c>
+      <c r="I22">
+        <v>65</v>
+      </c>
+      <c r="K22" s="3">
+        <v>726.29048360000002</v>
+      </c>
+      <c r="L22" s="3">
+        <v>322.21486540000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>740.40498903244452</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>869.91719471886188</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="G23">
+        <v>758</v>
+      </c>
+      <c r="H23">
+        <v>845</v>
+      </c>
+      <c r="I23">
+        <v>65</v>
+      </c>
+      <c r="K23" s="3">
+        <v>740.404989</v>
+      </c>
+      <c r="L23" s="3">
+        <v>869.91719469999998</v>
+      </c>
+      <c r="M23" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>363.9141454244446</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>859.48740624508446</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>376.66064541799346</v>
+      </c>
+      <c r="H24">
+        <v>842.97155739522611</v>
+      </c>
+      <c r="I24">
+        <v>65</v>
+      </c>
+      <c r="K24" s="3">
+        <v>363.9141454</v>
+      </c>
+      <c r="L24" s="3">
+        <v>859.48740620000001</v>
+      </c>
+      <c r="M24" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>347.45924699832796</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>322.37373775457678</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="G25">
+        <v>366.1778550489546</v>
+      </c>
+      <c r="H25">
+        <v>301.41781057527805</v>
+      </c>
+      <c r="I25">
+        <v>65</v>
+      </c>
+      <c r="K25" s="3">
+        <v>347.459247</v>
+      </c>
+      <c r="L25" s="3">
+        <v>322.37373780000001</v>
+      </c>
+      <c r="M25" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C32" si="4">G26-20</f>
+        <v>1475</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D27" si="5">H26+25</f>
+        <v>469</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>1495</v>
+      </c>
+      <c r="H26">
+        <v>444</v>
+      </c>
+      <c r="I26">
+        <v>65</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1475</v>
+      </c>
+      <c r="L26" s="3">
+        <v>469</v>
+      </c>
+      <c r="M26" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>1481.0269453062842</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>1009.9619501882065</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <v>1501.0269453062842</v>
+      </c>
+      <c r="H27">
+        <v>984.96195018820652</v>
+      </c>
+      <c r="I27">
+        <v>65</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1481.0269450000001</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1009.96195</v>
+      </c>
+      <c r="M27" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>1108.5015147541376</v>
+      </c>
+      <c r="D28">
+        <f>H28+25</f>
+        <v>1012.4988351453728</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+      <c r="G28">
+        <v>1128.5015147541376</v>
+      </c>
+      <c r="H28">
+        <v>987.49883514537282</v>
+      </c>
+      <c r="I28">
+        <v>65</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1108.5015149999999</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1012.498835</v>
+      </c>
+      <c r="M28" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>1102</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D33" si="6">H29+25</f>
+        <v>467</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>1122</v>
+      </c>
+      <c r="H29">
+        <v>442</v>
+      </c>
+      <c r="I29">
+        <v>65</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1102</v>
+      </c>
+      <c r="L29" s="3">
+        <v>467</v>
+      </c>
+      <c r="M29" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>717.00866303979069</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>463.17576007912305</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>737.00866303979069</v>
+      </c>
+      <c r="H30">
+        <v>438.17576007912305</v>
+      </c>
+      <c r="I30">
+        <v>65</v>
+      </c>
+      <c r="K30" s="3">
+        <v>717.00866299999996</v>
+      </c>
+      <c r="L30" s="3">
+        <v>463.17576009999999</v>
+      </c>
+      <c r="M30" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>732.70855122616899</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>1010.2579986889109</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>752.70855122616899</v>
+      </c>
+      <c r="H31">
+        <v>985.2579986889109</v>
+      </c>
+      <c r="I31">
+        <v>65</v>
+      </c>
+      <c r="K31" s="3">
+        <v>732.70855119999999</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1010.257999</v>
+      </c>
+      <c r="M31" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>354.52202340700165</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>1001.9625696988209</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+      <c r="G32">
+        <v>374.52202340700165</v>
+      </c>
+      <c r="H32">
+        <v>976.96256969882086</v>
+      </c>
+      <c r="I32">
+        <v>65</v>
+      </c>
+      <c r="K32" s="3">
+        <v>354.52202340000002</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1001.96257</v>
+      </c>
+      <c r="M32" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <f>G33-20</f>
+        <v>338.49685359317334</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>464.008965874051</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>358.49685359317334</v>
+      </c>
+      <c r="H33">
+        <v>439.008965874051</v>
+      </c>
+      <c r="I33">
+        <v>65</v>
+      </c>
+      <c r="K33" s="3">
+        <v>338.49685360000001</v>
+      </c>
+      <c r="L33" s="3">
+        <v>464.00896590000002</v>
+      </c>
+      <c r="M33" s="3">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D10:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -431,7 +1688,7 @@
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -447,8 +1704,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,8 +1732,14 @@
       <c r="H2">
         <v>319.83237973804944</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="2">
+        <v>1639.1717309999999</v>
+      </c>
+      <c r="K2" s="2">
+        <v>359.83237969999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -497,8 +1763,14 @@
       <c r="H3">
         <v>854.46737652347861</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="2">
+        <v>1644</v>
+      </c>
+      <c r="K3" s="2">
+        <v>894.4673765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -522,8 +1794,14 @@
       <c r="H4">
         <v>858.18178999713712</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="2">
+        <v>1272.5801839999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>898.18178999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -547,8 +1825,14 @@
       <c r="H5">
         <v>314</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="2">
+        <v>1268.5762669999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -572,8 +1856,14 @@
       <c r="H6">
         <v>313</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="2">
+        <v>885.59657809999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -597,8 +1887,14 @@
       <c r="H7">
         <v>855.07874963393658</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="2">
+        <v>901.40459920000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>895.07874960000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -622,8 +1918,14 @@
       <c r="H8">
         <v>854</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="2">
+        <v>519.34751979999999</v>
+      </c>
+      <c r="K8" s="2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -647,8 +1949,14 @@
       <c r="H9">
         <v>310.86695692728279</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="2">
+        <v>506.9668954</v>
+      </c>
+      <c r="K9" s="2">
+        <v>350.86695689999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -672,8 +1980,14 @@
       <c r="H10">
         <v>456.27290178450977</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="2">
+        <v>1634.7010749999999</v>
+      </c>
+      <c r="K10" s="2">
+        <v>516.2729018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -697,8 +2011,14 @@
       <c r="H11">
         <v>994.65135820342698</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="2">
+        <v>1641.225007</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1054.6513580000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -722,8 +2042,14 @@
       <c r="H12">
         <v>997.34949909158422</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="2">
+        <v>1267.203475</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1057.3494989999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -747,8 +2073,14 @@
       <c r="H13">
         <v>453.19384543003525</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="2">
+        <v>1263.075879</v>
+      </c>
+      <c r="K13" s="2">
+        <v>513.19384539999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -772,8 +2104,14 @@
       <c r="H14">
         <v>449.53178358312277</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="2">
+        <v>881.48745640000004</v>
+      </c>
+      <c r="K14" s="2">
+        <v>509.53178359999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -785,7 +2123,7 @@
         <v>894.85975735881163</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D11:D17" si="5">H15+50</f>
+        <f t="shared" ref="D15:D17" si="5">H15+50</f>
         <v>1047.1252570136976</v>
       </c>
       <c r="E15">
@@ -797,8 +2135,14 @@
       <c r="H15">
         <v>997.12525701369748</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="2">
+        <v>894.85975740000003</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1047.1252569999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -822,8 +2166,14 @@
       <c r="H16">
         <v>990.81423398111144</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="2">
+        <v>512.55653429999995</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1040.8142339999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -847,8 +2197,14 @@
       <c r="H17">
         <v>450.51792350975768</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="2">
+        <v>501.78247649999997</v>
+      </c>
+      <c r="K17" s="2">
+        <v>500.51792349999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3</v>
       </c>
@@ -856,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C2:C32" si="6">G18-25</f>
+        <f t="shared" ref="C18:C32" si="6">G18-25</f>
         <v>1473</v>
       </c>
       <c r="D18">
@@ -872,8 +2228,14 @@
       <c r="H18">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="2">
+        <v>1473</v>
+      </c>
+      <c r="K18" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -897,8 +2259,14 @@
       <c r="H19">
         <v>854.00000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="2">
+        <v>1485</v>
+      </c>
+      <c r="K19" s="2">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>3</v>
       </c>
@@ -922,8 +2290,14 @@
       <c r="H20">
         <v>855.06141688646005</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="2">
+        <v>1111.225197</v>
+      </c>
+      <c r="K20" s="2">
+        <v>895.06141690000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -947,8 +2321,14 @@
       <c r="H21">
         <v>313.01796391130733</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="J21" s="2">
+        <v>1104.4400270000001</v>
+      </c>
+      <c r="K21" s="2">
+        <v>353.01796389999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>3</v>
       </c>
@@ -972,8 +2352,14 @@
       <c r="H22">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" s="2">
+        <v>721.47436149999999</v>
+      </c>
+      <c r="K22" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>3</v>
       </c>
@@ -997,8 +2383,14 @@
       <c r="H23">
         <v>849.48663760499494</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23" s="2">
+        <v>734.50109139999995</v>
+      </c>
+      <c r="K23" s="2">
+        <v>889.48663759999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1022,8 +2414,14 @@
       <c r="H24">
         <v>848.11683665181329</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="J24" s="2">
+        <v>354.82446640000001</v>
+      </c>
+      <c r="K24" s="2">
+        <v>888.11683670000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1047,8 +2445,14 @@
       <c r="H25">
         <v>312.31099366099261</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="J25" s="2">
+        <v>344.057793</v>
+      </c>
+      <c r="K25" s="2">
+        <v>352.31099369999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1072,8 +2476,14 @@
       <c r="H26">
         <v>450.50236367984337</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="J26" s="2">
+        <v>1470.2353310000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>490.50236369999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1097,8 +2507,14 @@
       <c r="H27">
         <v>988.63359690677044</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="J27" s="2">
+        <v>1476.7148950000001</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1028.633597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1122,8 +2538,14 @@
       <c r="H28">
         <v>989.58390063623153</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="J28" s="2">
+        <v>1104.411218</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1029.583901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1147,8 +2569,14 @@
       <c r="H29">
         <v>449.16738984616353</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="J29" s="2">
+        <v>1098.2219700000001</v>
+      </c>
+      <c r="K29" s="2">
+        <v>489.16738980000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1172,8 +2600,14 @@
       <c r="H30">
         <v>446.4840362551991</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="J30" s="2">
+        <v>716.00373509999997</v>
+      </c>
+      <c r="K30" s="2">
+        <v>486.48403630000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1197,8 +2631,14 @@
       <c r="H31">
         <v>988</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="J31" s="2">
+        <v>730.47095030000003</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1222,8 +2662,14 @@
       <c r="H32">
         <v>981.20400699569814</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="J32" s="2">
+        <v>354.43228959999999</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1021.204007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1246,6 +2692,12 @@
       </c>
       <c r="H33">
         <v>445</v>
+      </c>
+      <c r="J33" s="2">
+        <v>336</v>
+      </c>
+      <c r="K33" s="2">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +2706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -2215,7 +3667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668DD4AA-FAFA-F542-A17B-155FEAA08C53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B339D-93EC-8341-8C0D-BCECB69C8668}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>
-    <sheet name="230920" sheetId="3" r:id="rId2"/>
-    <sheet name="230721" sheetId="1" r:id="rId3"/>
-    <sheet name="230712" sheetId="2" r:id="rId4"/>
+    <sheet name="230920_backup" sheetId="3" r:id="rId2"/>
+    <sheet name="230920_backup2" sheetId="5" r:id="rId3"/>
+    <sheet name="230721" sheetId="1" r:id="rId4"/>
+    <sheet name="230712" sheetId="2" r:id="rId5"/>
+    <sheet name="230920" sheetId="6" r:id="rId10"/>
+    <sheet name="240111" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +61,89 @@
   <si>
     <t>backup</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>center_X</t>
+  </si>
+  <si>
+    <t>center_Y</t>
+  </si>
+  <si>
+    <t>radii</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>center_X</t>
+  </si>
+  <si>
+    <t>center_Y</t>
+  </si>
+  <si>
+    <t>radii</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>center_X</t>
+  </si>
+  <si>
+    <t>center_Y</t>
+  </si>
+  <si>
+    <t>radii</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>center_X</t>
+  </si>
+  <si>
+    <t>center_Y</t>
+  </si>
+  <si>
+    <t>radii</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>timing</t>
+  </si>
+  <si>
+    <t>center_X</t>
+  </si>
+  <si>
+    <t>center_Y</t>
+  </si>
+  <si>
+    <t>radii</t>
   </si>
 </sst>
 </file>
@@ -97,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,25 +205,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -454,17 +542,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -521,7 +609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -558,7 +646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -595,7 +683,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -632,7 +720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -669,7 +757,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -706,7 +794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -743,7 +831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -780,7 +868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -817,7 +905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -854,7 +942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -891,7 +979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -928,7 +1016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -965,7 +1053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1002,7 +1090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1039,7 +1127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -1076,7 +1164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1113,7 +1201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1150,7 +1238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1187,7 +1275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1224,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1261,7 +1349,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1298,7 +1386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1335,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1372,7 +1460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1409,7 +1497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1446,7 +1534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1483,7 +1571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1520,7 +1608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1557,7 +1645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1594,7 +1682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1631,7 +1719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1676,19 +1764,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1795,14 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1738,8 +1832,59 @@
       <c r="K2" s="2">
         <v>359.83237969999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1632.2250068153903</v>
+      </c>
+      <c r="O2">
+        <v>1625.7010749651322</v>
+      </c>
+      <c r="P2">
+        <v>1254.0758786270517</v>
+      </c>
+      <c r="Q2">
+        <v>1258.2034747743264</v>
+      </c>
+      <c r="R2">
+        <v>885.85975735881163</v>
+      </c>
+      <c r="S2">
+        <v>872.48745637488901</v>
+      </c>
+      <c r="T2">
+        <v>492.782476538195</v>
+      </c>
+      <c r="U2">
+        <v>503.55653425087291</v>
+      </c>
+      <c r="V2">
+        <v>1034.651358203427</v>
+      </c>
+      <c r="W2">
+        <v>496.27290178450977</v>
+      </c>
+      <c r="X2">
+        <v>493.19384543003525</v>
+      </c>
+      <c r="Y2">
+        <v>1037.3494990915842</v>
+      </c>
+      <c r="Z2">
+        <v>1037.1252570136976</v>
+      </c>
+      <c r="AA2">
+        <v>489.53178358312277</v>
+      </c>
+      <c r="AB2">
+        <v>490.51792350975768</v>
+      </c>
+      <c r="AC2">
+        <v>1030.8142339811116</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1769,8 +1914,59 @@
       <c r="K3" s="2">
         <v>894.4673765</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1646.9999999999998</v>
+      </c>
+      <c r="O3">
+        <v>1642.1717314198845</v>
+      </c>
+      <c r="P3">
+        <v>1271.5762666689691</v>
+      </c>
+      <c r="Q3">
+        <v>1275.5801841324005</v>
+      </c>
+      <c r="R3">
+        <v>904.40459917471139</v>
+      </c>
+      <c r="S3">
+        <v>888.59657808465863</v>
+      </c>
+      <c r="T3">
+        <v>509.96689540353066</v>
+      </c>
+      <c r="U3">
+        <v>522.34751984964259</v>
+      </c>
+      <c r="V3">
+        <v>889.46737652347861</v>
+      </c>
+      <c r="W3">
+        <v>354.83237973804944</v>
+      </c>
+      <c r="X3">
+        <v>349</v>
+      </c>
+      <c r="Y3">
+        <v>893.18178999713712</v>
+      </c>
+      <c r="Z3">
+        <v>890.07874963393658</v>
+      </c>
+      <c r="AA3">
+        <v>348</v>
+      </c>
+      <c r="AB3">
+        <v>345.86695692728279</v>
+      </c>
+      <c r="AC3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1800,8 +1996,59 @@
       <c r="K4" s="2">
         <v>898.18178999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>1479.7148948701831</v>
+      </c>
+      <c r="O4">
+        <v>1473.2353306905293</v>
+      </c>
+      <c r="P4">
+        <v>1101.2219701040583</v>
+      </c>
+      <c r="Q4">
+        <v>1107.4112184328715</v>
+      </c>
+      <c r="R4">
+        <v>733.47095031350148</v>
+      </c>
+      <c r="S4">
+        <v>719.00373505082587</v>
+      </c>
+      <c r="T4">
+        <v>339</v>
+      </c>
+      <c r="U4">
+        <v>357.43228956640741</v>
+      </c>
+      <c r="V4">
+        <v>1012.6335969067704</v>
+      </c>
+      <c r="W4">
+        <v>474.50236367984337</v>
+      </c>
+      <c r="X4">
+        <v>473.16738984616353</v>
+      </c>
+      <c r="Y4">
+        <v>1013.5839006362315</v>
+      </c>
+      <c r="Z4">
+        <v>1012</v>
+      </c>
+      <c r="AA4">
+        <v>470.4840362551991</v>
+      </c>
+      <c r="AB4">
+        <v>469</v>
+      </c>
+      <c r="AC4">
+        <v>1005.2040069956981</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1831,8 +2078,59 @@
       <c r="K5" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1491</v>
+      </c>
+      <c r="O5">
+        <v>1479</v>
+      </c>
+      <c r="P5">
+        <v>1110.4400268714517</v>
+      </c>
+      <c r="Q5">
+        <v>1117.2251969457127</v>
+      </c>
+      <c r="R5">
+        <v>740.50109136046171</v>
+      </c>
+      <c r="S5">
+        <v>727.4743615261151</v>
+      </c>
+      <c r="T5">
+        <v>350.05779300371512</v>
+      </c>
+      <c r="U5">
+        <v>360.82446642322049</v>
+      </c>
+      <c r="V5">
+        <v>875.00000000000011</v>
+      </c>
+      <c r="W5">
+        <v>338</v>
+      </c>
+      <c r="X5">
+        <v>334.01796391130733</v>
+      </c>
+      <c r="Y5">
+        <v>876.06141688646005</v>
+      </c>
+      <c r="Z5">
+        <v>870.48663760499494</v>
+      </c>
+      <c r="AA5">
+        <v>330</v>
+      </c>
+      <c r="AB5">
+        <v>333.31099366099261</v>
+      </c>
+      <c r="AC5">
+        <v>869.11683665181329</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1862,8 +2160,56 @@
       <c r="K6" s="2">
         <v>353</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>7</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1894,7 +2240,7 @@
         <v>895.07874960000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1925,7 +2271,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1956,7 +2302,7 @@
         <v>350.86695689999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1987,7 +2333,7 @@
         <v>516.2729018</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2018,7 +2364,7 @@
         <v>1054.6513580000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2049,7 +2395,7 @@
         <v>1057.3494989999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2080,7 +2426,7 @@
         <v>513.19384539999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2111,7 +2457,7 @@
         <v>509.53178359999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2142,7 +2488,7 @@
         <v>1047.1252569999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2173,7 +2519,7 @@
         <v>1040.8142339999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2204,7 +2550,7 @@
         <v>500.51792349999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2235,7 +2581,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2266,7 +2612,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2297,7 +2643,7 @@
         <v>895.06141690000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2328,7 +2674,7 @@
         <v>353.01796389999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2359,7 +2705,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2390,7 +2736,7 @@
         <v>889.48663759999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2421,7 +2767,7 @@
         <v>888.11683670000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2452,7 +2798,7 @@
         <v>352.31099369999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2483,7 +2829,7 @@
         <v>490.50236369999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2514,7 +2860,7 @@
         <v>1028.633597</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2545,7 +2891,7 @@
         <v>1029.583901</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2576,7 +2922,7 @@
         <v>489.16738980000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2607,7 +2953,7 @@
         <v>486.48403630000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2638,7 +2984,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2669,7 +3015,7 @@
         <v>1021.204007</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2707,6 +3053,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="16" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1632.2250068153903</v>
+      </c>
+      <c r="B1">
+        <v>1625.7010749651322</v>
+      </c>
+      <c r="C1">
+        <v>1254.0758786270517</v>
+      </c>
+      <c r="D1">
+        <v>1258.2034747743264</v>
+      </c>
+      <c r="E1">
+        <v>885.85975735881163</v>
+      </c>
+      <c r="F1">
+        <v>872.48745637488901</v>
+      </c>
+      <c r="G1">
+        <v>492.782476538195</v>
+      </c>
+      <c r="H1">
+        <v>503.55653425087291</v>
+      </c>
+      <c r="I1">
+        <v>1034.651358203427</v>
+      </c>
+      <c r="J1">
+        <v>496.27290178450977</v>
+      </c>
+      <c r="K1">
+        <v>493.19384543003525</v>
+      </c>
+      <c r="L1">
+        <v>1037.3494990915842</v>
+      </c>
+      <c r="M1">
+        <v>1037.1252570136976</v>
+      </c>
+      <c r="N1">
+        <v>489.53178358312277</v>
+      </c>
+      <c r="O1">
+        <v>490.51792350975768</v>
+      </c>
+      <c r="P1">
+        <v>1030.8142339811116</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1646.9999999999998</v>
+      </c>
+      <c r="B2">
+        <v>1642.1717314198845</v>
+      </c>
+      <c r="C2">
+        <v>1271.5762666689691</v>
+      </c>
+      <c r="D2">
+        <v>1275.5801841324005</v>
+      </c>
+      <c r="E2">
+        <v>904.40459917471139</v>
+      </c>
+      <c r="F2">
+        <v>888.59657808465863</v>
+      </c>
+      <c r="G2">
+        <v>509.96689540353066</v>
+      </c>
+      <c r="H2">
+        <v>522.34751984964259</v>
+      </c>
+      <c r="I2">
+        <v>889.46737652347861</v>
+      </c>
+      <c r="J2">
+        <v>354.83237973804944</v>
+      </c>
+      <c r="K2">
+        <v>349</v>
+      </c>
+      <c r="L2">
+        <v>893.18178999713712</v>
+      </c>
+      <c r="M2">
+        <v>890.07874963393658</v>
+      </c>
+      <c r="N2">
+        <v>348</v>
+      </c>
+      <c r="O2">
+        <v>345.86695692728279</v>
+      </c>
+      <c r="P2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1479.7148948701831</v>
+      </c>
+      <c r="B3">
+        <v>1473.2353306905293</v>
+      </c>
+      <c r="C3">
+        <v>1101.2219701040583</v>
+      </c>
+      <c r="D3">
+        <v>1107.4112184328715</v>
+      </c>
+      <c r="E3">
+        <v>733.47095031350148</v>
+      </c>
+      <c r="F3">
+        <v>719.00373505082587</v>
+      </c>
+      <c r="G3">
+        <v>339</v>
+      </c>
+      <c r="H3">
+        <v>357.43228956640741</v>
+      </c>
+      <c r="I3">
+        <v>1012.6335969067704</v>
+      </c>
+      <c r="J3">
+        <v>474.50236367984337</v>
+      </c>
+      <c r="K3">
+        <v>473.16738984616353</v>
+      </c>
+      <c r="L3">
+        <v>1013.5839006362315</v>
+      </c>
+      <c r="M3">
+        <v>1012</v>
+      </c>
+      <c r="N3">
+        <v>470.4840362551991</v>
+      </c>
+      <c r="O3">
+        <v>469</v>
+      </c>
+      <c r="P3">
+        <v>1005.2040069956981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1491</v>
+      </c>
+      <c r="B4">
+        <v>1479</v>
+      </c>
+      <c r="C4">
+        <v>1110.4400268714517</v>
+      </c>
+      <c r="D4">
+        <v>1117.2251969457127</v>
+      </c>
+      <c r="E4">
+        <v>740.50109136046171</v>
+      </c>
+      <c r="F4">
+        <v>727.4743615261151</v>
+      </c>
+      <c r="G4">
+        <v>350.05779300371512</v>
+      </c>
+      <c r="H4">
+        <v>360.82446642322049</v>
+      </c>
+      <c r="I4">
+        <v>875.00000000000011</v>
+      </c>
+      <c r="J4">
+        <v>338</v>
+      </c>
+      <c r="K4">
+        <v>334.01796391130733</v>
+      </c>
+      <c r="L4">
+        <v>876.06141688646005</v>
+      </c>
+      <c r="M4">
+        <v>870.48663760499494</v>
+      </c>
+      <c r="N4">
+        <v>330</v>
+      </c>
+      <c r="O4">
+        <v>333.31099366099261</v>
+      </c>
+      <c r="P4">
+        <v>869.11683665181329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -2716,7 +3282,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2733,7 +3299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2764,7 +3330,7 @@
         <v>29.34225745781572</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2795,7 +3361,7 @@
         <v>840.99907164175033</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2826,7 +3392,7 @@
         <v>859.34225745781578</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2857,7 +3423,7 @@
         <v>314.34225745781572</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2888,7 +3454,7 @@
         <v>320.34137828619572</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2919,7 +3485,7 @@
         <v>863.34225745781578</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2950,7 +3516,7 @@
         <v>871.80117305920476</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2981,7 +3547,7 @@
         <v>328.93127036364535</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3012,7 +3578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3043,7 +3609,7 @@
         <v>999.47984336260345</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3074,7 +3640,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3105,7 +3671,7 @@
         <v>471.50098570018065</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -3136,7 +3702,7 @@
         <v>477.74724778007908</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3167,7 +3733,7 @@
         <v>1021.0000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -3198,7 +3764,7 @@
         <v>1029.3219241389984</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -3229,7 +3795,7 @@
         <v>488.84585525987632</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3252,7 +3818,7 @@
         <v>279.48143931656074</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3275,7 +3841,7 @@
         <v>813.23295593386445</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3298,7 +3864,7 @@
         <v>829.28943124222167</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3321,7 +3887,7 @@
         <v>282.76894231476359</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3344,7 +3910,7 @@
         <v>291.00000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3367,7 +3933,7 @@
         <v>831.51615876175674</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3390,7 +3956,7 @@
         <v>836.56843813389787</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3413,7 +3979,7 @@
         <v>300.52825243257473</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3444,7 +4010,7 @@
         <v>28.14476265348992</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3475,7 +4041,7 @@
         <v>987.80748757663412</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3506,7 +4072,7 @@
         <v>998.63525095173111</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3537,7 +4103,7 @@
         <v>453.14476265348998</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3568,7 +4134,7 @@
         <v>462.61791541004521</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3599,7 +4165,7 @@
         <v>1005.4059517454439</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3630,7 +4196,7 @@
         <v>1011.1447626534898</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3667,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3677,10 +4243,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3697,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3714,7 +4280,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3731,7 +4297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3748,7 +4314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3765,7 +4331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3782,7 +4348,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3799,7 +4365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3816,7 +4382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3833,7 +4399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3850,7 +4416,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3867,7 +4433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3884,7 +4450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3901,7 +4467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -3918,7 +4484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3935,7 +4501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -3952,7 +4518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -3969,7 +4535,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3986,7 +4552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4003,7 +4569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4020,7 +4586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4037,7 +4603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4054,7 +4620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4071,7 +4637,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4088,7 +4654,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4105,7 +4671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4122,7 +4688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4139,7 +4705,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4156,7 +4722,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4173,7 +4739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4190,7 +4756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4207,7 +4773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4224,7 +4790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4245,4 +4811,1158 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1635.2250068153903</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1033.651358203427</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1628.7010749651322</v>
+      </c>
+      <c r="D3" s="0">
+        <v>495.27290178450977</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1257.0758786270517</v>
+      </c>
+      <c r="D4" s="0">
+        <v>492.19384543003525</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1261.2034747743264</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1036.3494990915842</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>888.85975735881163</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1036.1252570136976</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>875.48745637488901</v>
+      </c>
+      <c r="D7" s="0">
+        <v>488.53178358312277</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>495.782476538195</v>
+      </c>
+      <c r="D8" s="0">
+        <v>489.51792350975768</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>506.55653425087291</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1029.8142339811116</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1643.9999999999998</v>
+      </c>
+      <c r="D10" s="0">
+        <v>890.46737652347861</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1639.1717314198845</v>
+      </c>
+      <c r="D11" s="0">
+        <v>355.83237973804944</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1268.5762666689691</v>
+      </c>
+      <c r="D12" s="0">
+        <v>350</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1272.5801841324005</v>
+      </c>
+      <c r="D13" s="0">
+        <v>894.18178999713712</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>901.40459917471139</v>
+      </c>
+      <c r="D14" s="0">
+        <v>891.07874963393658</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>885.59657808465863</v>
+      </c>
+      <c r="D15" s="0">
+        <v>349</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>506.96689540353066</v>
+      </c>
+      <c r="D16" s="0">
+        <v>346.86695692728279</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>519.34751984964259</v>
+      </c>
+      <c r="D17" s="0">
+        <v>890</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1485.7148948701831</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1016.6335969067704</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1479.2353306905293</v>
+      </c>
+      <c r="D19" s="0">
+        <v>478.50236367984337</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1107.2219701040583</v>
+      </c>
+      <c r="D20" s="0">
+        <v>477.16738984616353</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1113.4112184328715</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1017.5839006362315</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>739.47095031350148</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1016</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>725.00373505082587</v>
+      </c>
+      <c r="D23" s="0">
+        <v>474.4840362551991</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>345</v>
+      </c>
+      <c r="D24" s="0">
+        <v>473</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>363.43228956640741</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1009.2040069956981</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1501</v>
+      </c>
+      <c r="D26" s="0">
+        <v>878.00000000000011</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1489</v>
+      </c>
+      <c r="D27" s="0">
+        <v>341</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1120.4400268714517</v>
+      </c>
+      <c r="D28" s="0">
+        <v>337.01796391130733</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1127.2251969457127</v>
+      </c>
+      <c r="D29" s="0">
+        <v>879.06141688646005</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>750.50109136046171</v>
+      </c>
+      <c r="D30" s="0">
+        <v>873.48663760499494</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>737.4743615261151</v>
+      </c>
+      <c r="D31" s="0">
+        <v>333</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>360.05779300371512</v>
+      </c>
+      <c r="D32" s="0">
+        <v>336.31099366099261</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>370.82446642322049</v>
+      </c>
+      <c r="D33" s="0">
+        <v>872.11683665181329</v>
+      </c>
+      <c r="E33" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1619.4630275922909</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1026.9493538404563</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1615</v>
+      </c>
+      <c r="D3" s="0">
+        <v>490.5340062361679</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1246.8986241372759</v>
+      </c>
+      <c r="D4" s="0">
+        <v>489.98930052173625</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1250.6105560128537</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1033.1994263586266</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>876.30901366636238</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1029.3414742931636</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>863.11815473245372</v>
+      </c>
+      <c r="D7" s="0">
+        <v>482.1151043261882</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>483.03760659484539</v>
+      </c>
+      <c r="D8" s="0">
+        <v>482.63522811947422</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>494.06667877099005</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1024.4941583555815</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1634.5832371432114</v>
+      </c>
+      <c r="D10" s="0">
+        <v>883</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1632.4265443435393</v>
+      </c>
+      <c r="D11" s="0">
+        <v>348.1904554392429</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1264.2992618674946</v>
+      </c>
+      <c r="D12" s="0">
+        <v>339.8398448017395</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1272.4976351483458</v>
+      </c>
+      <c r="D13" s="0">
+        <v>884.50371781189858</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>896.0054514726379</v>
+      </c>
+      <c r="D14" s="0">
+        <v>886.00067032311472</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>884.39997528745789</v>
+      </c>
+      <c r="D15" s="0">
+        <v>338.15420968300811</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>504</v>
+      </c>
+      <c r="D16" s="0">
+        <v>338</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>515.458800788433</v>
+      </c>
+      <c r="D17" s="0">
+        <v>879.01899490184496</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1471.0269453062842</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1014.9619501882065</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1465</v>
+      </c>
+      <c r="D19" s="0">
+        <v>474</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1092</v>
+      </c>
+      <c r="D20" s="0">
+        <v>472</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1098.5015147541376</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1017.4988351453728</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>722.70855122616899</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1015.2579986889109</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>707.00866303979069</v>
+      </c>
+      <c r="D23" s="0">
+        <v>468.17576007912305</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>328.49685359317334</v>
+      </c>
+      <c r="D24" s="0">
+        <v>469.008965874051</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>344.52202340700165</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1006.9625696988209</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1479.4170525137188</v>
+      </c>
+      <c r="D26" s="0">
+        <v>878.80732756498946</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D27" s="0">
+        <v>339</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1098.9999999999998</v>
+      </c>
+      <c r="D28" s="0">
+        <v>333.46386067619034</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1106.8380913459309</v>
+      </c>
+      <c r="D29" s="0">
+        <v>878.36948917416635</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>730</v>
+      </c>
+      <c r="D30" s="0">
+        <v>875</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>718.66826419851839</v>
+      </c>
+      <c r="D31" s="0">
+        <v>331.37423485472425</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>338.1778550489546</v>
+      </c>
+      <c r="D32" s="0">
+        <v>331.41781057527805</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>348.66064541799346</v>
+      </c>
+      <c r="D33" s="0">
+        <v>872.97155739522611</v>
+      </c>
+      <c r="E33" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B339D-93EC-8341-8C0D-BCECB69C8668}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F91E81-5800-4843-A98B-51F4E0E0EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="230920_backup2" sheetId="5" r:id="rId3"/>
     <sheet name="230721" sheetId="1" r:id="rId4"/>
     <sheet name="230712" sheetId="2" r:id="rId5"/>
-    <sheet name="230920" sheetId="6" r:id="rId10"/>
-    <sheet name="240111" sheetId="7" r:id="rId11"/>
+    <sheet name="230920" sheetId="6" r:id="rId6"/>
+    <sheet name="240111_backup" sheetId="8" r:id="rId7"/>
+    <sheet name="240111" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -69,36 +75,6 @@
   <si>
     <t>y</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>timing</t>
-  </si>
-  <si>
-    <t>center_X</t>
-  </si>
-  <si>
-    <t>center_Y</t>
-  </si>
-  <si>
-    <t>radii</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>timing</t>
-  </si>
-  <si>
-    <t>center_X</t>
-  </si>
-  <si>
-    <t>center_Y</t>
-  </si>
-  <si>
-    <t>radii</t>
   </si>
   <si>
     <t>number</t>
@@ -183,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,27 +181,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -244,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -284,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -390,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,11 +519,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -572,8 +543,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -599,18 +570,18 @@
       <c r="I2">
         <v>65</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1643.4265439999999</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>344.19045540000002</v>
       </c>
-      <c r="M2" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
+      <c r="M2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
@@ -636,18 +607,18 @@
       <c r="I3">
         <v>65</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>1645.5832370000001</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>879</v>
       </c>
-      <c r="M3" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
+      <c r="M3" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
@@ -673,18 +644,18 @@
       <c r="I4">
         <v>65</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1283.4976349999999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>880.5037178</v>
       </c>
-      <c r="M4" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
+      <c r="M4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
@@ -710,18 +681,18 @@
       <c r="I5">
         <v>65</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>1275.299262</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>335.83984479999998</v>
       </c>
-      <c r="M5" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
+      <c r="M5" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
@@ -747,18 +718,18 @@
       <c r="I6">
         <v>65</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>895.39997530000005</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>334.15420970000002</v>
       </c>
-      <c r="M6" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
+      <c r="M6" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
@@ -784,18 +755,18 @@
       <c r="I7">
         <v>65</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>907.00545150000005</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>882.00067030000002</v>
       </c>
-      <c r="M7" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
+      <c r="M7" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
@@ -821,18 +792,18 @@
       <c r="I8">
         <v>65</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>526.45880079999995</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>875.01899490000005</v>
       </c>
-      <c r="M8" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
+      <c r="M8" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
@@ -858,18 +829,18 @@
       <c r="I9">
         <v>65</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>515</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>334</v>
       </c>
-      <c r="M9" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
+      <c r="M9" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
@@ -895,18 +866,18 @@
       <c r="I10">
         <v>65</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>1638</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>483.53400620000002</v>
       </c>
-      <c r="M10" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
+      <c r="M10" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
@@ -932,18 +903,18 @@
       <c r="I11">
         <v>65</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1642.4630279999999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>1019.949354</v>
       </c>
-      <c r="M11" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
+      <c r="M11" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
@@ -969,18 +940,18 @@
       <c r="I12">
         <v>65</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>1273.6105560000001</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>1026.1994259999999</v>
       </c>
-      <c r="M12" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
+      <c r="M12" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
@@ -1006,18 +977,18 @@
       <c r="I13">
         <v>65</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>1269.8986239999999</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>482.98930050000001</v>
       </c>
-      <c r="M13" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
+      <c r="M13" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
@@ -1043,18 +1014,18 @@
       <c r="I14">
         <v>65</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>886.11815469999999</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>475.11510429999998</v>
       </c>
-      <c r="M14" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
+      <c r="M14" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
@@ -1080,18 +1051,18 @@
       <c r="I15">
         <v>65</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>899.30901370000004</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>1022.3414739999999</v>
       </c>
-      <c r="M15" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
+      <c r="M15" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
@@ -1117,18 +1088,18 @@
       <c r="I16">
         <v>65</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>517.06667879999998</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>1017.494158</v>
       </c>
-      <c r="M16" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
+      <c r="M16" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
@@ -1154,17 +1125,17 @@
       <c r="I17">
         <v>65</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>506.0376066</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <v>475.63522810000001</v>
       </c>
-      <c r="M17" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="M17" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1191,17 +1162,17 @@
       <c r="I18">
         <v>65</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>1480.4265439999999</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>329.6564492</v>
       </c>
-      <c r="M18" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="M18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1228,17 +1199,17 @@
       <c r="I19">
         <v>65</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>1484.1471550000001</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>869.01259630000004</v>
       </c>
-      <c r="M19" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="M19" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1265,17 +1236,17 @@
       <c r="I20">
         <v>65</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>1118.388594</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>866.80312660000004</v>
       </c>
-      <c r="M20" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="M20" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1302,17 +1273,17 @@
       <c r="I21">
         <v>65</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>1107.4006380000001</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>319.85054430000002</v>
       </c>
-      <c r="M21" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="M21" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1339,17 +1310,17 @@
       <c r="I22">
         <v>65</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>726.29048360000002</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>322.21486540000001</v>
       </c>
-      <c r="M22" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="M22" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1376,17 +1347,17 @@
       <c r="I23">
         <v>65</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>740.404989</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>869.91719469999998</v>
       </c>
-      <c r="M23" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="M23" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1413,17 +1384,17 @@
       <c r="I24">
         <v>65</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>363.9141454</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>859.48740620000001</v>
       </c>
-      <c r="M24" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="M24" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1450,17 +1421,17 @@
       <c r="I25">
         <v>65</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>347.459247</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>322.37373780000001</v>
       </c>
-      <c r="M25" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="M25" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1487,17 +1458,17 @@
       <c r="I26">
         <v>65</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>1475</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>469</v>
       </c>
-      <c r="M26" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="M26" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1524,17 +1495,17 @@
       <c r="I27">
         <v>65</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>1481.0269450000001</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>1009.96195</v>
       </c>
-      <c r="M27" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="M27" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1561,17 +1532,17 @@
       <c r="I28">
         <v>65</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>1108.5015149999999</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>1012.498835</v>
       </c>
-      <c r="M28" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="M28" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1598,17 +1569,17 @@
       <c r="I29">
         <v>65</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>1102</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>467</v>
       </c>
-      <c r="M29" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="M29" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1635,17 +1606,17 @@
       <c r="I30">
         <v>65</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>717.00866299999996</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>463.17576009999999</v>
       </c>
-      <c r="M30" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="M30" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1672,17 +1643,17 @@
       <c r="I31">
         <v>65</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>732.70855119999999</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>1010.257999</v>
       </c>
-      <c r="M31" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="M31" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1709,17 +1680,17 @@
       <c r="I32">
         <v>65</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>354.52202340000002</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>1001.96257</v>
       </c>
-      <c r="M32" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="M32" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1746,13 +1717,13 @@
       <c r="I33">
         <v>65</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>338.49685360000001</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>464.00896590000002</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>65</v>
       </c>
     </row>
@@ -1772,11 +1743,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1802,8 +1773,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:29">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1826,10 +1797,10 @@
       <c r="H2">
         <v>319.83237973804944</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1639.1717309999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>359.83237969999999</v>
       </c>
       <c r="M2">
@@ -1884,8 +1855,8 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:29">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1908,10 +1879,10 @@
       <c r="H3">
         <v>854.46737652347861</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>1644</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>894.4673765</v>
       </c>
       <c r="M3">
@@ -1966,8 +1937,8 @@
         <v>889</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:29">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
@@ -1990,10 +1961,10 @@
       <c r="H4">
         <v>858.18178999713712</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1272.5801839999999</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>898.18178999999998</v>
       </c>
       <c r="M4">
@@ -2048,8 +2019,8 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" spans="1:29">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
@@ -2072,10 +2043,10 @@
       <c r="H5">
         <v>314</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>1268.5762669999999</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>354</v>
       </c>
       <c r="M5">
@@ -2130,8 +2101,8 @@
         <v>869.11683665181329</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" spans="1:29">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
@@ -2154,10 +2125,10 @@
       <c r="H6">
         <v>313</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>885.59657809999999</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>353</v>
       </c>
       <c r="N6">
@@ -2209,8 +2180,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" spans="1:29">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
@@ -2233,15 +2204,15 @@
       <c r="H7">
         <v>855.07874963393658</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>901.40459920000001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>895.07874960000004</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" spans="1:29">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
@@ -2264,15 +2235,15 @@
       <c r="H8">
         <v>854</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>519.34751979999999</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>894</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" spans="1:29">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
@@ -2295,15 +2266,15 @@
       <c r="H9">
         <v>310.86695692728279</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>506.9668954</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>350.86695689999999</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" spans="1:29">
+      <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
@@ -2326,15 +2297,15 @@
       <c r="H10">
         <v>456.27290178450977</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>1634.7010749999999</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>516.2729018</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" spans="1:29">
+      <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
@@ -2357,15 +2328,15 @@
       <c r="H11">
         <v>994.65135820342698</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>1641.225007</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>1054.6513580000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" spans="1:29">
+      <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
@@ -2388,15 +2359,15 @@
       <c r="H12">
         <v>997.34949909158422</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>1267.203475</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>1057.3494989999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" spans="1:29">
+      <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
@@ -2419,15 +2390,15 @@
       <c r="H13">
         <v>453.19384543003525</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1263.075879</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>513.19384539999999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" spans="1:29">
+      <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
@@ -2450,15 +2421,15 @@
       <c r="H14">
         <v>449.53178358312277</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>881.48745640000004</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>509.53178359999998</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:29">
+      <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
@@ -2481,15 +2452,15 @@
       <c r="H15">
         <v>997.12525701369748</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>894.85975740000003</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>1047.1252569999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" spans="1:29">
+      <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
@@ -2512,15 +2483,15 @@
       <c r="H16">
         <v>990.81423398111144</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>512.55653429999995</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>1040.8142339999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11">
+      <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
@@ -2543,14 +2514,14 @@
       <c r="H17">
         <v>450.51792350975768</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>501.78247649999997</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>500.51792349999999</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2574,14 +2545,14 @@
       <c r="H18">
         <v>317</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>1473</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>357</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2605,14 +2576,14 @@
       <c r="H19">
         <v>854.00000000000011</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>1485</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>894</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2636,14 +2607,14 @@
       <c r="H20">
         <v>855.06141688646005</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>1111.225197</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>895.06141690000004</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2667,14 +2638,14 @@
       <c r="H21">
         <v>313.01796391130733</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>1104.4400270000001</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>353.01796389999998</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2698,14 +2669,14 @@
       <c r="H22">
         <v>309</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>721.47436149999999</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>349</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2729,14 +2700,14 @@
       <c r="H23">
         <v>849.48663760499494</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>734.50109139999995</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>889.48663759999999</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2760,14 +2731,14 @@
       <c r="H24">
         <v>848.11683665181329</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>354.82446640000001</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>888.11683670000002</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2791,14 +2762,14 @@
       <c r="H25">
         <v>312.31099366099261</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>344.057793</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>352.31099369999998</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2822,14 +2793,14 @@
       <c r="H26">
         <v>450.50236367984337</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>1470.2353310000001</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>490.50236369999999</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2853,14 +2824,14 @@
       <c r="H27">
         <v>988.63359690677044</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>1476.7148950000001</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>1028.633597</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2884,14 +2855,14 @@
       <c r="H28">
         <v>989.58390063623153</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>1104.411218</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>1029.583901</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2915,14 +2886,14 @@
       <c r="H29">
         <v>449.16738984616353</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>1098.2219700000001</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>489.16738980000002</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2946,14 +2917,14 @@
       <c r="H30">
         <v>446.4840362551991</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>716.00373509999997</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>486.48403630000001</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2977,14 +2948,14 @@
       <c r="H31">
         <v>988</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>730.47095030000003</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>1028</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3008,14 +2979,14 @@
       <c r="H32">
         <v>981.20400699569814</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>354.43228959999999</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>1021.204007</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3039,10 +3010,10 @@
       <c r="H33">
         <v>445</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>336</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>485</v>
       </c>
     </row>
@@ -3056,16 +3027,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16" width="12.7109375" customWidth="true"/>
+    <col min="1" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16">
       <c r="A1">
         <v>1632.2250068153903</v>
       </c>
@@ -3115,7 +3086,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1646.9999999999998</v>
       </c>
@@ -3165,7 +3136,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1479.7148948701831</v>
       </c>
@@ -3215,7 +3186,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1491</v>
       </c>
@@ -3282,7 +3253,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3299,8 +3270,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:11">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3330,8 +3301,8 @@
         <v>29.34225745781572</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:11">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
@@ -3361,8 +3332,8 @@
         <v>840.99907164175033</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
@@ -3392,8 +3363,8 @@
         <v>859.34225745781578</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" spans="1:11">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
@@ -3423,8 +3394,8 @@
         <v>314.34225745781572</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" spans="1:11">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
@@ -3454,8 +3425,8 @@
         <v>320.34137828619572</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
@@ -3485,8 +3456,8 @@
         <v>863.34225745781578</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" spans="1:11">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
@@ -3516,8 +3487,8 @@
         <v>871.80117305920476</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" spans="1:11">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
@@ -3547,8 +3518,8 @@
         <v>328.93127036364535</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" spans="1:11">
+      <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
@@ -3578,8 +3549,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" spans="1:11">
+      <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
@@ -3609,8 +3580,8 @@
         <v>999.47984336260345</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" spans="1:11">
+      <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
@@ -3640,8 +3611,8 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" spans="1:11">
+      <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
@@ -3671,8 +3642,8 @@
         <v>471.50098570018065</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" spans="1:11">
+      <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
@@ -3702,8 +3673,8 @@
         <v>477.74724778007908</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:11">
+      <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
@@ -3733,8 +3704,8 @@
         <v>1021.0000000000001</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" spans="1:11">
+      <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
@@ -3764,8 +3735,8 @@
         <v>1029.3219241389984</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
+    <row r="17" spans="1:11">
+      <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
@@ -3795,7 +3766,7 @@
         <v>488.84585525987632</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3818,7 +3789,7 @@
         <v>279.48143931656074</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3841,7 +3812,7 @@
         <v>813.23295593386445</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3864,7 +3835,7 @@
         <v>829.28943124222167</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3887,7 +3858,7 @@
         <v>282.76894231476359</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3910,7 +3881,7 @@
         <v>291.00000000000006</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3933,7 +3904,7 @@
         <v>831.51615876175674</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3956,7 +3927,7 @@
         <v>836.56843813389787</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3979,7 +3950,7 @@
         <v>300.52825243257473</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4010,7 +3981,7 @@
         <v>28.14476265348992</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4041,7 +4012,7 @@
         <v>987.80748757663412</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4072,7 +4043,7 @@
         <v>998.63525095173111</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4103,7 +4074,7 @@
         <v>453.14476265348998</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4134,7 +4105,7 @@
         <v>462.61791541004521</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4165,7 +4136,7 @@
         <v>1005.4059517454439</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4196,7 +4167,7 @@
         <v>1011.1447626534898</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4237,16 +4208,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4263,8 +4234,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -4280,8 +4251,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
@@ -4297,8 +4268,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
@@ -4314,8 +4285,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
@@ -4331,8 +4302,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
@@ -4348,8 +4319,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
@@ -4365,8 +4336,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" spans="1:5">
+      <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
@@ -4382,8 +4353,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
@@ -4399,8 +4370,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
@@ -4416,8 +4387,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" spans="1:5">
+      <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
@@ -4433,8 +4404,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" spans="1:5">
+      <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
@@ -4450,8 +4421,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" spans="1:5">
+      <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
@@ -4467,8 +4438,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" spans="1:5">
+      <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
@@ -4484,8 +4455,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:5">
+      <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
@@ -4501,8 +4472,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
@@ -4518,8 +4489,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
@@ -4535,7 +4506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4552,7 +4523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4569,7 +4540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4586,7 +4557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4603,7 +4574,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4620,7 +4591,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4637,7 +4608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4654,7 +4625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4671,7 +4642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4688,7 +4659,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4705,7 +4676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4722,7 +4693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4739,7 +4710,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4756,7 +4727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4773,7 +4744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4790,7 +4761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4814,1155 +4785,1741 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1635.2250068153903</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>1033.651358203427</v>
       </c>
-      <c r="E2" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1628.7010749651322</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>495.27290178450977</v>
       </c>
-      <c r="E3" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1257.0758786270517</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>492.19384543003525</v>
       </c>
-      <c r="E4" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1261.2034747743264</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1036.3494990915842</v>
       </c>
-      <c r="E5" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>888.85975735881163</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>1036.1252570136976</v>
       </c>
-      <c r="E6" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>875.48745637488901</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>488.53178358312277</v>
       </c>
-      <c r="E7" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>495.782476538195</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>489.51792350975768</v>
       </c>
-      <c r="E8" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>506.55653425087291</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>1029.8142339811116</v>
       </c>
-      <c r="E9" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1643.9999999999998</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>890.46737652347861</v>
       </c>
-      <c r="E10" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1639.1717314198845</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>355.83237973804944</v>
       </c>
-      <c r="E11" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1268.5762666689691</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>350</v>
       </c>
-      <c r="E12" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1272.5801841324005</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>894.18178999713712</v>
       </c>
-      <c r="E13" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>901.40459917471139</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>891.07874963393658</v>
       </c>
-      <c r="E14" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>885.59657808465863</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>349</v>
       </c>
-      <c r="E15" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>506.96689540353066</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>346.86695692728279</v>
       </c>
-      <c r="E16" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>519.34751984964259</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>890</v>
       </c>
-      <c r="E17" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1485.7148948701831</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>1016.6335969067704</v>
       </c>
-      <c r="E18" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>1479.2353306905293</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>478.50236367984337</v>
       </c>
-      <c r="E19" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1107.2219701040583</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>477.16738984616353</v>
       </c>
-      <c r="E20" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1113.4112184328715</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>1017.5839006362315</v>
       </c>
-      <c r="E21" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>739.47095031350148</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>1016</v>
       </c>
-      <c r="E22" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>725.00373505082587</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>474.4840362551991</v>
       </c>
-      <c r="E23" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>345</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>473</v>
       </c>
-      <c r="E24" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>363.43228956640741</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>1009.2040069956981</v>
       </c>
-      <c r="E25" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1501</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>878.00000000000011</v>
       </c>
-      <c r="E26" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1489</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>341</v>
       </c>
-      <c r="E27" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1120.4400268714517</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>337.01796391130733</v>
       </c>
-      <c r="E28" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>1127.2251969457127</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>879.06141688646005</v>
       </c>
-      <c r="E29" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>750.50109136046171</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>873.48663760499494</v>
       </c>
-      <c r="E30" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>737.4743615261151</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>333</v>
       </c>
-      <c r="E31" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>360.05779300371512</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>336.31099366099261</v>
       </c>
-      <c r="E32" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>370.82446642322049</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>872.11683665181329</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
   <dimension ref="A1:E33"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1619.4630275922909</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>1026.9493538404563</v>
       </c>
-      <c r="E2" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1615</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>490.5340062361679</v>
       </c>
-      <c r="E3" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1246.8986241372759</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>489.98930052173625</v>
       </c>
-      <c r="E4" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1250.6105560128537</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1033.1994263586266</v>
       </c>
-      <c r="E5" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>876.30901366636238</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>1029.3414742931636</v>
       </c>
-      <c r="E6" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>863.11815473245372</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>482.1151043261882</v>
       </c>
-      <c r="E7" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>483.03760659484539</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>482.63522811947422</v>
       </c>
-      <c r="E8" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>494.06667877099005</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>1024.4941583555815</v>
       </c>
-      <c r="E9" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1634.5832371432114</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>883</v>
       </c>
-      <c r="E10" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1632.4265443435393</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>348.1904554392429</v>
       </c>
-      <c r="E11" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1264.2992618674946</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>339.8398448017395</v>
       </c>
-      <c r="E12" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1272.4976351483458</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>884.50371781189858</v>
       </c>
-      <c r="E13" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>896.0054514726379</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>886.00067032311472</v>
       </c>
-      <c r="E14" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>884.39997528745789</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>338.15420968300811</v>
       </c>
-      <c r="E15" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>504</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>338</v>
       </c>
-      <c r="E16" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>515.458800788433</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>879.01899490184496</v>
       </c>
-      <c r="E17" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1471.0269453062842</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>1014.9619501882065</v>
       </c>
-      <c r="E18" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>1465</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>474</v>
       </c>
-      <c r="E19" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1092</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>472</v>
       </c>
-      <c r="E20" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1098.5015147541376</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>1017.4988351453728</v>
       </c>
-      <c r="E21" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>722.70855122616899</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>1015.2579986889109</v>
       </c>
-      <c r="E22" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>707.00866303979069</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>468.17576007912305</v>
       </c>
-      <c r="E23" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>328.49685359317334</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>469.008965874051</v>
       </c>
-      <c r="E24" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>344.52202340700165</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>1006.9625696988209</v>
       </c>
-      <c r="E25" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1479.4170525137188</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>878.80732756498946</v>
       </c>
-      <c r="E26" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1472</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>339</v>
       </c>
-      <c r="E27" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1098.9999999999998</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>333.46386067619034</v>
       </c>
-      <c r="E28" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>1106.8380913459309</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>878.36948917416635</v>
       </c>
-      <c r="E29" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>730</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>875</v>
       </c>
-      <c r="E30" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>718.66826419851839</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>331.37423485472425</v>
       </c>
-      <c r="E31" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>338.1778550489546</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>331.41781057527805</v>
       </c>
-      <c r="E32" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>348.66064541799346</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>872.97155739522611</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1619.4630275922909</v>
+      </c>
+      <c r="D2">
+        <v>1026.9493538404563</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1615</v>
+      </c>
+      <c r="D3">
+        <v>490.5340062361679</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1246.8986241372759</v>
+      </c>
+      <c r="D4">
+        <v>489.98930052173625</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1250.6105560128537</v>
+      </c>
+      <c r="D5">
+        <v>1033.1994263586266</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>876.30901366636238</v>
+      </c>
+      <c r="D6">
+        <v>1029.3414742931636</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>863.11815473245372</v>
+      </c>
+      <c r="D7">
+        <v>482.1151043261882</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>483.03760659484539</v>
+      </c>
+      <c r="D8">
+        <v>482.63522811947422</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>494.06667877099005</v>
+      </c>
+      <c r="D9">
+        <v>1024.4941583555815</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1634.5832371432114</v>
+      </c>
+      <c r="D10">
+        <v>883</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1632.4265443435393</v>
+      </c>
+      <c r="D11">
+        <v>348.1904554392429</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1264.2992618674946</v>
+      </c>
+      <c r="D12">
+        <v>339.8398448017395</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1272.4976351483458</v>
+      </c>
+      <c r="D13">
+        <v>884.50371781189858</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>896.0054514726379</v>
+      </c>
+      <c r="D14">
+        <v>886.00067032311472</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>884.39997528745789</v>
+      </c>
+      <c r="D15">
+        <v>338.15420968300811</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>504</v>
+      </c>
+      <c r="D16">
+        <v>338</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>515.458800788433</v>
+      </c>
+      <c r="D17">
+        <v>879.01899490184496</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1471.0269453062842</v>
+      </c>
+      <c r="D18">
+        <v>1014.9619501882065</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1465</v>
+      </c>
+      <c r="D19">
+        <v>474</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1092</v>
+      </c>
+      <c r="D20">
+        <v>472</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1098.5015147541376</v>
+      </c>
+      <c r="D21">
+        <v>1017.4988351453728</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>722.70855122616899</v>
+      </c>
+      <c r="D22">
+        <v>1015.2579986889109</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>707.00866303979069</v>
+      </c>
+      <c r="D23">
+        <v>468.17576007912305</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>328.49685359317334</v>
+      </c>
+      <c r="D24">
+        <v>469.008965874051</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>344.52202340700165</v>
+      </c>
+      <c r="D25">
+        <v>1006.9625696988209</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1479.4170525137188</v>
+      </c>
+      <c r="D26">
+        <v>878.80732756498946</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1472</v>
+      </c>
+      <c r="D27">
+        <v>339</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1098.9999999999998</v>
+      </c>
+      <c r="D28">
+        <v>333.46386067619034</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1106.8380913459309</v>
+      </c>
+      <c r="D29">
+        <v>878.36948917416635</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>730</v>
+      </c>
+      <c r="D30">
+        <v>875</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>718.66826419851839</v>
+      </c>
+      <c r="D31">
+        <v>331.37423485472425</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>338.1778550489546</v>
+      </c>
+      <c r="D32">
+        <v>331.41781057527805</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>348.66064541799346</v>
+      </c>
+      <c r="D33">
+        <v>872.97155739522611</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F91E81-5800-4843-A98B-51F4E0E0EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="230920" sheetId="6" r:id="rId6"/>
     <sheet name="240111_backup" sheetId="8" r:id="rId7"/>
     <sheet name="240111" sheetId="7" r:id="rId8"/>
+    <sheet name="240501" sheetId="9" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -159,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -181,22 +182,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -215,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -366,7 +369,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -390,9 +393,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -416,7 +419,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -451,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -469,7 +472,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -494,7 +497,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -510,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -519,11 +522,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -543,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,7 +583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -617,7 +620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -654,7 +657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -691,7 +694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -728,7 +731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -765,7 +768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -802,7 +805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -839,7 +842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -876,7 +879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -913,7 +916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -950,7 +953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -987,7 +990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1394,7 +1397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1734,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1743,11 +1746,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>869.11683665181329</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>895.07874960000004</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>350.86695689999999</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>516.2729018</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>1054.6513580000001</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>1057.3494989999999</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>513.19384539999999</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>509.53178359999998</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>1047.1252569999999</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>1040.8142339999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>500.51792349999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>895.06141690000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>353.01796389999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2707,7 +2710,7 @@
         <v>889.48663759999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>888.11683670000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>352.31099369999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>490.50236369999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>1028.633597</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>1029.583901</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>489.16738980000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2924,7 +2927,7 @@
         <v>486.48403630000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>1021.204007</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3024,7 +3027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3033,10 +3036,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16" width="12.7109375" customWidth="1"/>
+    <col min="1" max="16" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1">
       <c r="A1">
         <v>1632.2250068153903</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2">
       <c r="A2">
         <v>1646.9999999999998</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3">
       <c r="A3">
         <v>1479.7148948701831</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4">
       <c r="A4">
         <v>1491</v>
       </c>
@@ -3244,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3253,7 +3256,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>29.34225745781572</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>840.99907164175033</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>859.34225745781578</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>314.34225745781572</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>320.34137828619572</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3456,7 +3459,7 @@
         <v>863.34225745781578</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>871.80117305920476</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3518,7 +3521,7 @@
         <v>328.93127036364535</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>999.47984336260345</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3642,7 +3645,7 @@
         <v>471.50098570018065</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>477.74724778007908</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>1021.0000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>1029.3219241389984</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>488.84585525987632</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>279.48143931656074</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>813.23295593386445</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>829.28943124222167</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>282.76894231476359</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>291.00000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>831.51615876175674</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>836.56843813389787</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>300.52825243257473</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>28.14476265348992</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>987.80748757663412</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>998.63525095173111</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>453.14476265348998</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>462.61791541004521</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>1005.4059517454439</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4167,7 +4170,7 @@
         <v>1011.1447626534898</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4205,7 +4208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4214,10 +4217,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4455,7 +4458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4472,7 +4475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4785,19 +4788,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5365,19 +5368,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5411,7 +5414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5751,7 +5754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5921,7 +5924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5945,19 +5948,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6008,7 +6011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6042,7 +6045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6127,7 +6130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6365,7 +6368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6399,7 +6402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6450,7 +6453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -6501,7 +6504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6522,4 +6525,584 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1618.8746535296575</v>
+      </c>
+      <c r="D2" s="0">
+        <v>996.0845244489575</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1615.9734582162946</v>
+      </c>
+      <c r="D3" s="0">
+        <v>460</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1246.9999999999998</v>
+      </c>
+      <c r="D4" s="0">
+        <v>457</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1251.3493827116019</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1002.3012493082249</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>879.52484896262547</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1003.5206728589721</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>864.4076645902577</v>
+      </c>
+      <c r="D7" s="0">
+        <v>453.79481902986134</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>482.46508385439239</v>
+      </c>
+      <c r="D8" s="0">
+        <v>456.4455764172319</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>496.99999999999994</v>
+      </c>
+      <c r="D9" s="0">
+        <v>996.09806950120878</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1630.7425030099457</v>
+      </c>
+      <c r="D10" s="0">
+        <v>851.02871194456884</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1621.4061483041658</v>
+      </c>
+      <c r="D11" s="0">
+        <v>316.32671346786896</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1255</v>
+      </c>
+      <c r="D12" s="0">
+        <v>311</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1262.520209029972</v>
+      </c>
+      <c r="D13" s="0">
+        <v>854.01460290365162</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>890.62459762139895</v>
+      </c>
+      <c r="D14" s="0">
+        <v>854.04376388709545</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>874.28458590452396</v>
+      </c>
+      <c r="D15" s="0">
+        <v>308.24413555490423</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>495.83493585304365</v>
+      </c>
+      <c r="D16" s="0">
+        <v>307.79972769377798</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>503.0101420458949</v>
+      </c>
+      <c r="D17" s="0">
+        <v>852</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1473</v>
+      </c>
+      <c r="D18" s="0">
+        <v>986</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1465.3355062255928</v>
+      </c>
+      <c r="D19" s="0">
+        <v>444.68324673024046</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1093</v>
+      </c>
+      <c r="D20" s="0">
+        <v>442.06282172105097</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1100.0510306101908</v>
+      </c>
+      <c r="D21" s="0">
+        <v>987.25802220168634</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>726.28422113454724</v>
+      </c>
+      <c r="D22" s="0">
+        <v>983.28024475973484</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>708.43600904846016</v>
+      </c>
+      <c r="D23" s="0">
+        <v>441.80569376586431</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>331.48909359995025</v>
+      </c>
+      <c r="D24" s="0">
+        <v>441.47228629221291</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>347.68442286943787</v>
+      </c>
+      <c r="D25" s="0">
+        <v>978.32923481001239</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1480.3846762361873</v>
+      </c>
+      <c r="D26" s="0">
+        <v>845.182620379632</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1469.7054596333444</v>
+      </c>
+      <c r="D27" s="0">
+        <v>304.98346611431509</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1097.5063568822814</v>
+      </c>
+      <c r="D28" s="0">
+        <v>304.46121207422669</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1106.5494197876064</v>
+      </c>
+      <c r="D29" s="0">
+        <v>844</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>730.37055943669645</v>
+      </c>
+      <c r="D30" s="0">
+        <v>845.87694241073473</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>715</v>
+      </c>
+      <c r="D31" s="0">
+        <v>303</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>338.59998908096031</v>
+      </c>
+      <c r="D32" s="0">
+        <v>303.18836282597613</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>348.52787151824356</v>
+      </c>
+      <c r="D33" s="0">
+        <v>841.00000000000011</v>
+      </c>
+      <c r="E33" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F91E81-5800-4843-A98B-51F4E0E0EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92411AFE-1D4F-4A41-9D6F-D95C883D4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" activeTab="7"/>
+    <workbookView xWindow="32700" yWindow="1740" windowWidth="28800" windowHeight="16160" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,11 @@
     <sheet name="230920" sheetId="6" r:id="rId6"/>
     <sheet name="240111_backup" sheetId="8" r:id="rId7"/>
     <sheet name="240111" sheetId="7" r:id="rId8"/>
-    <sheet name="240501" sheetId="9" r:id="rId13"/>
+    <sheet name="240501_old" sheetId="10" r:id="rId9"/>
+    <sheet name="240501_old2" sheetId="9" r:id="rId10"/>
+    <sheet name="240501" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -126,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -160,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,24 +184,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -369,7 +369,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -393,9 +393,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -419,7 +419,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -454,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -472,7 +472,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -497,7 +497,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -522,11 +522,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
@@ -694,7 +694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,7 +731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1</v>
       </c>
@@ -805,7 +805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1</v>
       </c>
@@ -842,7 +842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2</v>
       </c>
@@ -879,7 +879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2</v>
       </c>
@@ -916,7 +916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2</v>
       </c>
@@ -953,7 +953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -990,7 +990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1728,6 +1728,1170 @@
       </c>
       <c r="M33" s="2">
         <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1618.8746535296575</v>
+      </c>
+      <c r="D2">
+        <v>996.0845244489575</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1615.9734582162946</v>
+      </c>
+      <c r="D3">
+        <v>460</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1246.9999999999998</v>
+      </c>
+      <c r="D4">
+        <v>457</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1251.3493827116019</v>
+      </c>
+      <c r="D5">
+        <v>1002.3012493082249</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>879.52484896262547</v>
+      </c>
+      <c r="D6">
+        <v>1003.5206728589721</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>864.4076645902577</v>
+      </c>
+      <c r="D7">
+        <v>453.79481902986134</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>482.46508385439239</v>
+      </c>
+      <c r="D8">
+        <v>456.4455764172319</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>496.99999999999994</v>
+      </c>
+      <c r="D9">
+        <v>996.09806950120878</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1630.7425030099457</v>
+      </c>
+      <c r="D10">
+        <v>851.02871194456884</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1621.4061483041658</v>
+      </c>
+      <c r="D11">
+        <v>316.32671346786896</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1255</v>
+      </c>
+      <c r="D12">
+        <v>311</v>
+      </c>
+      <c r="E12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1262.520209029972</v>
+      </c>
+      <c r="D13">
+        <v>854.01460290365162</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>890.62459762139895</v>
+      </c>
+      <c r="D14">
+        <v>854.04376388709545</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>874.28458590452396</v>
+      </c>
+      <c r="D15">
+        <v>308.24413555490423</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>495.83493585304365</v>
+      </c>
+      <c r="D16">
+        <v>307.79972769377798</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>503.0101420458949</v>
+      </c>
+      <c r="D17">
+        <v>852</v>
+      </c>
+      <c r="E17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1473</v>
+      </c>
+      <c r="D18">
+        <v>986</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1465.3355062255928</v>
+      </c>
+      <c r="D19">
+        <v>444.68324673024046</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1093</v>
+      </c>
+      <c r="D20">
+        <v>442.06282172105097</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1100.0510306101908</v>
+      </c>
+      <c r="D21">
+        <v>987.25802220168634</v>
+      </c>
+      <c r="E21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>726.28422113454724</v>
+      </c>
+      <c r="D22">
+        <v>983.28024475973484</v>
+      </c>
+      <c r="E22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>708.43600904846016</v>
+      </c>
+      <c r="D23">
+        <v>441.80569376586431</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>331.48909359995025</v>
+      </c>
+      <c r="D24">
+        <v>441.47228629221291</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>347.68442286943787</v>
+      </c>
+      <c r="D25">
+        <v>978.32923481001239</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1480.3846762361873</v>
+      </c>
+      <c r="D26">
+        <v>845.182620379632</v>
+      </c>
+      <c r="E26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1469.7054596333444</v>
+      </c>
+      <c r="D27">
+        <v>304.98346611431509</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1097.5063568822814</v>
+      </c>
+      <c r="D28">
+        <v>304.46121207422669</v>
+      </c>
+      <c r="E28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1106.5494197876064</v>
+      </c>
+      <c r="D29">
+        <v>844</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>730.37055943669645</v>
+      </c>
+      <c r="D30">
+        <v>845.87694241073473</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>715</v>
+      </c>
+      <c r="D31">
+        <v>303</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>338.59998908096031</v>
+      </c>
+      <c r="D32">
+        <v>303.18836282597613</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>348.52787151824356</v>
+      </c>
+      <c r="D33">
+        <v>841.00000000000011</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1623.4061483041658</v>
+      </c>
+      <c r="D2">
+        <v>316.32671346786896</v>
+      </c>
+      <c r="E2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1632.7425030099457</v>
+      </c>
+      <c r="D3">
+        <v>851.02871194456884</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1264.520209029972</v>
+      </c>
+      <c r="D4">
+        <v>854.01460290365162</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1257</v>
+      </c>
+      <c r="D5">
+        <v>311</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>876.28458590452396</v>
+      </c>
+      <c r="D6">
+        <v>308.24413555490423</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>892.62459762139895</v>
+      </c>
+      <c r="D7">
+        <v>854.04376388709545</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>505.0101420458949</v>
+      </c>
+      <c r="D8">
+        <v>852</v>
+      </c>
+      <c r="E8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>497.83493585304365</v>
+      </c>
+      <c r="D9">
+        <v>307.79972769377798</v>
+      </c>
+      <c r="E9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1613.9734582162946</v>
+      </c>
+      <c r="D10">
+        <v>465</v>
+      </c>
+      <c r="E10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1616.8746535296575</v>
+      </c>
+      <c r="D11">
+        <v>1001.0845244489575</v>
+      </c>
+      <c r="E11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1249.3493827116019</v>
+      </c>
+      <c r="D12">
+        <v>1007.3012493082249</v>
+      </c>
+      <c r="E12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1244.9999999999998</v>
+      </c>
+      <c r="D13">
+        <v>462</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>862.4076645902577</v>
+      </c>
+      <c r="D14">
+        <v>458.79481902986134</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>877.52484896262547</v>
+      </c>
+      <c r="D15">
+        <v>1008.5206728589721</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>494.99999999999994</v>
+      </c>
+      <c r="D16">
+        <v>1001.0980695012088</v>
+      </c>
+      <c r="E16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>480.46508385439239</v>
+      </c>
+      <c r="D17">
+        <v>461.4455764172319</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1466.7054596333444</v>
+      </c>
+      <c r="D18">
+        <v>299.98346611431509</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1477.3846762361873</v>
+      </c>
+      <c r="D19">
+        <v>840.182620379632</v>
+      </c>
+      <c r="E19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1103.5494197876064</v>
+      </c>
+      <c r="D20">
+        <v>839</v>
+      </c>
+      <c r="E20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1094.5063568822814</v>
+      </c>
+      <c r="D21">
+        <v>299.46121207422669</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>712</v>
+      </c>
+      <c r="D22">
+        <v>298</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>727.37055943669645</v>
+      </c>
+      <c r="D23">
+        <v>840.87694241073473</v>
+      </c>
+      <c r="E23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>345.52787151824356</v>
+      </c>
+      <c r="D24">
+        <v>836.00000000000011</v>
+      </c>
+      <c r="E24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>335.59998908096031</v>
+      </c>
+      <c r="D25">
+        <v>298.18836282597613</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1462.3355062255928</v>
+      </c>
+      <c r="D26">
+        <v>443.68324673024046</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1470</v>
+      </c>
+      <c r="D27">
+        <v>985</v>
+      </c>
+      <c r="E27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1097.0510306101908</v>
+      </c>
+      <c r="D28">
+        <v>986.25802220168634</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1090</v>
+      </c>
+      <c r="D29">
+        <v>441.06282172105097</v>
+      </c>
+      <c r="E29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>705.43600904846016</v>
+      </c>
+      <c r="D30">
+        <v>440.80569376586431</v>
+      </c>
+      <c r="E30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>723.28422113454724</v>
+      </c>
+      <c r="D31">
+        <v>982.28024475973484</v>
+      </c>
+      <c r="E31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>344.68442286943787</v>
+      </c>
+      <c r="D32">
+        <v>977.32923481001239</v>
+      </c>
+      <c r="E32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>328.48909359995025</v>
+      </c>
+      <c r="D33">
+        <v>440.47228629221291</v>
+      </c>
+      <c r="E33">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1746,11 +2910,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +2940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1858,7 +3022,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1940,7 +3104,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2022,7 +3186,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2104,7 +3268,7 @@
         <v>869.11683665181329</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2183,7 +3347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2214,7 +3378,7 @@
         <v>895.07874960000004</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2245,7 +3409,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2276,7 +3440,7 @@
         <v>350.86695689999999</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2307,7 +3471,7 @@
         <v>516.2729018</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2338,7 +3502,7 @@
         <v>1054.6513580000001</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2369,7 +3533,7 @@
         <v>1057.3494989999999</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2400,7 +3564,7 @@
         <v>513.19384539999999</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2431,7 +3595,7 @@
         <v>509.53178359999998</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:29">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2462,7 +3626,7 @@
         <v>1047.1252569999999</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2493,7 +3657,7 @@
         <v>1040.8142339999999</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2524,7 +3688,7 @@
         <v>500.51792349999999</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2555,7 +3719,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2586,7 +3750,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2617,7 +3781,7 @@
         <v>895.06141690000004</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2648,7 +3812,7 @@
         <v>353.01796389999998</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2679,7 +3843,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2710,7 +3874,7 @@
         <v>889.48663759999999</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2741,7 +3905,7 @@
         <v>888.11683670000002</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2772,7 +3936,7 @@
         <v>352.31099369999998</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2803,7 +3967,7 @@
         <v>490.50236369999999</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2834,7 +3998,7 @@
         <v>1028.633597</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2865,7 +4029,7 @@
         <v>1029.583901</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2896,7 +4060,7 @@
         <v>489.16738980000002</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2927,7 +4091,7 @@
         <v>486.48403630000001</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2958,7 +4122,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2989,7 +4153,7 @@
         <v>1021.204007</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3027,7 +4191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3036,10 +4200,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16" width="12.7109375" customWidth="true"/>
+    <col min="1" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16">
       <c r="A1">
         <v>1632.2250068153903</v>
       </c>
@@ -3089,7 +4253,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1646.9999999999998</v>
       </c>
@@ -3139,7 +4303,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1479.7148948701831</v>
       </c>
@@ -3189,7 +4353,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1491</v>
       </c>
@@ -3247,7 +4411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3256,7 +4420,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3304,7 +4468,7 @@
         <v>29.34225745781572</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3335,7 +4499,7 @@
         <v>840.99907164175033</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3366,7 +4530,7 @@
         <v>859.34225745781578</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3397,7 +4561,7 @@
         <v>314.34225745781572</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3428,7 +4592,7 @@
         <v>320.34137828619572</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3459,7 +4623,7 @@
         <v>863.34225745781578</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3490,7 +4654,7 @@
         <v>871.80117305920476</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3521,7 +4685,7 @@
         <v>328.93127036364535</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3552,7 +4716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3583,7 +4747,7 @@
         <v>999.47984336260345</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3614,7 +4778,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3645,7 +4809,7 @@
         <v>471.50098570018065</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3676,7 +4840,7 @@
         <v>477.74724778007908</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3707,7 +4871,7 @@
         <v>1021.0000000000001</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3738,7 +4902,7 @@
         <v>1029.3219241389984</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3769,7 +4933,7 @@
         <v>488.84585525987632</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3792,7 +4956,7 @@
         <v>279.48143931656074</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3815,7 +4979,7 @@
         <v>813.23295593386445</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3838,7 +5002,7 @@
         <v>829.28943124222167</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3861,7 +5025,7 @@
         <v>282.76894231476359</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3884,7 +5048,7 @@
         <v>291.00000000000006</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3907,7 +5071,7 @@
         <v>831.51615876175674</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3930,7 +5094,7 @@
         <v>836.56843813389787</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3953,7 +5117,7 @@
         <v>300.52825243257473</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3984,7 +5148,7 @@
         <v>28.14476265348992</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4015,7 +5179,7 @@
         <v>987.80748757663412</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4046,7 +5210,7 @@
         <v>998.63525095173111</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4077,7 +5241,7 @@
         <v>453.14476265348998</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4108,7 +5272,7 @@
         <v>462.61791541004521</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4139,7 +5303,7 @@
         <v>1005.4059517454439</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4170,7 +5334,7 @@
         <v>1011.1447626534898</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4208,7 +5372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4217,10 +5381,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4237,7 +5401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4254,7 +5418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4271,7 +5435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4288,7 +5452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4305,7 +5469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4322,7 +5486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4339,7 +5503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4356,7 +5520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4373,7 +5537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4390,7 +5554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4407,7 +5571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4424,7 +5588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4441,7 +5605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4458,7 +5622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4475,7 +5639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4492,7 +5656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4509,7 +5673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4526,7 +5690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4543,7 +5707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4560,7 +5724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4577,7 +5741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4594,7 +5758,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4611,7 +5775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4628,7 +5792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4645,7 +5809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4662,7 +5826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4679,7 +5843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4696,7 +5860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4713,7 +5877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4730,7 +5894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4747,7 +5911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4764,7 +5928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4788,19 +5952,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4817,7 +5981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4834,7 +5998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4851,7 +6015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4868,7 +6032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4885,7 +6049,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4902,7 +6066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4919,7 +6083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4936,7 +6100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4953,7 +6117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4970,7 +6134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4987,7 +6151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5004,7 +6168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5021,7 +6185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5038,7 +6202,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5055,7 +6219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5072,7 +6236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5089,7 +6253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5106,7 +6270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5123,7 +6287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5140,7 +6304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5157,7 +6321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5174,7 +6338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5191,7 +6355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5208,7 +6372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5225,7 +6389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5242,7 +6406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5259,7 +6423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5276,7 +6440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5293,7 +6457,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5310,7 +6474,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5327,7 +6491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5344,7 +6508,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5368,19 +6532,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5397,7 +6561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5414,7 +6578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5431,7 +6595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5448,7 +6612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5465,7 +6629,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5482,7 +6646,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5499,7 +6663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5516,7 +6680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5533,7 +6697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5550,7 +6714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5567,7 +6731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5584,7 +6748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5601,7 +6765,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5618,7 +6782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5635,7 +6799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5652,7 +6816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5669,7 +6833,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5686,7 +6850,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5703,7 +6867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5720,7 +6884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5737,7 +6901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5754,7 +6918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5771,7 +6935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5788,7 +6952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5805,7 +6969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5822,7 +6986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5839,7 +7003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5856,7 +7020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5873,7 +7037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5890,7 +7054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5907,7 +7071,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5924,7 +7088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5948,19 +7112,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5977,7 +7141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5994,7 +7158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6011,7 +7175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6028,7 +7192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6045,7 +7209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6062,7 +7226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6079,7 +7243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6096,7 +7260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6113,7 +7277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6130,7 +7294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6147,7 +7311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6164,7 +7328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6181,7 +7345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6198,7 +7362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6215,7 +7379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6232,7 +7396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6249,7 +7413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6266,7 +7430,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6283,7 +7447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6300,7 +7464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6317,7 +7481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6334,7 +7498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6351,7 +7515,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6368,7 +7532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6385,7 +7549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6402,7 +7566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>4</v>
       </c>
@@ -6419,7 +7583,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6436,7 +7600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6453,7 +7617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>4</v>
       </c>
@@ -6470,7 +7634,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6487,7 +7651,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -6504,7 +7668,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6528,581 +7692,581 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06735BCB-ED1E-904B-B816-90CA8290FBD5}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1618.8746535296575</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>996.0845244489575</v>
       </c>
-      <c r="E2" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1615.9734582162946</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>460</v>
       </c>
-      <c r="E3" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1246.9999999999998</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>457</v>
       </c>
-      <c r="E4" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1251.3493827116019</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>1002.3012493082249</v>
       </c>
-      <c r="E5" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>879.52484896262547</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>1003.5206728589721</v>
       </c>
-      <c r="E6" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>864.4076645902577</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>453.79481902986134</v>
       </c>
-      <c r="E7" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>482.46508385439239</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>456.4455764172319</v>
       </c>
-      <c r="E8" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>496.99999999999994</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>996.09806950120878</v>
       </c>
-      <c r="E9" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1630.7425030099457</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>851.02871194456884</v>
       </c>
-      <c r="E10" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1621.4061483041658</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>316.32671346786896</v>
       </c>
-      <c r="E11" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1255</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>311</v>
       </c>
-      <c r="E12" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1262.520209029972</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>854.01460290365162</v>
       </c>
-      <c r="E13" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>890.62459762139895</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>854.04376388709545</v>
       </c>
-      <c r="E14" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>874.28458590452396</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>308.24413555490423</v>
       </c>
-      <c r="E15" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>495.83493585304365</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>307.79972769377798</v>
       </c>
-      <c r="E16" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>503.0101420458949</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>852</v>
       </c>
-      <c r="E17" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1473</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>986</v>
       </c>
-      <c r="E18" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>1465.3355062255928</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>444.68324673024046</v>
       </c>
-      <c r="E19" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1093</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>442.06282172105097</v>
       </c>
-      <c r="E20" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1100.0510306101908</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>987.25802220168634</v>
       </c>
-      <c r="E21" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>726.28422113454724</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>983.28024475973484</v>
       </c>
-      <c r="E22" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>708.43600904846016</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>441.80569376586431</v>
       </c>
-      <c r="E23" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>331.48909359995025</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>441.47228629221291</v>
       </c>
-      <c r="E24" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>347.68442286943787</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>978.32923481001239</v>
       </c>
-      <c r="E25" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1480.3846762361873</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>845.182620379632</v>
       </c>
-      <c r="E26" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1469.7054596333444</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>304.98346611431509</v>
       </c>
-      <c r="E27" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1097.5063568822814</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>304.46121207422669</v>
       </c>
-      <c r="E28" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>1106.5494197876064</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>844</v>
       </c>
-      <c r="E29" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>730.37055943669645</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>845.87694241073473</v>
       </c>
-      <c r="E30" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>715</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>303</v>
       </c>
-      <c r="E31" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>338.59998908096031</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>303.18836282597613</v>
       </c>
-      <c r="E32" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>348.52787151824356</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>841.00000000000011</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92411AFE-1D4F-4A41-9D6F-D95C883D4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8151C1-0BF5-8A43-9850-F59A8A2988D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="1740" windowWidth="28800" windowHeight="16160" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="16160" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8151C1-0BF5-8A43-9850-F59A8A2988D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E152C26D-4AD9-1E42-8814-B48CAD33651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="16160" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="16160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="230721" sheetId="1" r:id="rId4"/>
     <sheet name="230712" sheetId="2" r:id="rId5"/>
     <sheet name="230920" sheetId="6" r:id="rId6"/>
-    <sheet name="240111_backup" sheetId="8" r:id="rId7"/>
-    <sheet name="240111" sheetId="7" r:id="rId8"/>
-    <sheet name="240501_old" sheetId="10" r:id="rId9"/>
-    <sheet name="240501_old2" sheetId="9" r:id="rId10"/>
-    <sheet name="240501" sheetId="11" r:id="rId11"/>
+    <sheet name="240111" sheetId="12" r:id="rId7"/>
+    <sheet name="240111_backup" sheetId="8" r:id="rId8"/>
+    <sheet name="240111_old" sheetId="7" r:id="rId9"/>
+    <sheet name="240501_old" sheetId="10" r:id="rId10"/>
+    <sheet name="240501_old2" sheetId="9" r:id="rId11"/>
+    <sheet name="240501" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -1737,6 +1738,586 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06735BCB-ED1E-904B-B816-90CA8290FBD5}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1618.8746535296575</v>
+      </c>
+      <c r="D2">
+        <v>996.0845244489575</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1615.9734582162946</v>
+      </c>
+      <c r="D3">
+        <v>460</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1246.9999999999998</v>
+      </c>
+      <c r="D4">
+        <v>457</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1251.3493827116019</v>
+      </c>
+      <c r="D5">
+        <v>1002.3012493082249</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>879.52484896262547</v>
+      </c>
+      <c r="D6">
+        <v>1003.5206728589721</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>864.4076645902577</v>
+      </c>
+      <c r="D7">
+        <v>453.79481902986134</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>482.46508385439239</v>
+      </c>
+      <c r="D8">
+        <v>456.4455764172319</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>496.99999999999994</v>
+      </c>
+      <c r="D9">
+        <v>996.09806950120878</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1630.7425030099457</v>
+      </c>
+      <c r="D10">
+        <v>851.02871194456884</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1621.4061483041658</v>
+      </c>
+      <c r="D11">
+        <v>316.32671346786896</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1255</v>
+      </c>
+      <c r="D12">
+        <v>311</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1262.520209029972</v>
+      </c>
+      <c r="D13">
+        <v>854.01460290365162</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>890.62459762139895</v>
+      </c>
+      <c r="D14">
+        <v>854.04376388709545</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>874.28458590452396</v>
+      </c>
+      <c r="D15">
+        <v>308.24413555490423</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>495.83493585304365</v>
+      </c>
+      <c r="D16">
+        <v>307.79972769377798</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>503.0101420458949</v>
+      </c>
+      <c r="D17">
+        <v>852</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1473</v>
+      </c>
+      <c r="D18">
+        <v>986</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1465.3355062255928</v>
+      </c>
+      <c r="D19">
+        <v>444.68324673024046</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1093</v>
+      </c>
+      <c r="D20">
+        <v>442.06282172105097</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1100.0510306101908</v>
+      </c>
+      <c r="D21">
+        <v>987.25802220168634</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>726.28422113454724</v>
+      </c>
+      <c r="D22">
+        <v>983.28024475973484</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>708.43600904846016</v>
+      </c>
+      <c r="D23">
+        <v>441.80569376586431</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>331.48909359995025</v>
+      </c>
+      <c r="D24">
+        <v>441.47228629221291</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>347.68442286943787</v>
+      </c>
+      <c r="D25">
+        <v>978.32923481001239</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1480.3846762361873</v>
+      </c>
+      <c r="D26">
+        <v>845.182620379632</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1469.7054596333444</v>
+      </c>
+      <c r="D27">
+        <v>304.98346611431509</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1097.5063568822814</v>
+      </c>
+      <c r="D28">
+        <v>304.46121207422669</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1106.5494197876064</v>
+      </c>
+      <c r="D29">
+        <v>844</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>730.37055943669645</v>
+      </c>
+      <c r="D30">
+        <v>845.87694241073473</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>715</v>
+      </c>
+      <c r="D31">
+        <v>303</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>338.59998908096031</v>
+      </c>
+      <c r="D32">
+        <v>303.18836282597613</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>348.52787151824356</v>
+      </c>
+      <c r="D33">
+        <v>841.00000000000011</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2318,11 +2899,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -6532,6 +7113,586 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1623.4265443435393</v>
+      </c>
+      <c r="D2">
+        <v>348.1904554392429</v>
+      </c>
+      <c r="E2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1625.5832371432114</v>
+      </c>
+      <c r="D3">
+        <v>883</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1263.4976351483458</v>
+      </c>
+      <c r="D4">
+        <v>884.50371781189858</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1255.2992618674946</v>
+      </c>
+      <c r="D5">
+        <v>339.8398448017395</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>875.39997528745789</v>
+      </c>
+      <c r="D6">
+        <v>338.15420968300811</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>887.0054514726379</v>
+      </c>
+      <c r="D7">
+        <v>886.00067032311472</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>506.458800788433</v>
+      </c>
+      <c r="D8">
+        <v>879.01899490184496</v>
+      </c>
+      <c r="E8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>495</v>
+      </c>
+      <c r="D9">
+        <v>338</v>
+      </c>
+      <c r="E9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1614</v>
+      </c>
+      <c r="D10">
+        <v>493.5340062361679</v>
+      </c>
+      <c r="E10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1618.4630275922909</v>
+      </c>
+      <c r="D11">
+        <v>1029.9493538404563</v>
+      </c>
+      <c r="E11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1249.6105560128537</v>
+      </c>
+      <c r="D12">
+        <v>1036.1994263586266</v>
+      </c>
+      <c r="E12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1245.8986241372759</v>
+      </c>
+      <c r="D13">
+        <v>492.98930052173625</v>
+      </c>
+      <c r="E13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>862.11815473245372</v>
+      </c>
+      <c r="D14">
+        <v>485.1151043261882</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>875.30901366636238</v>
+      </c>
+      <c r="D15">
+        <v>1032.3414742931636</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>493.06667877099005</v>
+      </c>
+      <c r="D16">
+        <v>1027.4941583555815</v>
+      </c>
+      <c r="E16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>482.03760659484539</v>
+      </c>
+      <c r="D17">
+        <v>485.63522811947422</v>
+      </c>
+      <c r="E17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1471</v>
+      </c>
+      <c r="D18">
+        <v>336</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1478.4170525137188</v>
+      </c>
+      <c r="D19">
+        <v>875.80732756498946</v>
+      </c>
+      <c r="E19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1105.8380913459309</v>
+      </c>
+      <c r="D20">
+        <v>875.36948917416635</v>
+      </c>
+      <c r="E20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1097.9999999999998</v>
+      </c>
+      <c r="D21">
+        <v>330.46386067619034</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>717.66826419851839</v>
+      </c>
+      <c r="D22">
+        <v>328.37423485472425</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>729</v>
+      </c>
+      <c r="D23">
+        <v>872</v>
+      </c>
+      <c r="E23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>347.66064541799346</v>
+      </c>
+      <c r="D24">
+        <v>869.97155739522611</v>
+      </c>
+      <c r="E24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>337.1778550489546</v>
+      </c>
+      <c r="D25">
+        <v>328.41781057527805</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1463</v>
+      </c>
+      <c r="D26">
+        <v>476</v>
+      </c>
+      <c r="E26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1469.0269453062842</v>
+      </c>
+      <c r="D27">
+        <v>1016.9619501882065</v>
+      </c>
+      <c r="E27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1096.5015147541376</v>
+      </c>
+      <c r="D28">
+        <v>1019.4988351453728</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1090</v>
+      </c>
+      <c r="D29">
+        <v>474</v>
+      </c>
+      <c r="E29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>705.00866303979069</v>
+      </c>
+      <c r="D30">
+        <v>470.17576007912305</v>
+      </c>
+      <c r="E30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>720.70855122616899</v>
+      </c>
+      <c r="D31">
+        <v>1017.2579986889109</v>
+      </c>
+      <c r="E31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>342.52202340700165</v>
+      </c>
+      <c r="D32">
+        <v>1008.9625696988209</v>
+      </c>
+      <c r="E32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>326.49685359317334</v>
+      </c>
+      <c r="D33">
+        <v>471.008965874051</v>
+      </c>
+      <c r="E33">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7111,7 +8272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7689,584 +8850,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06735BCB-ED1E-904B-B816-90CA8290FBD5}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1618.8746535296575</v>
-      </c>
-      <c r="D2">
-        <v>996.0845244489575</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1615.9734582162946</v>
-      </c>
-      <c r="D3">
-        <v>460</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1246.9999999999998</v>
-      </c>
-      <c r="D4">
-        <v>457</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1251.3493827116019</v>
-      </c>
-      <c r="D5">
-        <v>1002.3012493082249</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>879.52484896262547</v>
-      </c>
-      <c r="D6">
-        <v>1003.5206728589721</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>864.4076645902577</v>
-      </c>
-      <c r="D7">
-        <v>453.79481902986134</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>482.46508385439239</v>
-      </c>
-      <c r="D8">
-        <v>456.4455764172319</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>496.99999999999994</v>
-      </c>
-      <c r="D9">
-        <v>996.09806950120878</v>
-      </c>
-      <c r="E9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1630.7425030099457</v>
-      </c>
-      <c r="D10">
-        <v>851.02871194456884</v>
-      </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1621.4061483041658</v>
-      </c>
-      <c r="D11">
-        <v>316.32671346786896</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1255</v>
-      </c>
-      <c r="D12">
-        <v>311</v>
-      </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1262.520209029972</v>
-      </c>
-      <c r="D13">
-        <v>854.01460290365162</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>890.62459762139895</v>
-      </c>
-      <c r="D14">
-        <v>854.04376388709545</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>874.28458590452396</v>
-      </c>
-      <c r="D15">
-        <v>308.24413555490423</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>495.83493585304365</v>
-      </c>
-      <c r="D16">
-        <v>307.79972769377798</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>503.0101420458949</v>
-      </c>
-      <c r="D17">
-        <v>852</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1473</v>
-      </c>
-      <c r="D18">
-        <v>986</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1465.3355062255928</v>
-      </c>
-      <c r="D19">
-        <v>444.68324673024046</v>
-      </c>
-      <c r="E19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1093</v>
-      </c>
-      <c r="D20">
-        <v>442.06282172105097</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1100.0510306101908</v>
-      </c>
-      <c r="D21">
-        <v>987.25802220168634</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>726.28422113454724</v>
-      </c>
-      <c r="D22">
-        <v>983.28024475973484</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>708.43600904846016</v>
-      </c>
-      <c r="D23">
-        <v>441.80569376586431</v>
-      </c>
-      <c r="E23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>331.48909359995025</v>
-      </c>
-      <c r="D24">
-        <v>441.47228629221291</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>347.68442286943787</v>
-      </c>
-      <c r="D25">
-        <v>978.32923481001239</v>
-      </c>
-      <c r="E25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1480.3846762361873</v>
-      </c>
-      <c r="D26">
-        <v>845.182620379632</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1469.7054596333444</v>
-      </c>
-      <c r="D27">
-        <v>304.98346611431509</v>
-      </c>
-      <c r="E27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1097.5063568822814</v>
-      </c>
-      <c r="D28">
-        <v>304.46121207422669</v>
-      </c>
-      <c r="E28">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1106.5494197876064</v>
-      </c>
-      <c r="D29">
-        <v>844</v>
-      </c>
-      <c r="E29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>730.37055943669645</v>
-      </c>
-      <c r="D30">
-        <v>845.87694241073473</v>
-      </c>
-      <c r="E30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>715</v>
-      </c>
-      <c r="D31">
-        <v>303</v>
-      </c>
-      <c r="E31">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>338.59998908096031</v>
-      </c>
-      <c r="D32">
-        <v>303.18836282597613</v>
-      </c>
-      <c r="E32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>348.52787151824356</v>
-      </c>
-      <c r="D33">
-        <v>841.00000000000011</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E152C26D-4AD9-1E42-8814-B48CAD33651E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="16160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1100" windowWidth="28800" windowHeight="16160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="230921" sheetId="4" r:id="rId1"/>
@@ -25,8 +25,10 @@
     <sheet name="240501_old" sheetId="10" r:id="rId10"/>
     <sheet name="240501_old2" sheetId="9" r:id="rId11"/>
     <sheet name="240501" sheetId="11" r:id="rId12"/>
+    <sheet name="240621" sheetId="13" r:id="rId17"/>
+    <sheet name="240622" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="69" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -129,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -163,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,22 +187,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -219,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -370,7 +374,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -394,9 +398,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -420,7 +424,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -455,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -473,7 +477,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -498,7 +502,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -514,7 +518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -523,11 +527,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,7 +588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -621,7 +625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -658,7 +662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -695,7 +699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -732,7 +736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -769,7 +773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -806,7 +810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -843,7 +847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -880,7 +884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -917,7 +921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -954,7 +958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -991,7 +995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1738,19 +1742,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06735BCB-ED1E-904B-B816-90CA8290FBD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06735BCB-ED1E-904B-B816-90CA8290FBD5}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1988,7 +1992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2005,7 +2009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2056,7 +2060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2141,7 +2145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2318,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
@@ -2327,12 +2331,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2383,7 +2387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2417,7 +2421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2502,7 +2506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2519,7 +2523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2553,7 +2557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2808,7 +2812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2825,7 +2829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2900,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2909,12 +2913,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2999,7 +3003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3050,7 +3054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3067,7 +3071,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3084,7 +3088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3237,7 +3241,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3254,7 +3258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3305,7 +3309,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3339,7 +3343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3458,7 +3462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3481,8 +3485,1168 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1623.2292720117171</v>
+      </c>
+      <c r="D2" s="0">
+        <v>318.02283380034714</v>
+      </c>
+      <c r="E2" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1630</v>
+      </c>
+      <c r="D3" s="0">
+        <v>853</v>
+      </c>
+      <c r="E3" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1265.3901248978002</v>
+      </c>
+      <c r="D4" s="0">
+        <v>858.004657186401</v>
+      </c>
+      <c r="E4" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1259.3298617001483</v>
+      </c>
+      <c r="D5" s="0">
+        <v>312.57633759001806</v>
+      </c>
+      <c r="E5" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>878.28953338071472</v>
+      </c>
+      <c r="D6" s="0">
+        <v>312.6477698349708</v>
+      </c>
+      <c r="E6" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>894.67516776544289</v>
+      </c>
+      <c r="D7" s="0">
+        <v>854.63303438425419</v>
+      </c>
+      <c r="E7" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>511.00000000000006</v>
+      </c>
+      <c r="D8" s="0">
+        <v>850</v>
+      </c>
+      <c r="E8" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>495.53392609582073</v>
+      </c>
+      <c r="D9" s="0">
+        <v>310.21151328870832</v>
+      </c>
+      <c r="E9" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1602.5720858052957</v>
+      </c>
+      <c r="D10" s="0">
+        <v>455.00000000000006</v>
+      </c>
+      <c r="E10" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1611.6697320465623</v>
+      </c>
+      <c r="D11" s="0">
+        <v>988.07147939259403</v>
+      </c>
+      <c r="E11" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1244.3663165587568</v>
+      </c>
+      <c r="D12" s="0">
+        <v>993.84211118870417</v>
+      </c>
+      <c r="E12" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1239.4073597680974</v>
+      </c>
+      <c r="D13" s="0">
+        <v>452.2096389680803</v>
+      </c>
+      <c r="E13" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>858</v>
+      </c>
+      <c r="D14" s="0">
+        <v>452</v>
+      </c>
+      <c r="E14" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>875.00660123453724</v>
+      </c>
+      <c r="D15" s="0">
+        <v>992.66237139821465</v>
+      </c>
+      <c r="E15" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>491.41224563335277</v>
+      </c>
+      <c r="D16" s="0">
+        <v>991.18596534212418</v>
+      </c>
+      <c r="E16" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>478.00000000000006</v>
+      </c>
+      <c r="D17" s="0">
+        <v>447.54026768194427</v>
+      </c>
+      <c r="E17" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1473.1978278146719</v>
+      </c>
+      <c r="D18" s="0">
+        <v>310.19938864339537</v>
+      </c>
+      <c r="E18" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1482.7441676226731</v>
+      </c>
+      <c r="D19" s="0">
+        <v>848.07660330574492</v>
+      </c>
+      <c r="E19" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1109.4778732563907</v>
+      </c>
+      <c r="D20" s="0">
+        <v>849.70594190979659</v>
+      </c>
+      <c r="E20" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1101</v>
+      </c>
+      <c r="D21" s="0">
+        <v>307</v>
+      </c>
+      <c r="E21" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>719.76067643648571</v>
+      </c>
+      <c r="D22" s="0">
+        <v>304.62199039186692</v>
+      </c>
+      <c r="E22" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>733.65336961722619</v>
+      </c>
+      <c r="D23" s="0">
+        <v>843.98769856330478</v>
+      </c>
+      <c r="E23" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>355</v>
+      </c>
+      <c r="D24" s="0">
+        <v>840</v>
+      </c>
+      <c r="E24" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>341</v>
+      </c>
+      <c r="D25" s="0">
+        <v>303</v>
+      </c>
+      <c r="E25" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1470.5057035800305</v>
+      </c>
+      <c r="D26" s="0">
+        <v>446</v>
+      </c>
+      <c r="E26" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1474</v>
+      </c>
+      <c r="D27" s="0">
+        <v>983.99999999999989</v>
+      </c>
+      <c r="E27" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1103.4447738129099</v>
+      </c>
+      <c r="D28" s="0">
+        <v>985.83641054114321</v>
+      </c>
+      <c r="E28" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1097</v>
+      </c>
+      <c r="D29" s="0">
+        <v>445.12107140231734</v>
+      </c>
+      <c r="E29" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>714.39773670552825</v>
+      </c>
+      <c r="D30" s="0">
+        <v>441.30329088212028</v>
+      </c>
+      <c r="E30" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>729.55746695772802</v>
+      </c>
+      <c r="D31" s="0">
+        <v>986.00000000000011</v>
+      </c>
+      <c r="E31" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>352.64925385754344</v>
+      </c>
+      <c r="D32" s="0">
+        <v>984.31908196925087</v>
+      </c>
+      <c r="E32" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>336</v>
+      </c>
+      <c r="D33" s="0">
+        <v>442.99999999999994</v>
+      </c>
+      <c r="E33" s="0">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1623.2292720117171</v>
+      </c>
+      <c r="D2" s="0">
+        <v>332.02283380034714</v>
+      </c>
+      <c r="E2" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1630</v>
+      </c>
+      <c r="D3" s="0">
+        <v>867</v>
+      </c>
+      <c r="E3" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1265.3901248978002</v>
+      </c>
+      <c r="D4" s="0">
+        <v>872.004657186401</v>
+      </c>
+      <c r="E4" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1259.3298617001483</v>
+      </c>
+      <c r="D5" s="0">
+        <v>326.57633759001806</v>
+      </c>
+      <c r="E5" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>878.28953338071472</v>
+      </c>
+      <c r="D6" s="0">
+        <v>326.6477698349708</v>
+      </c>
+      <c r="E6" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>894.67516776544289</v>
+      </c>
+      <c r="D7" s="0">
+        <v>868.63303438425419</v>
+      </c>
+      <c r="E7" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>511.00000000000006</v>
+      </c>
+      <c r="D8" s="0">
+        <v>864</v>
+      </c>
+      <c r="E8" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>495.53392609582073</v>
+      </c>
+      <c r="D9" s="0">
+        <v>324.21151328870832</v>
+      </c>
+      <c r="E9" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1600.5720858052957</v>
+      </c>
+      <c r="D10" s="0">
+        <v>468.00000000000006</v>
+      </c>
+      <c r="E10" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1609.6697320465623</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1001.071479392594</v>
+      </c>
+      <c r="E11" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1242.3663165587568</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1006.8421111887042</v>
+      </c>
+      <c r="E12" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1237.4073597680974</v>
+      </c>
+      <c r="D13" s="0">
+        <v>465.2096389680803</v>
+      </c>
+      <c r="E13" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>856</v>
+      </c>
+      <c r="D14" s="0">
+        <v>465</v>
+      </c>
+      <c r="E14" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>873.00660123453724</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1005.6623713982146</v>
+      </c>
+      <c r="E15" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>489.41224563335277</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1004.1859653421242</v>
+      </c>
+      <c r="E16" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>476.00000000000006</v>
+      </c>
+      <c r="D17" s="0">
+        <v>460.54026768194427</v>
+      </c>
+      <c r="E17" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1471.1978278146719</v>
+      </c>
+      <c r="D18" s="0">
+        <v>323.19938864339537</v>
+      </c>
+      <c r="E18" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1480.7441676226731</v>
+      </c>
+      <c r="D19" s="0">
+        <v>861.07660330574492</v>
+      </c>
+      <c r="E19" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1107.4778732563907</v>
+      </c>
+      <c r="D20" s="0">
+        <v>862.70594190979659</v>
+      </c>
+      <c r="E20" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1099</v>
+      </c>
+      <c r="D21" s="0">
+        <v>320</v>
+      </c>
+      <c r="E21" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>717.76067643648571</v>
+      </c>
+      <c r="D22" s="0">
+        <v>317.62199039186692</v>
+      </c>
+      <c r="E22" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>731.65336961722619</v>
+      </c>
+      <c r="D23" s="0">
+        <v>856.98769856330478</v>
+      </c>
+      <c r="E23" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>353</v>
+      </c>
+      <c r="D24" s="0">
+        <v>853</v>
+      </c>
+      <c r="E24" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>339</v>
+      </c>
+      <c r="D25" s="0">
+        <v>316</v>
+      </c>
+      <c r="E25" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1468.5057035800305</v>
+      </c>
+      <c r="D26" s="0">
+        <v>459</v>
+      </c>
+      <c r="E26" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1472</v>
+      </c>
+      <c r="D27" s="0">
+        <v>996.99999999999989</v>
+      </c>
+      <c r="E27" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1101.4447738129099</v>
+      </c>
+      <c r="D28" s="0">
+        <v>998.83641054114321</v>
+      </c>
+      <c r="E28" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1095</v>
+      </c>
+      <c r="D29" s="0">
+        <v>458.12107140231734</v>
+      </c>
+      <c r="E29" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>712.39773670552825</v>
+      </c>
+      <c r="D30" s="0">
+        <v>454.30329088212028</v>
+      </c>
+      <c r="E30" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>727.55746695772802</v>
+      </c>
+      <c r="D31" s="0">
+        <v>999.00000000000011</v>
+      </c>
+      <c r="E31" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>350.64925385754344</v>
+      </c>
+      <c r="D32" s="0">
+        <v>997.31908196925087</v>
+      </c>
+      <c r="E32" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>334</v>
+      </c>
+      <c r="D33" s="0">
+        <v>455.99999999999994</v>
+      </c>
+      <c r="E33" s="0">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3491,11 +4655,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3521,7 +4685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3603,7 +4767,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3685,7 +4849,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3767,7 +4931,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3849,7 +5013,7 @@
         <v>869.11683665181329</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3928,7 +5092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3959,7 +5123,7 @@
         <v>895.07874960000004</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3990,7 +5154,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4021,7 +5185,7 @@
         <v>350.86695689999999</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4052,7 +5216,7 @@
         <v>516.2729018</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4083,7 +5247,7 @@
         <v>1054.6513580000001</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4114,7 +5278,7 @@
         <v>1057.3494989999999</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4145,7 +5309,7 @@
         <v>513.19384539999999</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4176,7 +5340,7 @@
         <v>509.53178359999998</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4207,7 +5371,7 @@
         <v>1047.1252569999999</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4238,7 +5402,7 @@
         <v>1040.8142339999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4269,7 +5433,7 @@
         <v>500.51792349999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4300,7 +5464,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4331,7 +5495,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4362,7 +5526,7 @@
         <v>895.06141690000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -4393,7 +5557,7 @@
         <v>353.01796389999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4424,7 +5588,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4455,7 +5619,7 @@
         <v>889.48663759999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4486,7 +5650,7 @@
         <v>888.11683670000002</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4517,7 +5681,7 @@
         <v>352.31099369999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4548,7 +5712,7 @@
         <v>490.50236369999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4579,7 +5743,7 @@
         <v>1028.633597</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4610,7 +5774,7 @@
         <v>1029.583901</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4641,7 +5805,7 @@
         <v>489.16738980000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4672,7 +5836,7 @@
         <v>486.48403630000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4703,7 +5867,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4734,7 +5898,7 @@
         <v>1021.204007</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4772,7 +5936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,10 +5945,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="16" width="12.7109375" customWidth="1"/>
+    <col min="1" max="16" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1">
       <c r="A1">
         <v>1632.2250068153903</v>
       </c>
@@ -4834,7 +5998,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2">
       <c r="A2">
         <v>1646.9999999999998</v>
       </c>
@@ -4884,7 +6048,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3">
       <c r="A3">
         <v>1479.7148948701831</v>
       </c>
@@ -4934,7 +6098,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4">
       <c r="A4">
         <v>1491</v>
       </c>
@@ -4992,7 +6156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5001,7 +6165,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5018,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5049,7 +6213,7 @@
         <v>29.34225745781572</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5080,7 +6244,7 @@
         <v>840.99907164175033</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5111,7 +6275,7 @@
         <v>859.34225745781578</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5142,7 +6306,7 @@
         <v>314.34225745781572</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5173,7 +6337,7 @@
         <v>320.34137828619572</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5204,7 +6368,7 @@
         <v>863.34225745781578</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5235,7 +6399,7 @@
         <v>871.80117305920476</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5266,7 +6430,7 @@
         <v>328.93127036364535</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5297,7 +6461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5328,7 +6492,7 @@
         <v>999.47984336260345</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5359,7 +6523,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5390,7 +6554,7 @@
         <v>471.50098570018065</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5421,7 +6585,7 @@
         <v>477.74724778007908</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5452,7 +6616,7 @@
         <v>1021.0000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5483,7 +6647,7 @@
         <v>1029.3219241389984</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5514,7 +6678,7 @@
         <v>488.84585525987632</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5537,7 +6701,7 @@
         <v>279.48143931656074</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5560,7 +6724,7 @@
         <v>813.23295593386445</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5583,7 +6747,7 @@
         <v>829.28943124222167</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5606,7 +6770,7 @@
         <v>282.76894231476359</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5629,7 +6793,7 @@
         <v>291.00000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5652,7 +6816,7 @@
         <v>831.51615876175674</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5675,7 +6839,7 @@
         <v>836.56843813389787</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5698,7 +6862,7 @@
         <v>300.52825243257473</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5729,7 +6893,7 @@
         <v>28.14476265348992</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5760,7 +6924,7 @@
         <v>987.80748757663412</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5791,7 +6955,7 @@
         <v>998.63525095173111</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5822,7 +6986,7 @@
         <v>453.14476265348998</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5853,7 +7017,7 @@
         <v>462.61791541004521</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5884,7 +7048,7 @@
         <v>1005.4059517454439</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5915,7 +7079,7 @@
         <v>1011.1447626534898</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5953,7 +7117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5962,10 +7126,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5982,7 +7146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5999,7 +7163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6016,7 +7180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6033,7 +7197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6050,7 +7214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6067,7 +7231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6084,7 +7248,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6101,7 +7265,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6118,7 +7282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6135,7 +7299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6152,7 +7316,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6169,7 +7333,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6186,7 +7350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6203,7 +7367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6220,7 +7384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6237,7 +7401,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6254,7 +7418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6271,7 +7435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6288,7 +7452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6305,7 +7469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6322,7 +7486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6339,7 +7503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6356,7 +7520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6373,7 +7537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6390,7 +7554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6407,7 +7571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -6424,7 +7588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6441,7 +7605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6458,7 +7622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -6475,7 +7639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6492,7 +7656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -6509,7 +7673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6533,19 +7697,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -6562,7 +7726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6579,7 +7743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6596,7 +7760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6613,7 +7777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6630,7 +7794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6647,7 +7811,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6664,7 +7828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6681,7 +7845,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6698,7 +7862,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6715,7 +7879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6732,7 +7896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6749,7 +7913,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6766,7 +7930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6783,7 +7947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6800,7 +7964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6817,7 +7981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6834,7 +7998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6851,7 +8015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6868,7 +8032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6885,7 +8049,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6902,7 +8066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6919,7 +8083,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6936,7 +8100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6953,7 +8117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6970,7 +8134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6987,7 +8151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -7004,7 +8168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7021,7 +8185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7038,7 +8202,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -7055,7 +8219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7072,7 +8236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7089,7 +8253,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7113,19 +8277,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -7142,7 +8306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7159,7 +8323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7176,7 +8340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7193,7 +8357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7210,7 +8374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7227,7 +8391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7244,7 +8408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7261,7 +8425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7278,7 +8442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7295,7 +8459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7312,7 +8476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7329,7 +8493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7346,7 +8510,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7363,7 +8527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7380,7 +8544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7397,7 +8561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7414,7 +8578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7431,7 +8595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7448,7 +8612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7465,7 +8629,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7482,7 +8646,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7499,7 +8663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -7516,7 +8680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7533,7 +8697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7550,7 +8714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -7567,7 +8731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -7584,7 +8748,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7601,7 +8765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7618,7 +8782,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -7635,7 +8799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -7652,7 +8816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7669,7 +8833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7693,19 +8857,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7722,7 +8886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7739,7 +8903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7756,7 +8920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7773,7 +8937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7790,7 +8954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -7807,7 +8971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7824,7 +8988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7841,7 +9005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7858,7 +9022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7875,7 +9039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7892,7 +9056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7909,7 +9073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7926,7 +9090,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7943,7 +9107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7960,7 +9124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7977,7 +9141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7994,7 +9158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8011,7 +9175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8028,7 +9192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -8045,7 +9209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8062,7 +9226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8079,7 +9243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8096,7 +9260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8113,7 +9277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8130,7 +9294,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8147,7 +9311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -8164,7 +9328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -8181,7 +9345,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8198,7 +9362,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -8215,7 +9379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -8232,7 +9396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -8249,7 +9413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>
@@ -8273,19 +9437,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="1" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -8302,7 +9466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8319,7 +9483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8336,7 +9500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8353,7 +9517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8370,7 +9534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8387,7 +9551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8404,7 +9568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -8421,7 +9585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8438,7 +9602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8455,7 +9619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8472,7 +9636,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8489,7 +9653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8506,7 +9670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8523,7 +9687,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8540,7 +9704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16">
         <v>2</v>
       </c>
@@ -8557,7 +9721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8574,7 +9738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18">
         <v>3</v>
       </c>
@@ -8591,7 +9755,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19">
         <v>3</v>
       </c>
@@ -8608,7 +9772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20">
         <v>3</v>
       </c>
@@ -8625,7 +9789,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21">
         <v>3</v>
       </c>
@@ -8642,7 +9806,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8659,7 +9823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8676,7 +9840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8693,7 +9857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8710,7 +9874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8727,7 +9891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27">
         <v>4</v>
       </c>
@@ -8744,7 +9908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28">
         <v>4</v>
       </c>
@@ -8761,7 +9925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8778,7 +9942,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30">
         <v>4</v>
       </c>
@@ -8795,7 +9959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31">
         <v>4</v>
       </c>
@@ -8812,7 +9976,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32">
         <v>4</v>
       </c>
@@ -8829,7 +9993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33">
         <v>4</v>
       </c>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinjirotakeda/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohgookazaki/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F91E81-5800-4843-A98B-51F4E0E0EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF5C27-1CE1-F84B-98CE-9518C7F6E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160"/>
   </bookViews>
   <sheets>
-    <sheet name="230921" sheetId="4" r:id="rId1"/>
-    <sheet name="230920_backup" sheetId="3" r:id="rId2"/>
-    <sheet name="230920_backup2" sheetId="5" r:id="rId3"/>
-    <sheet name="230721" sheetId="1" r:id="rId4"/>
-    <sheet name="230712" sheetId="2" r:id="rId5"/>
-    <sheet name="230920" sheetId="6" r:id="rId6"/>
-    <sheet name="240111_backup" sheetId="8" r:id="rId7"/>
-    <sheet name="240111" sheetId="7" r:id="rId8"/>
-    <sheet name="240501" sheetId="9" r:id="rId13"/>
+    <sheet name="230429" sheetId="16" r:id="rId1"/>
+    <sheet name="230830" sheetId="15" r:id="rId2"/>
+    <sheet name="230921" sheetId="4" r:id="rId3"/>
+    <sheet name="230920_backup" sheetId="3" r:id="rId4"/>
+    <sheet name="230920_backup2" sheetId="5" r:id="rId5"/>
+    <sheet name="230721" sheetId="1" r:id="rId6"/>
+    <sheet name="230712" sheetId="2" r:id="rId7"/>
+    <sheet name="230920" sheetId="6" r:id="rId8"/>
+    <sheet name="231216" sheetId="13" r:id="rId9"/>
+    <sheet name="240111_backup" sheetId="8" r:id="rId10"/>
+    <sheet name="240111" sheetId="7" r:id="rId11"/>
+    <sheet name="240501" sheetId="9" r:id="rId12"/>
+    <sheet name="240621" sheetId="10" r:id="rId13"/>
+    <sheet name="240622" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="84" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -131,14 +136,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -146,7 +151,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -202,7 +207,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -218,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -513,6 +518,4080 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016444BD-F7F9-E147-BB9A-F1F97489ACC7}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="13.28515625" customWidth="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true"/>
+    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1644.7425030099457</v>
+      </c>
+      <c r="D2" s="0">
+        <v>892.02871194456884</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1635.4061483041658</v>
+      </c>
+      <c r="D3" s="0">
+        <v>357.32671346786896</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1269</v>
+      </c>
+      <c r="D4" s="0">
+        <v>352</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1276.520209029972</v>
+      </c>
+      <c r="D5" s="0">
+        <v>895.01460290365162</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>904.62459762139895</v>
+      </c>
+      <c r="D6" s="0">
+        <v>895.04376388709545</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>888.28458590452396</v>
+      </c>
+      <c r="D7" s="0">
+        <v>349.24413555490423</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>509.83493585304365</v>
+      </c>
+      <c r="D8" s="0">
+        <v>348.79972769377798</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>517.0101420458949</v>
+      </c>
+      <c r="D9" s="0">
+        <v>893</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1646.8746535296575</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1027.0845244489574</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1643.9734582162946</v>
+      </c>
+      <c r="D11" s="0">
+        <v>491</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1274.9999999999998</v>
+      </c>
+      <c r="D12" s="0">
+        <v>488</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1279.3493827116019</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1033.3012493082249</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>907.52484896262547</v>
+      </c>
+      <c r="D14" s="0">
+        <v>1034.5206728589721</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>892.4076645902577</v>
+      </c>
+      <c r="D15" s="0">
+        <v>484.79481902986134</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>510.46508385439233</v>
+      </c>
+      <c r="D16" s="0">
+        <v>487.4455764172319</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>525</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1027.0980695012088</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1489.3846762361873</v>
+      </c>
+      <c r="D18" s="0">
+        <v>858.182620379632</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1478.7054596333444</v>
+      </c>
+      <c r="D19" s="0">
+        <v>317.98346611431509</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1106.5063568822814</v>
+      </c>
+      <c r="D20" s="0">
+        <v>317.46121207422669</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1115.5494197876064</v>
+      </c>
+      <c r="D21" s="0">
+        <v>857</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>739.37055943669645</v>
+      </c>
+      <c r="D22" s="0">
+        <v>858.87694241073473</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>724</v>
+      </c>
+      <c r="D23" s="0">
+        <v>316</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>347.59998908096031</v>
+      </c>
+      <c r="D24" s="0">
+        <v>316.18836282597613</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>357.52787151824356</v>
+      </c>
+      <c r="D25" s="0">
+        <v>854.00000000000011</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1453</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1038</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1445.3355062255928</v>
+      </c>
+      <c r="D27" s="0">
+        <v>496.68324673024046</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1073</v>
+      </c>
+      <c r="D28" s="0">
+        <v>494.06282172105097</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1080.0510306101908</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1039.2580222016863</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>706.28422113454724</v>
+      </c>
+      <c r="D30" s="0">
+        <v>1035.2802447597348</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>688.43600904846016</v>
+      </c>
+      <c r="D31" s="0">
+        <v>493.80569376586431</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>311.48909359995025</v>
+      </c>
+      <c r="D32" s="0">
+        <v>493.47228629221291</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>327.68442286943787</v>
+      </c>
+      <c r="D33" s="0">
+        <v>1030.3292348100124</v>
+      </c>
+      <c r="E33" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7.6640625" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="6.6640625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1634.5832371432114</v>
+      </c>
+      <c r="D2">
+        <v>883</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1632.4265443435393</v>
+      </c>
+      <c r="D3">
+        <v>348.1904554392429</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1264.2992618674946</v>
+      </c>
+      <c r="D4">
+        <v>339.8398448017395</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1272.4976351483458</v>
+      </c>
+      <c r="D5">
+        <v>884.50371781189858</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>896.0054514726379</v>
+      </c>
+      <c r="D6">
+        <v>886.00067032311472</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>884.39997528745789</v>
+      </c>
+      <c r="D7">
+        <v>338.15420968300811</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>504</v>
+      </c>
+      <c r="D8">
+        <v>338</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>515.458800788433</v>
+      </c>
+      <c r="D9">
+        <v>879.01899490184496</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1619.4630275922909</v>
+      </c>
+      <c r="D10">
+        <v>1026.9493538404563</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1615</v>
+      </c>
+      <c r="D11">
+        <v>490.5340062361679</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1246.8986241372759</v>
+      </c>
+      <c r="D12">
+        <v>489.98930052173625</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1250.6105560128537</v>
+      </c>
+      <c r="D13">
+        <v>1033.1994263586266</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>876.30901366636238</v>
+      </c>
+      <c r="D14">
+        <v>1029.3414742931636</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>863.11815473245372</v>
+      </c>
+      <c r="D15">
+        <v>482.1151043261882</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>483.03760659484539</v>
+      </c>
+      <c r="D16">
+        <v>482.63522811947422</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>494.06667877099005</v>
+      </c>
+      <c r="D17">
+        <v>1024.4941583555815</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1479.4170525137188</v>
+      </c>
+      <c r="D18">
+        <v>878.80732756498946</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1472</v>
+      </c>
+      <c r="D19">
+        <v>339</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1098.9999999999998</v>
+      </c>
+      <c r="D20">
+        <v>333.46386067619034</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1106.8380913459309</v>
+      </c>
+      <c r="D21">
+        <v>878.36948917416635</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>730</v>
+      </c>
+      <c r="D22">
+        <v>875</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>718.66826419851839</v>
+      </c>
+      <c r="D23">
+        <v>331.37423485472425</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>338.1778550489546</v>
+      </c>
+      <c r="D24">
+        <v>331.41781057527805</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>348.66064541799346</v>
+      </c>
+      <c r="D25">
+        <v>872.97155739522611</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1471.0269453062842</v>
+      </c>
+      <c r="D26">
+        <v>1014.9619501882065</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1465</v>
+      </c>
+      <c r="D27">
+        <v>474</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1092</v>
+      </c>
+      <c r="D28">
+        <v>472</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1098.5015147541376</v>
+      </c>
+      <c r="D29">
+        <v>1017.4988351453728</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>722.70855122616899</v>
+      </c>
+      <c r="D30">
+        <v>1015.2579986889109</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>707.00866303979069</v>
+      </c>
+      <c r="D31">
+        <v>468.17576007912305</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>328.49685359317334</v>
+      </c>
+      <c r="D32">
+        <v>469.008965874051</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>344.52202340700165</v>
+      </c>
+      <c r="D33">
+        <v>1006.9625696988209</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7.6640625" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="6.6640625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1634.5832371432114</v>
+      </c>
+      <c r="D2">
+        <v>883</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1632.4265443435393</v>
+      </c>
+      <c r="D3">
+        <v>348.1904554392429</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1264.2992618674946</v>
+      </c>
+      <c r="D4">
+        <v>339.8398448017395</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1272.4976351483458</v>
+      </c>
+      <c r="D5">
+        <v>884.50371781189858</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>896.0054514726379</v>
+      </c>
+      <c r="D6">
+        <v>886.00067032311472</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>884.39997528745789</v>
+      </c>
+      <c r="D7">
+        <v>338.15420968300811</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>504</v>
+      </c>
+      <c r="D8">
+        <v>338</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>515.458800788433</v>
+      </c>
+      <c r="D9">
+        <v>879.01899490184496</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1619.4630275922909</v>
+      </c>
+      <c r="D10">
+        <v>1026.9493538404563</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1615</v>
+      </c>
+      <c r="D11">
+        <v>490.5340062361679</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1246.8986241372759</v>
+      </c>
+      <c r="D12">
+        <v>489.98930052173625</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1250.6105560128537</v>
+      </c>
+      <c r="D13">
+        <v>1033.1994263586266</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>876.30901366636238</v>
+      </c>
+      <c r="D14">
+        <v>1029.3414742931636</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>863.11815473245372</v>
+      </c>
+      <c r="D15">
+        <v>482.1151043261882</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>483.03760659484539</v>
+      </c>
+      <c r="D16">
+        <v>482.63522811947422</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>494.06667877099005</v>
+      </c>
+      <c r="D17">
+        <v>1024.4941583555815</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1479.4170525137188</v>
+      </c>
+      <c r="D18">
+        <v>878.80732756498946</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1472</v>
+      </c>
+      <c r="D19">
+        <v>339</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1098.9999999999998</v>
+      </c>
+      <c r="D20">
+        <v>333.46386067619034</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1106.8380913459309</v>
+      </c>
+      <c r="D21">
+        <v>878.36948917416635</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>730</v>
+      </c>
+      <c r="D22">
+        <v>875</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>718.66826419851839</v>
+      </c>
+      <c r="D23">
+        <v>331.37423485472425</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>338.1778550489546</v>
+      </c>
+      <c r="D24">
+        <v>331.41781057527805</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>348.66064541799346</v>
+      </c>
+      <c r="D25">
+        <v>872.97155739522611</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1471.0269453062842</v>
+      </c>
+      <c r="D26">
+        <v>1014.9619501882065</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1465</v>
+      </c>
+      <c r="D27">
+        <v>474</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1092</v>
+      </c>
+      <c r="D28">
+        <v>472</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1098.5015147541376</v>
+      </c>
+      <c r="D29">
+        <v>1017.4988351453728</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>722.70855122616899</v>
+      </c>
+      <c r="D30">
+        <v>1015.2579986889109</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>707.00866303979069</v>
+      </c>
+      <c r="D31">
+        <v>468.17576007912305</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>328.49685359317334</v>
+      </c>
+      <c r="D32">
+        <v>469.008965874051</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>344.52202340700165</v>
+      </c>
+      <c r="D33">
+        <v>1006.9625696988209</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7.6640625" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="6.6640625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1630.7425030099457</v>
+      </c>
+      <c r="D2">
+        <v>851.02871194456884</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1621.4061483041658</v>
+      </c>
+      <c r="D3">
+        <v>316.32671346786896</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1255</v>
+      </c>
+      <c r="D4">
+        <v>311</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1262.520209029972</v>
+      </c>
+      <c r="D5">
+        <v>854.01460290365162</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>890.62459762139895</v>
+      </c>
+      <c r="D6">
+        <v>854.04376388709545</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>874.28458590452396</v>
+      </c>
+      <c r="D7">
+        <v>308.24413555490423</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>495.83493585304365</v>
+      </c>
+      <c r="D8">
+        <v>307.79972769377798</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>503.0101420458949</v>
+      </c>
+      <c r="D9">
+        <v>852</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1618.8746535296575</v>
+      </c>
+      <c r="D10">
+        <v>996.0845244489575</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1615.9734582162946</v>
+      </c>
+      <c r="D11">
+        <v>460</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1246.9999999999998</v>
+      </c>
+      <c r="D12">
+        <v>457</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1251.3493827116019</v>
+      </c>
+      <c r="D13">
+        <v>1002.3012493082249</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>879.52484896262547</v>
+      </c>
+      <c r="D14">
+        <v>1003.5206728589721</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>864.4076645902577</v>
+      </c>
+      <c r="D15">
+        <v>453.79481902986134</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>482.46508385439239</v>
+      </c>
+      <c r="D16">
+        <v>456.4455764172319</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>496.99999999999994</v>
+      </c>
+      <c r="D17">
+        <v>996.09806950120878</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1480.3846762361873</v>
+      </c>
+      <c r="D18">
+        <v>845.182620379632</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1469.7054596333444</v>
+      </c>
+      <c r="D19">
+        <v>304.98346611431509</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1097.5063568822814</v>
+      </c>
+      <c r="D20">
+        <v>304.46121207422669</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1106.5494197876064</v>
+      </c>
+      <c r="D21">
+        <v>844</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>730.37055943669645</v>
+      </c>
+      <c r="D22">
+        <v>845.87694241073473</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>715</v>
+      </c>
+      <c r="D23">
+        <v>303</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>338.59998908096031</v>
+      </c>
+      <c r="D24">
+        <v>303.18836282597613</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>348.52787151824356</v>
+      </c>
+      <c r="D25">
+        <v>841.00000000000011</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1473</v>
+      </c>
+      <c r="D26">
+        <v>986</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1465.3355062255928</v>
+      </c>
+      <c r="D27">
+        <v>444.68324673024046</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1093</v>
+      </c>
+      <c r="D28">
+        <v>442.06282172105097</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1100.0510306101908</v>
+      </c>
+      <c r="D29">
+        <v>987.25802220168634</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>726.28422113454724</v>
+      </c>
+      <c r="D30">
+        <v>983.28024475973484</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>708.43600904846016</v>
+      </c>
+      <c r="D31">
+        <v>441.80569376586431</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>331.48909359995025</v>
+      </c>
+      <c r="D32">
+        <v>441.47228629221291</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>347.68442286943787</v>
+      </c>
+      <c r="D33">
+        <v>978.32923481001239</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96200FB-67F2-FE48-B485-4355BB1B4F4F}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1630.7425030099457</v>
+      </c>
+      <c r="D2">
+        <v>851.02871194456884</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1621.4061483041658</v>
+      </c>
+      <c r="D3">
+        <v>316.32671346786896</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1255</v>
+      </c>
+      <c r="D4">
+        <v>311</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1262.520209029972</v>
+      </c>
+      <c r="D5">
+        <v>854.01460290365162</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>890.62459762139895</v>
+      </c>
+      <c r="D6">
+        <v>854.04376388709545</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>874.28458590452396</v>
+      </c>
+      <c r="D7">
+        <v>308.24413555490423</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>495.83493585304365</v>
+      </c>
+      <c r="D8">
+        <v>307.79972769377798</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>503.0101420458949</v>
+      </c>
+      <c r="D9">
+        <v>852</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1618.8746535296575</v>
+      </c>
+      <c r="D10">
+        <v>996.0845244489575</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1615.9734582162946</v>
+      </c>
+      <c r="D11">
+        <v>460</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1246.9999999999998</v>
+      </c>
+      <c r="D12">
+        <v>457</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1251.3493827116019</v>
+      </c>
+      <c r="D13">
+        <v>1002.3012493082249</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>879.52484896262547</v>
+      </c>
+      <c r="D14">
+        <v>1003.5206728589721</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>864.4076645902577</v>
+      </c>
+      <c r="D15">
+        <v>453.79481902986134</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>482.46508385439239</v>
+      </c>
+      <c r="D16">
+        <v>456.4455764172319</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>496.99999999999994</v>
+      </c>
+      <c r="D17">
+        <v>996.09806950120878</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1480.3846762361873</v>
+      </c>
+      <c r="D18">
+        <v>845.182620379632</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1469.7054596333444</v>
+      </c>
+      <c r="D19">
+        <v>304.98346611431509</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1097.5063568822814</v>
+      </c>
+      <c r="D20">
+        <v>304.46121207422669</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1106.5494197876064</v>
+      </c>
+      <c r="D21">
+        <v>844</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>730.37055943669645</v>
+      </c>
+      <c r="D22">
+        <v>845.87694241073473</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>715</v>
+      </c>
+      <c r="D23">
+        <v>303</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>338.59998908096031</v>
+      </c>
+      <c r="D24">
+        <v>303.18836282597613</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>348.52787151824356</v>
+      </c>
+      <c r="D25">
+        <v>841.00000000000011</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1472</v>
+      </c>
+      <c r="D26">
+        <v>985</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1464.3355062255928</v>
+      </c>
+      <c r="D27">
+        <v>443.68324673024046</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1092</v>
+      </c>
+      <c r="D28">
+        <v>441.06282172105097</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1099.0510306101908</v>
+      </c>
+      <c r="D29">
+        <v>986.25802220168634</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>725.28422113454724</v>
+      </c>
+      <c r="D30">
+        <v>982.28024475973484</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>707.43600904846016</v>
+      </c>
+      <c r="D31">
+        <v>440.80569376586431</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>330.48909359995025</v>
+      </c>
+      <c r="D32">
+        <v>440.47228629221291</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>346.68442286943787</v>
+      </c>
+      <c r="D33">
+        <v>977.32923481001239</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA00A1D1-EF52-DA4A-871D-DB1992668D0B}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1637.7425030099457</v>
+      </c>
+      <c r="D2">
+        <v>861.02871194456884</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1628.4061483041658</v>
+      </c>
+      <c r="D3">
+        <v>326.32671346786896</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1262</v>
+      </c>
+      <c r="D4">
+        <v>321</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1269.520209029972</v>
+      </c>
+      <c r="D5">
+        <v>864.01460290365162</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>897.62459762139895</v>
+      </c>
+      <c r="D6">
+        <v>864.04376388709545</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>881.28458590452396</v>
+      </c>
+      <c r="D7">
+        <v>318.24413555490423</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>502.83493585304365</v>
+      </c>
+      <c r="D8">
+        <v>317.79972769377798</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>510.0101420458949</v>
+      </c>
+      <c r="D9">
+        <v>862</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1620.8746535296575</v>
+      </c>
+      <c r="D10">
+        <v>1004.0845244489575</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1617.9734582162946</v>
+      </c>
+      <c r="D11">
+        <v>468</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1248.9999999999998</v>
+      </c>
+      <c r="D12">
+        <v>465</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1253.3493827116019</v>
+      </c>
+      <c r="D13">
+        <v>1010.3012493082249</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>881.52484896262547</v>
+      </c>
+      <c r="D14">
+        <v>1011.5206728589721</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>866.4076645902577</v>
+      </c>
+      <c r="D15">
+        <v>461.79481902986134</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>484.46508385439239</v>
+      </c>
+      <c r="D16">
+        <v>464.4455764172319</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>498.99999999999994</v>
+      </c>
+      <c r="D17">
+        <v>1004.0980695012088</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1480.3846762361873</v>
+      </c>
+      <c r="D18">
+        <v>845.182620379632</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1469.7054596333444</v>
+      </c>
+      <c r="D19">
+        <v>304.98346611431509</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1097.5063568822814</v>
+      </c>
+      <c r="D20">
+        <v>304.46121207422669</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1106.5494197876064</v>
+      </c>
+      <c r="D21">
+        <v>844</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>730.37055943669645</v>
+      </c>
+      <c r="D22">
+        <v>845.87694241073473</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>715</v>
+      </c>
+      <c r="D23">
+        <v>303</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>338.59998908096031</v>
+      </c>
+      <c r="D24">
+        <v>303.18836282597613</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>348.52787151824356</v>
+      </c>
+      <c r="D25">
+        <v>841.00000000000011</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1475</v>
+      </c>
+      <c r="D26">
+        <v>997</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1467.3355062255928</v>
+      </c>
+      <c r="D27">
+        <v>455.68324673024046</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1095</v>
+      </c>
+      <c r="D28">
+        <v>453.06282172105097</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1102.0510306101908</v>
+      </c>
+      <c r="D29">
+        <v>998.25802220168634</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>728.28422113454724</v>
+      </c>
+      <c r="D30">
+        <v>994.28024475973484</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>710.43600904846016</v>
+      </c>
+      <c r="D31">
+        <v>452.80569376586431</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>333.48909359995025</v>
+      </c>
+      <c r="D32">
+        <v>452.47228629221291</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>349.68442286943787</v>
+      </c>
+      <c r="D33">
+        <v>989.32923481001239</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82059635-BEA6-F747-8536-EA5A758DA55C}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1644.7425030099457</v>
+      </c>
+      <c r="D2">
+        <v>892.02871194456884</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1635.4061483041658</v>
+      </c>
+      <c r="D3">
+        <v>357.32671346786896</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1269</v>
+      </c>
+      <c r="D4">
+        <v>352</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1276.520209029972</v>
+      </c>
+      <c r="D5">
+        <v>895.01460290365162</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>904.62459762139895</v>
+      </c>
+      <c r="D6">
+        <v>895.04376388709545</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>888.28458590452396</v>
+      </c>
+      <c r="D7">
+        <v>349.24413555490423</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>509.83493585304365</v>
+      </c>
+      <c r="D8">
+        <v>348.79972769377798</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>517.0101420458949</v>
+      </c>
+      <c r="D9">
+        <v>893</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1670.8746535296575</v>
+      </c>
+      <c r="D10">
+        <v>1012.0845244489575</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1667.9734582162946</v>
+      </c>
+      <c r="D11">
+        <v>476</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1298.9999999999998</v>
+      </c>
+      <c r="D12">
+        <v>473</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1303.3493827116019</v>
+      </c>
+      <c r="D13">
+        <v>1018.3012493082249</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>931.52484896262547</v>
+      </c>
+      <c r="D14">
+        <v>1019.5206728589721</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>916.4076645902577</v>
+      </c>
+      <c r="D15">
+        <v>469.79481902986134</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>534.46508385439233</v>
+      </c>
+      <c r="D16">
+        <v>472.4455764172319</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>549</v>
+      </c>
+      <c r="D17">
+        <v>1012.0980695012088</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1483.3846762361873</v>
+      </c>
+      <c r="D18">
+        <v>888.182620379632</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1472.7054596333444</v>
+      </c>
+      <c r="D19">
+        <v>347.98346611431509</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1100.5063568822814</v>
+      </c>
+      <c r="D20">
+        <v>347.46121207422669</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1109.5494197876064</v>
+      </c>
+      <c r="D21">
+        <v>887</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>733.37055943669645</v>
+      </c>
+      <c r="D22">
+        <v>888.87694241073473</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>718</v>
+      </c>
+      <c r="D23">
+        <v>346</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>341.59998908096031</v>
+      </c>
+      <c r="D24">
+        <v>346.18836282597613</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>351.52787151824356</v>
+      </c>
+      <c r="D25">
+        <v>884.00000000000011</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1475</v>
+      </c>
+      <c r="D26">
+        <v>1048</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1467.3355062255928</v>
+      </c>
+      <c r="D27">
+        <v>506.68324673024046</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1095</v>
+      </c>
+      <c r="D28">
+        <v>504.06282172105097</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1102.0510306101908</v>
+      </c>
+      <c r="D29">
+        <v>1049.2580222016863</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>728.28422113454724</v>
+      </c>
+      <c r="D30">
+        <v>1045.2802447597348</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>710.43600904846016</v>
+      </c>
+      <c r="D31">
+        <v>503.80569376586431</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>333.48909359995025</v>
+      </c>
+      <c r="D32">
+        <v>503.47228629221291</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>349.68442286943787</v>
+      </c>
+      <c r="D33">
+        <v>1040.3292348100124</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -520,13 +4599,13 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="3.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -546,7 +4625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -583,7 +4662,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -620,7 +4699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -657,7 +4736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -694,7 +4773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,7 +4810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -768,7 +4847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -805,7 +4884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -842,7 +4921,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -879,7 +4958,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -916,7 +4995,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -953,7 +5032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -990,7 +5069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1027,7 +5106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1064,7 +5143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1101,7 +5180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1138,7 +5217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1175,7 +5254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1212,7 +5291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1249,7 +5328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1286,7 +5365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1323,7 +5402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1360,7 +5439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1397,7 +5476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1434,7 +5513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1471,7 +5550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1508,7 +5587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1545,7 +5624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1582,7 +5661,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1619,7 +5698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1656,7 +5735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1693,7 +5772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1736,7 +5815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
@@ -1744,13 +5823,13 @@
       <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="3.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="3.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +5855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1858,7 +5937,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1940,7 +6019,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2022,7 +6101,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2104,7 +6183,7 @@
         <v>869.11683665181329</v>
       </c>
     </row>
-    <row r="6">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2183,7 +6262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2214,7 +6293,7 @@
         <v>895.07874960000004</v>
       </c>
     </row>
-    <row r="8">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2245,7 +6324,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2276,7 +6355,7 @@
         <v>350.86695689999999</v>
       </c>
     </row>
-    <row r="10">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2307,7 +6386,7 @@
         <v>516.2729018</v>
       </c>
     </row>
-    <row r="11">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2338,7 +6417,7 @@
         <v>1054.6513580000001</v>
       </c>
     </row>
-    <row r="12">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2369,7 +6448,7 @@
         <v>1057.3494989999999</v>
       </c>
     </row>
-    <row r="13">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2400,7 +6479,7 @@
         <v>513.19384539999999</v>
       </c>
     </row>
-    <row r="14">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2431,7 +6510,7 @@
         <v>509.53178359999998</v>
       </c>
     </row>
-    <row r="15">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2462,7 +6541,7 @@
         <v>1047.1252569999999</v>
       </c>
     </row>
-    <row r="16">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2493,7 +6572,7 @@
         <v>1040.8142339999999</v>
       </c>
     </row>
-    <row r="17">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2524,7 +6603,7 @@
         <v>500.51792349999999</v>
       </c>
     </row>
-    <row r="18">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2555,7 +6634,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2586,7 +6665,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2617,7 +6696,7 @@
         <v>895.06141690000004</v>
       </c>
     </row>
-    <row r="21">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2648,7 +6727,7 @@
         <v>353.01796389999998</v>
       </c>
     </row>
-    <row r="22">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2679,7 +6758,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="23">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2710,7 +6789,7 @@
         <v>889.48663759999999</v>
       </c>
     </row>
-    <row r="24">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2741,7 +6820,7 @@
         <v>888.11683670000002</v>
       </c>
     </row>
-    <row r="25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2772,7 +6851,7 @@
         <v>352.31099369999998</v>
       </c>
     </row>
-    <row r="26">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2803,7 +6882,7 @@
         <v>490.50236369999999</v>
       </c>
     </row>
-    <row r="27">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2834,7 +6913,7 @@
         <v>1028.633597</v>
       </c>
     </row>
-    <row r="28">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2865,7 +6944,7 @@
         <v>1029.583901</v>
       </c>
     </row>
-    <row r="29">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2896,7 +6975,7 @@
         <v>489.16738980000002</v>
       </c>
     </row>
-    <row r="30">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2927,7 +7006,7 @@
         <v>486.48403630000001</v>
       </c>
     </row>
-    <row r="31">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2958,7 +7037,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="32">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2989,7 +7068,7 @@
         <v>1021.204007</v>
       </c>
     </row>
-    <row r="33">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3026,7 +7105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -3034,12 +7113,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="12.7109375" customWidth="true"/>
+    <col min="1" max="16" width="12.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1632.2250068153903</v>
       </c>
@@ -3089,7 +7168,7 @@
         <v>1030.8142339811116</v>
       </c>
     </row>
-    <row r="2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1646.9999999999998</v>
       </c>
@@ -3139,7 +7218,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1479.7148948701831</v>
       </c>
@@ -3189,7 +7268,7 @@
         <v>1005.2040069956981</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1491</v>
       </c>
@@ -3246,7 +7325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -3254,9 +7333,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +7352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3304,7 +7383,7 @@
         <v>29.34225745781572</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3335,7 +7414,7 @@
         <v>840.99907164175033</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3366,7 +7445,7 @@
         <v>859.34225745781578</v>
       </c>
     </row>
-    <row r="5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3397,7 +7476,7 @@
         <v>314.34225745781572</v>
       </c>
     </row>
-    <row r="6">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3428,7 +7507,7 @@
         <v>320.34137828619572</v>
       </c>
     </row>
-    <row r="7">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3459,7 +7538,7 @@
         <v>863.34225745781578</v>
       </c>
     </row>
-    <row r="8">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3490,7 +7569,7 @@
         <v>871.80117305920476</v>
       </c>
     </row>
-    <row r="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3521,7 +7600,7 @@
         <v>328.93127036364535</v>
       </c>
     </row>
-    <row r="10">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3552,7 +7631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3583,7 +7662,7 @@
         <v>999.47984336260345</v>
       </c>
     </row>
-    <row r="12">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3614,7 +7693,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="13">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3645,7 +7724,7 @@
         <v>471.50098570018065</v>
       </c>
     </row>
-    <row r="14">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3676,7 +7755,7 @@
         <v>477.74724778007908</v>
       </c>
     </row>
-    <row r="15">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3707,7 +7786,7 @@
         <v>1021.0000000000001</v>
       </c>
     </row>
-    <row r="16">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3738,7 +7817,7 @@
         <v>1029.3219241389984</v>
       </c>
     </row>
-    <row r="17">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3769,7 +7848,7 @@
         <v>488.84585525987632</v>
       </c>
     </row>
-    <row r="18">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3792,7 +7871,7 @@
         <v>279.48143931656074</v>
       </c>
     </row>
-    <row r="19">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3815,7 +7894,7 @@
         <v>813.23295593386445</v>
       </c>
     </row>
-    <row r="20">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3838,7 +7917,7 @@
         <v>829.28943124222167</v>
       </c>
     </row>
-    <row r="21">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3861,7 +7940,7 @@
         <v>282.76894231476359</v>
       </c>
     </row>
-    <row r="22">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3884,7 +7963,7 @@
         <v>291.00000000000006</v>
       </c>
     </row>
-    <row r="23">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3907,7 +7986,7 @@
         <v>831.51615876175674</v>
       </c>
     </row>
-    <row r="24">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3930,7 +8009,7 @@
         <v>836.56843813389787</v>
       </c>
     </row>
-    <row r="25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3953,7 +8032,7 @@
         <v>300.52825243257473</v>
       </c>
     </row>
-    <row r="26">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -3984,7 +8063,7 @@
         <v>28.14476265348992</v>
       </c>
     </row>
-    <row r="27">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4015,7 +8094,7 @@
         <v>987.80748757663412</v>
       </c>
     </row>
-    <row r="28">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4046,7 +8125,7 @@
         <v>998.63525095173111</v>
       </c>
     </row>
-    <row r="29">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4077,7 +8156,7 @@
         <v>453.14476265348998</v>
       </c>
     </row>
-    <row r="30">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4108,7 +8187,7 @@
         <v>462.61791541004521</v>
       </c>
     </row>
-    <row r="31">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4139,7 +8218,7 @@
         <v>1005.4059517454439</v>
       </c>
     </row>
-    <row r="32">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4170,7 +8249,7 @@
         <v>1011.1447626534898</v>
       </c>
     </row>
-    <row r="33">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4199,1166 +8278,6 @@
       <c r="K33">
         <f t="shared" si="7"/>
         <v>472.94631367607565</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1604.6029030107932</v>
-      </c>
-      <c r="D2">
-        <v>280.65774254218428</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1628.7162893371674</v>
-      </c>
-      <c r="D3">
-        <v>811.65681418393456</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1263</v>
-      </c>
-      <c r="D4">
-        <v>830</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1241</v>
-      </c>
-      <c r="D5">
-        <v>285</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>860.27323359172738</v>
-      </c>
-      <c r="D6">
-        <v>290.99912082838</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>885.96699056537875</v>
-      </c>
-      <c r="D7">
-        <v>834</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>506</v>
-      </c>
-      <c r="D8">
-        <v>842.45891560138898</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>481.40090797133456</v>
-      </c>
-      <c r="D9">
-        <v>299.58901290582963</v>
-      </c>
-      <c r="E9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1606</v>
-      </c>
-      <c r="D10">
-        <v>425</v>
-      </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1620.9445240019663</v>
-      </c>
-      <c r="D11">
-        <v>959.47984336260345</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1256</v>
-      </c>
-      <c r="D12">
-        <v>974</v>
-      </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1237.2074574032038</v>
-      </c>
-      <c r="D13">
-        <v>431.50098570018065</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>852.36344463680052</v>
-      </c>
-      <c r="D14">
-        <v>437.74724778007908</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>882.53773646259197</v>
-      </c>
-      <c r="D15">
-        <v>981.00000000000011</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>500.64185533341998</v>
-      </c>
-      <c r="D16">
-        <v>989.32192413899827</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>474.89341345569784</v>
-      </c>
-      <c r="D17">
-        <v>448.84585525987632</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1467.5283069529205</v>
-      </c>
-      <c r="D18">
-        <v>279.48143931656074</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1489.5885413497574</v>
-      </c>
-      <c r="D19">
-        <v>813.23295593386445</v>
-      </c>
-      <c r="E19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1117.0168346154469</v>
-      </c>
-      <c r="D20">
-        <v>829.28943124222167</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1093.2565289139898</v>
-      </c>
-      <c r="D21">
-        <v>282.76894231476359</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>710.50943405789167</v>
-      </c>
-      <c r="D22">
-        <v>291.00000000000006</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>739</v>
-      </c>
-      <c r="D23">
-        <v>831.51615876175674</v>
-      </c>
-      <c r="E23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>358.00000000000006</v>
-      </c>
-      <c r="D24">
-        <v>836.56843813389787</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>335.52599426336445</v>
-      </c>
-      <c r="D25">
-        <v>300.52825243257473</v>
-      </c>
-      <c r="E25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1464.0259861843795</v>
-      </c>
-      <c r="D26">
-        <v>421.85523734651008</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1482.3243065783529</v>
-      </c>
-      <c r="D27">
-        <v>959.6627249231442</v>
-      </c>
-      <c r="E27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1111.9187726325586</v>
-      </c>
-      <c r="D28">
-        <v>970.49048829824119</v>
-      </c>
-      <c r="E28">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1091</v>
-      </c>
-      <c r="D29">
-        <v>425.00000000000006</v>
-      </c>
-      <c r="E29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>707.47963024160333</v>
-      </c>
-      <c r="D30">
-        <v>434.47315275655529</v>
-      </c>
-      <c r="E30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>737.00198143642649</v>
-      </c>
-      <c r="D31">
-        <v>977.26118909195395</v>
-      </c>
-      <c r="E31">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>361</v>
-      </c>
-      <c r="D32">
-        <v>982.99999999999989</v>
-      </c>
-      <c r="E32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>329.35137120907115</v>
-      </c>
-      <c r="D33">
-        <v>444.80155102258573</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1635.2250068153903</v>
-      </c>
-      <c r="D2">
-        <v>1033.651358203427</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1628.7010749651322</v>
-      </c>
-      <c r="D3">
-        <v>495.27290178450977</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1257.0758786270517</v>
-      </c>
-      <c r="D4">
-        <v>492.19384543003525</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1261.2034747743264</v>
-      </c>
-      <c r="D5">
-        <v>1036.3494990915842</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>888.85975735881163</v>
-      </c>
-      <c r="D6">
-        <v>1036.1252570136976</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>875.48745637488901</v>
-      </c>
-      <c r="D7">
-        <v>488.53178358312277</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>495.782476538195</v>
-      </c>
-      <c r="D8">
-        <v>489.51792350975768</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>506.55653425087291</v>
-      </c>
-      <c r="D9">
-        <v>1029.8142339811116</v>
-      </c>
-      <c r="E9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1643.9999999999998</v>
-      </c>
-      <c r="D10">
-        <v>890.46737652347861</v>
-      </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1639.1717314198845</v>
-      </c>
-      <c r="D11">
-        <v>355.83237973804944</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1268.5762666689691</v>
-      </c>
-      <c r="D12">
-        <v>350</v>
-      </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1272.5801841324005</v>
-      </c>
-      <c r="D13">
-        <v>894.18178999713712</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>901.40459917471139</v>
-      </c>
-      <c r="D14">
-        <v>891.07874963393658</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>885.59657808465863</v>
-      </c>
-      <c r="D15">
-        <v>349</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>506.96689540353066</v>
-      </c>
-      <c r="D16">
-        <v>346.86695692728279</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>519.34751984964259</v>
-      </c>
-      <c r="D17">
-        <v>890</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1485.7148948701831</v>
-      </c>
-      <c r="D18">
-        <v>1016.6335969067704</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1479.2353306905293</v>
-      </c>
-      <c r="D19">
-        <v>478.50236367984337</v>
-      </c>
-      <c r="E19">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1107.2219701040583</v>
-      </c>
-      <c r="D20">
-        <v>477.16738984616353</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1113.4112184328715</v>
-      </c>
-      <c r="D21">
-        <v>1017.5839006362315</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>739.47095031350148</v>
-      </c>
-      <c r="D22">
-        <v>1016</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>725.00373505082587</v>
-      </c>
-      <c r="D23">
-        <v>474.4840362551991</v>
-      </c>
-      <c r="E23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>345</v>
-      </c>
-      <c r="D24">
-        <v>473</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>363.43228956640741</v>
-      </c>
-      <c r="D25">
-        <v>1009.2040069956981</v>
-      </c>
-      <c r="E25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1501</v>
-      </c>
-      <c r="D26">
-        <v>878.00000000000011</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1489</v>
-      </c>
-      <c r="D27">
-        <v>341</v>
-      </c>
-      <c r="E27">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1120.4400268714517</v>
-      </c>
-      <c r="D28">
-        <v>337.01796391130733</v>
-      </c>
-      <c r="E28">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1127.2251969457127</v>
-      </c>
-      <c r="D29">
-        <v>879.06141688646005</v>
-      </c>
-      <c r="E29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>750.50109136046171</v>
-      </c>
-      <c r="D30">
-        <v>873.48663760499494</v>
-      </c>
-      <c r="E30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>737.4743615261151</v>
-      </c>
-      <c r="D31">
-        <v>333</v>
-      </c>
-      <c r="E31">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>360.05779300371512</v>
-      </c>
-      <c r="D32">
-        <v>336.31099366099261</v>
-      </c>
-      <c r="E32">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>370.82446642322049</v>
-      </c>
-      <c r="D33">
-        <v>872.11683665181329</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -5368,36 +8287,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5405,16 +8324,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1619.4630275922909</v>
+        <v>1604.6029030107932</v>
       </c>
       <c r="D2">
-        <v>1026.9493538404563</v>
+        <v>280.65774254218428</v>
       </c>
       <c r="E2">
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5422,16 +8341,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1615</v>
+        <v>1628.7162893371674</v>
       </c>
       <c r="D3">
-        <v>490.5340062361679</v>
+        <v>811.65681418393456</v>
       </c>
       <c r="E3">
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5439,16 +8358,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1246.8986241372759</v>
+        <v>1263</v>
       </c>
       <c r="D4">
-        <v>489.98930052173625</v>
+        <v>830</v>
       </c>
       <c r="E4">
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5456,16 +8375,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1250.6105560128537</v>
+        <v>1241</v>
       </c>
       <c r="D5">
-        <v>1033.1994263586266</v>
+        <v>285</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5473,16 +8392,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>876.30901366636238</v>
+        <v>860.27323359172738</v>
       </c>
       <c r="D6">
-        <v>1029.3414742931636</v>
+        <v>290.99912082838</v>
       </c>
       <c r="E6">
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5490,16 +8409,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>863.11815473245372</v>
+        <v>885.96699056537875</v>
       </c>
       <c r="D7">
-        <v>482.1151043261882</v>
+        <v>834</v>
       </c>
       <c r="E7">
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5507,16 +8426,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>483.03760659484539</v>
+        <v>506</v>
       </c>
       <c r="D8">
-        <v>482.63522811947422</v>
+        <v>842.45891560138898</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5524,16 +8443,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>494.06667877099005</v>
+        <v>481.40090797133456</v>
       </c>
       <c r="D9">
-        <v>1024.4941583555815</v>
+        <v>299.58901290582963</v>
       </c>
       <c r="E9">
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5541,16 +8460,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1634.5832371432114</v>
+        <v>1606</v>
       </c>
       <c r="D10">
-        <v>883</v>
+        <v>425</v>
       </c>
       <c r="E10">
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5558,16 +8477,16 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1632.4265443435393</v>
+        <v>1620.9445240019663</v>
       </c>
       <c r="D11">
-        <v>348.1904554392429</v>
+        <v>959.47984336260345</v>
       </c>
       <c r="E11">
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5575,16 +8494,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1264.2992618674946</v>
+        <v>1256</v>
       </c>
       <c r="D12">
-        <v>339.8398448017395</v>
+        <v>974</v>
       </c>
       <c r="E12">
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5592,16 +8511,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1272.4976351483458</v>
+        <v>1237.2074574032038</v>
       </c>
       <c r="D13">
-        <v>884.50371781189858</v>
+        <v>431.50098570018065</v>
       </c>
       <c r="E13">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5609,16 +8528,16 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>896.0054514726379</v>
+        <v>852.36344463680052</v>
       </c>
       <c r="D14">
-        <v>886.00067032311472</v>
+        <v>437.74724778007908</v>
       </c>
       <c r="E14">
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5626,16 +8545,16 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>884.39997528745789</v>
+        <v>882.53773646259197</v>
       </c>
       <c r="D15">
-        <v>338.15420968300811</v>
+        <v>981.00000000000011</v>
       </c>
       <c r="E15">
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -5643,16 +8562,16 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>504</v>
+        <v>500.64185533341998</v>
       </c>
       <c r="D16">
-        <v>338</v>
+        <v>989.32192413899827</v>
       </c>
       <c r="E16">
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -5660,16 +8579,16 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>515.458800788433</v>
+        <v>474.89341345569784</v>
       </c>
       <c r="D17">
-        <v>879.01899490184496</v>
+        <v>448.84585525987632</v>
       </c>
       <c r="E17">
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5677,16 +8596,16 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1471.0269453062842</v>
+        <v>1467.5283069529205</v>
       </c>
       <c r="D18">
-        <v>1014.9619501882065</v>
+        <v>279.48143931656074</v>
       </c>
       <c r="E18">
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5694,16 +8613,16 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1465</v>
+        <v>1489.5885413497574</v>
       </c>
       <c r="D19">
-        <v>474</v>
+        <v>813.23295593386445</v>
       </c>
       <c r="E19">
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5711,16 +8630,16 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1092</v>
+        <v>1117.0168346154469</v>
       </c>
       <c r="D20">
-        <v>472</v>
+        <v>829.28943124222167</v>
       </c>
       <c r="E20">
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5728,16 +8647,16 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>1098.5015147541376</v>
+        <v>1093.2565289139898</v>
       </c>
       <c r="D21">
-        <v>1017.4988351453728</v>
+        <v>282.76894231476359</v>
       </c>
       <c r="E21">
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5745,16 +8664,16 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>722.70855122616899</v>
+        <v>710.50943405789167</v>
       </c>
       <c r="D22">
-        <v>1015.2579986889109</v>
+        <v>291.00000000000006</v>
       </c>
       <c r="E22">
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5762,16 +8681,16 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>707.00866303979069</v>
+        <v>739</v>
       </c>
       <c r="D23">
-        <v>468.17576007912305</v>
+        <v>831.51615876175674</v>
       </c>
       <c r="E23">
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5779,16 +8698,16 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>328.49685359317334</v>
+        <v>358.00000000000006</v>
       </c>
       <c r="D24">
-        <v>469.008965874051</v>
+        <v>836.56843813389787</v>
       </c>
       <c r="E24">
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5796,16 +8715,16 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>344.52202340700165</v>
+        <v>335.52599426336445</v>
       </c>
       <c r="D25">
-        <v>1006.9625696988209</v>
+        <v>300.52825243257473</v>
       </c>
       <c r="E25">
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5813,16 +8732,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1479.4170525137188</v>
+        <v>1464.0259861843795</v>
       </c>
       <c r="D26">
-        <v>878.80732756498946</v>
+        <v>421.85523734651008</v>
       </c>
       <c r="E26">
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5830,16 +8749,16 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1472</v>
+        <v>1482.3243065783529</v>
       </c>
       <c r="D27">
-        <v>339</v>
+        <v>959.6627249231442</v>
       </c>
       <c r="E27">
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5847,16 +8766,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1098.9999999999998</v>
+        <v>1111.9187726325586</v>
       </c>
       <c r="D28">
-        <v>333.46386067619034</v>
+        <v>970.49048829824119</v>
       </c>
       <c r="E28">
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5864,16 +8783,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1106.8380913459309</v>
+        <v>1091</v>
       </c>
       <c r="D29">
-        <v>878.36948917416635</v>
+        <v>425.00000000000006</v>
       </c>
       <c r="E29">
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5881,16 +8800,16 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>730</v>
+        <v>707.47963024160333</v>
       </c>
       <c r="D30">
-        <v>875</v>
+        <v>434.47315275655529</v>
       </c>
       <c r="E30">
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5898,16 +8817,16 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>718.66826419851839</v>
+        <v>737.00198143642649</v>
       </c>
       <c r="D31">
-        <v>331.37423485472425</v>
+        <v>977.26118909195395</v>
       </c>
       <c r="E31">
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5915,16 +8834,16 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>338.1778550489546</v>
+        <v>361</v>
       </c>
       <c r="D32">
-        <v>331.41781057527805</v>
+        <v>982.99999999999989</v>
       </c>
       <c r="E32">
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5932,10 +8851,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>348.66064541799346</v>
+        <v>329.35137120907115</v>
       </c>
       <c r="D33">
-        <v>872.97155739522611</v>
+        <v>444.80155102258573</v>
       </c>
       <c r="E33">
         <v>65</v>
@@ -5948,36 +8867,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.6640625" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="6.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5985,16 +8906,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1619.4630275922909</v>
+        <v>1643.9999999999998</v>
       </c>
       <c r="D2">
-        <v>1026.9493538404563</v>
+        <v>890.46737652347861</v>
       </c>
       <c r="E2">
         <v>65</v>
       </c>
     </row>
-    <row r="3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6002,16 +8923,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1615</v>
+        <v>1639.1717314198845</v>
       </c>
       <c r="D3">
-        <v>490.5340062361679</v>
+        <v>355.83237973804944</v>
       </c>
       <c r="E3">
         <v>65</v>
       </c>
     </row>
-    <row r="4">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6019,16 +8940,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1246.8986241372759</v>
+        <v>1268.5762666689691</v>
       </c>
       <c r="D4">
-        <v>489.98930052173625</v>
+        <v>350</v>
       </c>
       <c r="E4">
         <v>65</v>
       </c>
     </row>
-    <row r="5">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6036,16 +8957,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1250.6105560128537</v>
+        <v>1272.5801841324005</v>
       </c>
       <c r="D5">
-        <v>1033.1994263586266</v>
+        <v>894.18178999713712</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6053,16 +8974,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>876.30901366636238</v>
+        <v>901.40459917471139</v>
       </c>
       <c r="D6">
-        <v>1029.3414742931636</v>
+        <v>891.07874963393658</v>
       </c>
       <c r="E6">
         <v>65</v>
       </c>
     </row>
-    <row r="7">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6070,16 +8991,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>863.11815473245372</v>
+        <v>885.59657808465863</v>
       </c>
       <c r="D7">
-        <v>482.1151043261882</v>
+        <v>349</v>
       </c>
       <c r="E7">
         <v>65</v>
       </c>
     </row>
-    <row r="8">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6087,16 +9008,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>483.03760659484539</v>
+        <v>506.96689540353066</v>
       </c>
       <c r="D8">
-        <v>482.63522811947422</v>
+        <v>346.86695692728279</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6104,16 +9025,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>494.06667877099005</v>
+        <v>519.34751984964259</v>
       </c>
       <c r="D9">
-        <v>1024.4941583555815</v>
+        <v>890</v>
       </c>
       <c r="E9">
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6121,16 +9042,16 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1634.5832371432114</v>
+        <v>1635.2250068153903</v>
       </c>
       <c r="D10">
-        <v>883</v>
+        <v>1033.651358203427</v>
       </c>
       <c r="E10">
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6138,16 +9059,16 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1632.4265443435393</v>
+        <v>1628.7010749651322</v>
       </c>
       <c r="D11">
-        <v>348.1904554392429</v>
+        <v>495.27290178450977</v>
       </c>
       <c r="E11">
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6155,16 +9076,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1264.2992618674946</v>
+        <v>1257.0758786270517</v>
       </c>
       <c r="D12">
-        <v>339.8398448017395</v>
+        <v>492.19384543003525</v>
       </c>
       <c r="E12">
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -6172,16 +9093,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1272.4976351483458</v>
+        <v>1261.2034747743264</v>
       </c>
       <c r="D13">
-        <v>884.50371781189858</v>
+        <v>1036.3494990915842</v>
       </c>
       <c r="E13">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -6189,16 +9110,16 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>896.0054514726379</v>
+        <v>888.85975735881163</v>
       </c>
       <c r="D14">
-        <v>886.00067032311472</v>
+        <v>1036.1252570136976</v>
       </c>
       <c r="E14">
         <v>65</v>
       </c>
     </row>
-    <row r="15">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6206,16 +9127,16 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>884.39997528745789</v>
+        <v>875.48745637488901</v>
       </c>
       <c r="D15">
-        <v>338.15420968300811</v>
+        <v>488.53178358312277</v>
       </c>
       <c r="E15">
         <v>65</v>
       </c>
     </row>
-    <row r="16">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6223,16 +9144,16 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>504</v>
+        <v>495.782476538195</v>
       </c>
       <c r="D16">
-        <v>338</v>
+        <v>489.51792350975768</v>
       </c>
       <c r="E16">
         <v>65</v>
       </c>
     </row>
-    <row r="17">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -6240,16 +9161,16 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>515.458800788433</v>
+        <v>506.55653425087291</v>
       </c>
       <c r="D17">
-        <v>879.01899490184496</v>
+        <v>1029.8142339811116</v>
       </c>
       <c r="E17">
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6257,16 +9178,16 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1471.0269453062842</v>
+        <v>1501</v>
       </c>
       <c r="D18">
-        <v>1014.9619501882065</v>
+        <v>878.00000000000011</v>
       </c>
       <c r="E18">
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6274,16 +9195,16 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>1465</v>
+        <v>1489</v>
       </c>
       <c r="D19">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="E19">
         <v>65</v>
       </c>
     </row>
-    <row r="20">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6291,16 +9212,16 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>1092</v>
+        <v>1120.4400268714517</v>
       </c>
       <c r="D20">
-        <v>472</v>
+        <v>337.01796391130733</v>
       </c>
       <c r="E20">
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6308,16 +9229,16 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>1098.5015147541376</v>
+        <v>1127.2251969457127</v>
       </c>
       <c r="D21">
-        <v>1017.4988351453728</v>
+        <v>879.06141688646005</v>
       </c>
       <c r="E21">
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -6325,16 +9246,16 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>722.70855122616899</v>
+        <v>750.50109136046171</v>
       </c>
       <c r="D22">
-        <v>1015.2579986889109</v>
+        <v>873.48663760499494</v>
       </c>
       <c r="E22">
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -6342,16 +9263,16 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>707.00866303979069</v>
+        <v>737.4743615261151</v>
       </c>
       <c r="D23">
-        <v>468.17576007912305</v>
+        <v>333</v>
       </c>
       <c r="E23">
         <v>65</v>
       </c>
     </row>
-    <row r="24">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6359,16 +9280,16 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>328.49685359317334</v>
+        <v>360.05779300371512</v>
       </c>
       <c r="D24">
-        <v>469.008965874051</v>
+        <v>336.31099366099261</v>
       </c>
       <c r="E24">
         <v>65</v>
       </c>
     </row>
-    <row r="25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -6376,16 +9297,16 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>344.52202340700165</v>
+        <v>370.82446642322049</v>
       </c>
       <c r="D25">
-        <v>1006.9625696988209</v>
+        <v>872.11683665181329</v>
       </c>
       <c r="E25">
         <v>65</v>
       </c>
     </row>
-    <row r="26">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -6393,16 +9314,16 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1479.4170525137188</v>
+        <v>1485.7148948701831</v>
       </c>
       <c r="D26">
-        <v>878.80732756498946</v>
+        <v>1016.6335969067704</v>
       </c>
       <c r="E26">
         <v>65</v>
       </c>
     </row>
-    <row r="27">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -6410,16 +9331,16 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>1472</v>
+        <v>1479.2353306905293</v>
       </c>
       <c r="D27">
-        <v>339</v>
+        <v>478.50236367984337</v>
       </c>
       <c r="E27">
         <v>65</v>
       </c>
     </row>
-    <row r="28">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6427,16 +9348,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1098.9999999999998</v>
+        <v>1107.2219701040583</v>
       </c>
       <c r="D28">
-        <v>333.46386067619034</v>
+        <v>477.16738984616353</v>
       </c>
       <c r="E28">
         <v>65</v>
       </c>
     </row>
-    <row r="29">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6444,16 +9365,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1106.8380913459309</v>
+        <v>1113.4112184328715</v>
       </c>
       <c r="D29">
-        <v>878.36948917416635</v>
+        <v>1017.5839006362315</v>
       </c>
       <c r="E29">
         <v>65</v>
       </c>
     </row>
-    <row r="30">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -6461,16 +9382,16 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>730</v>
+        <v>739.47095031350148</v>
       </c>
       <c r="D30">
-        <v>875</v>
+        <v>1016</v>
       </c>
       <c r="E30">
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6478,16 +9399,16 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>718.66826419851839</v>
+        <v>725.00373505082587</v>
       </c>
       <c r="D31">
-        <v>331.37423485472425</v>
+        <v>474.4840362551991</v>
       </c>
       <c r="E31">
         <v>65</v>
       </c>
     </row>
-    <row r="32">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -6495,16 +9416,16 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>338.1778550489546</v>
+        <v>345</v>
       </c>
       <c r="D32">
-        <v>331.41781057527805</v>
+        <v>473</v>
       </c>
       <c r="E32">
         <v>65</v>
       </c>
     </row>
-    <row r="33">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6512,10 +9433,10 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>348.66064541799346</v>
+        <v>363.43228956640741</v>
       </c>
       <c r="D33">
-        <v>872.97155739522611</v>
+        <v>1009.2040069956981</v>
       </c>
       <c r="E33">
         <v>65</v>
@@ -6528,581 +9449,582 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABE9A69-76CE-E74C-8B0D-F73C461671C6}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.6640625" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="6.6640625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1618.8746535296575</v>
-      </c>
-      <c r="D2" s="0">
-        <v>996.0845244489575</v>
-      </c>
-      <c r="E2" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1615.9734582162946</v>
-      </c>
-      <c r="D3" s="0">
-        <v>460</v>
-      </c>
-      <c r="E3" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
-        <v>1246.9999999999998</v>
-      </c>
-      <c r="D4" s="0">
-        <v>457</v>
-      </c>
-      <c r="E4" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1251.3493827116019</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1002.3012493082249</v>
-      </c>
-      <c r="E5" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1643.9999999999998</v>
+      </c>
+      <c r="D2">
+        <v>890.46737652347861</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1639.1717314198845</v>
+      </c>
+      <c r="D3">
+        <v>355.83237973804944</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1268.5762666689691</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1272.5801841324005</v>
+      </c>
+      <c r="D5">
+        <v>894.18178999713712</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
-        <v>879.52484896262547</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1003.5206728589721</v>
-      </c>
-      <c r="E6" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="C6">
+        <v>901.40459917471139</v>
+      </c>
+      <c r="D6">
+        <v>891.07874963393658</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
-        <v>864.4076645902577</v>
-      </c>
-      <c r="D7" s="0">
-        <v>453.79481902986134</v>
-      </c>
-      <c r="E7" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="C7">
+        <v>885.59657808465863</v>
+      </c>
+      <c r="D7">
+        <v>349</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
-        <v>482.46508385439239</v>
-      </c>
-      <c r="D8" s="0">
-        <v>456.4455764172319</v>
-      </c>
-      <c r="E8" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="C8">
+        <v>506.96689540353066</v>
+      </c>
+      <c r="D8">
+        <v>346.86695692728279</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
-        <v>496.99999999999994</v>
-      </c>
-      <c r="D9" s="0">
-        <v>996.09806950120878</v>
-      </c>
-      <c r="E9" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
-        <v>1630.7425030099457</v>
-      </c>
-      <c r="D10" s="0">
-        <v>851.02871194456884</v>
-      </c>
-      <c r="E10" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1621.4061483041658</v>
-      </c>
-      <c r="D11" s="0">
-        <v>316.32671346786896</v>
-      </c>
-      <c r="E11" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
-        <v>1255</v>
-      </c>
-      <c r="D12" s="0">
-        <v>311</v>
-      </c>
-      <c r="E12" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
-        <v>1262.520209029972</v>
-      </c>
-      <c r="D13" s="0">
-        <v>854.01460290365162</v>
-      </c>
-      <c r="E13" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="C9">
+        <v>519.34751984964259</v>
+      </c>
+      <c r="D9">
+        <v>890</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1635.2250068153903</v>
+      </c>
+      <c r="D10">
+        <v>1033.651358203427</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1628.7010749651322</v>
+      </c>
+      <c r="D11">
+        <v>495.27290178450977</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1257.0758786270517</v>
+      </c>
+      <c r="D12">
+        <v>492.19384543003525</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1261.2034747743264</v>
+      </c>
+      <c r="D13">
+        <v>1036.3494990915842</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
-        <v>890.62459762139895</v>
-      </c>
-      <c r="D14" s="0">
-        <v>854.04376388709545</v>
-      </c>
-      <c r="E14" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="C14">
+        <v>888.85975735881163</v>
+      </c>
+      <c r="D14">
+        <v>1036.1252570136976</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
-        <v>874.28458590452396</v>
-      </c>
-      <c r="D15" s="0">
-        <v>308.24413555490423</v>
-      </c>
-      <c r="E15" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="C15">
+        <v>875.48745637488901</v>
+      </c>
+      <c r="D15">
+        <v>488.53178358312277</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
-        <v>495.83493585304365</v>
-      </c>
-      <c r="D16" s="0">
-        <v>307.79972769377798</v>
-      </c>
-      <c r="E16" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="C16">
+        <v>495.782476538195</v>
+      </c>
+      <c r="D16">
+        <v>489.51792350975768</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
-        <v>503.0101420458949</v>
-      </c>
-      <c r="D17" s="0">
-        <v>852</v>
-      </c>
-      <c r="E17" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
-        <v>1473</v>
-      </c>
-      <c r="D18" s="0">
-        <v>986</v>
-      </c>
-      <c r="E18" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
-        <v>1465.3355062255928</v>
-      </c>
-      <c r="D19" s="0">
-        <v>444.68324673024046</v>
-      </c>
-      <c r="E19" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
-        <v>1093</v>
-      </c>
-      <c r="D20" s="0">
-        <v>442.06282172105097</v>
-      </c>
-      <c r="E20" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
-        <v>1100.0510306101908</v>
-      </c>
-      <c r="D21" s="0">
-        <v>987.25802220168634</v>
-      </c>
-      <c r="E21" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="C17">
+        <v>506.55653425087291</v>
+      </c>
+      <c r="D17">
+        <v>1029.8142339811116</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1501</v>
+      </c>
+      <c r="D18">
+        <v>878.00000000000011</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1489</v>
+      </c>
+      <c r="D19">
+        <v>341</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1120.4400268714517</v>
+      </c>
+      <c r="D20">
+        <v>337.01796391130733</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1127.2251969457127</v>
+      </c>
+      <c r="D21">
+        <v>879.06141688646005</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
-        <v>726.28422113454724</v>
-      </c>
-      <c r="D22" s="0">
-        <v>983.28024475973484</v>
-      </c>
-      <c r="E22" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="C22">
+        <v>750.50109136046171</v>
+      </c>
+      <c r="D22">
+        <v>873.48663760499494</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
-        <v>708.43600904846016</v>
-      </c>
-      <c r="D23" s="0">
-        <v>441.80569376586431</v>
-      </c>
-      <c r="E23" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="C23">
+        <v>737.4743615261151</v>
+      </c>
+      <c r="D23">
+        <v>333</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
-        <v>331.48909359995025</v>
-      </c>
-      <c r="D24" s="0">
-        <v>441.47228629221291</v>
-      </c>
-      <c r="E24" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="C24">
+        <v>360.05779300371512</v>
+      </c>
+      <c r="D24">
+        <v>336.31099366099261</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
-        <v>347.68442286943787</v>
-      </c>
-      <c r="D25" s="0">
-        <v>978.32923481001239</v>
-      </c>
-      <c r="E25" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
-        <v>1480.3846762361873</v>
-      </c>
-      <c r="D26" s="0">
-        <v>845.182620379632</v>
-      </c>
-      <c r="E26" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
-        <v>1469.7054596333444</v>
-      </c>
-      <c r="D27" s="0">
-        <v>304.98346611431509</v>
-      </c>
-      <c r="E27" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
-        <v>1097.5063568822814</v>
-      </c>
-      <c r="D28" s="0">
-        <v>304.46121207422669</v>
-      </c>
-      <c r="E28" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
-        <v>1106.5494197876064</v>
-      </c>
-      <c r="D29" s="0">
-        <v>844</v>
-      </c>
-      <c r="E29" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="C25">
+        <v>370.82446642322049</v>
+      </c>
+      <c r="D25">
+        <v>872.11683665181329</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1485.7148948701831</v>
+      </c>
+      <c r="D26">
+        <v>1016.6335969067704</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1479.2353306905293</v>
+      </c>
+      <c r="D27">
+        <v>478.50236367984337</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1107.2219701040583</v>
+      </c>
+      <c r="D28">
+        <v>477.16738984616353</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1113.4112184328715</v>
+      </c>
+      <c r="D29">
+        <v>1017.5839006362315</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
-        <v>730.37055943669645</v>
-      </c>
-      <c r="D30" s="0">
-        <v>845.87694241073473</v>
-      </c>
-      <c r="E30" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="C30">
+        <v>739.47095031350148</v>
+      </c>
+      <c r="D30">
+        <v>1016</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
-        <v>715</v>
-      </c>
-      <c r="D31" s="0">
-        <v>303</v>
-      </c>
-      <c r="E31" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="C31">
+        <v>725.00373505082587</v>
+      </c>
+      <c r="D31">
+        <v>474.4840362551991</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
-        <v>338.59998908096031</v>
-      </c>
-      <c r="D32" s="0">
-        <v>303.18836282597613</v>
-      </c>
-      <c r="E32" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="C32">
+        <v>345</v>
+      </c>
+      <c r="D32">
+        <v>473</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
-        <v>348.52787151824356</v>
-      </c>
-      <c r="D33" s="0">
-        <v>841.00000000000011</v>
-      </c>
-      <c r="E33" s="0">
+      <c r="C33">
+        <v>363.43228956640741</v>
+      </c>
+      <c r="D33">
+        <v>1009.2040069956981</v>
+      </c>
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohgookazaki/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF5C27-1CE1-F84B-98CE-9518C7F6E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E817E-1B3D-F54D-BABD-C0AF567B03AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="230429" sheetId="16" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="240501" sheetId="9" r:id="rId12"/>
     <sheet name="240621" sheetId="10" r:id="rId13"/>
     <sheet name="240622" sheetId="11" r:id="rId14"/>
+    <sheet name="240828" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -521,577 +522,576 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016444BD-F7F9-E147-BB9A-F1F97489ACC7}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="13.28515625" customWidth="true"/>
-    <col min="5" max="5" width="5.42578125" customWidth="true"/>
-    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1644.7425030099457</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>892.02871194456884</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1635.4061483041658</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>357.32671346786896</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1269</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>352</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1276.520209029972</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>895.01460290365162</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>904.62459762139895</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>895.04376388709545</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>888.28458590452396</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>349.24413555490423</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>509.83493585304365</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>348.79972769377798</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>517.0101420458949</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>893</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1646.8746535296575</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>1027.0845244489574</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1643.9734582162946</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>491</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1274.9999999999998</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>488</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1279.3493827116019</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>1033.3012493082249</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>907.52484896262547</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>1034.5206728589721</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>892.4076645902577</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>484.79481902986134</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>510.46508385439233</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>487.4455764172319</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>525</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>1027.0980695012088</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1489.3846762361873</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>858.182620379632</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>1478.7054596333444</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>317.98346611431509</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1106.5063568822814</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>317.46121207422669</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1115.5494197876064</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>857</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>739.37055943669645</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>858.87694241073473</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>724</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>316</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>347.59998908096031</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>316.18836282597613</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>357.52787151824356</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>854.00000000000011</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1453</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>1038</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1445.3355062255928</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>496.68324673024046</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1073</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>494.06282172105097</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>1080.0510306101908</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>1039.2580222016863</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>706.28422113454724</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>1035.2802447597348</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>688.43600904846016</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>493.80569376586431</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>311.48909359995025</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>493.47228629221291</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>327.68442286943787</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>1030.3292348100124</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E33" sqref="C2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4001,6 +4001,589 @@
         <v>989.32923481001239</v>
       </c>
       <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D7F6DC-A464-BD4E-AA5D-734B14C371F3}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="13.28515625" customWidth="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true"/>
+    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1631.7425030099457</v>
+      </c>
+      <c r="D2" s="0">
+        <v>876.02871194456884</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1622.4061483041658</v>
+      </c>
+      <c r="D3" s="0">
+        <v>341.32671346786896</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1256</v>
+      </c>
+      <c r="D4" s="0">
+        <v>336</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1263.520209029972</v>
+      </c>
+      <c r="D5" s="0">
+        <v>879.01460290365162</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>891.62459762139895</v>
+      </c>
+      <c r="D6" s="0">
+        <v>879.04376388709545</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>875.28458590452396</v>
+      </c>
+      <c r="D7" s="0">
+        <v>333.24413555490423</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>496.83493585304365</v>
+      </c>
+      <c r="D8" s="0">
+        <v>332.79972769377798</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>504.0101420458949</v>
+      </c>
+      <c r="D9" s="0">
+        <v>877</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1487.3846762361873</v>
+      </c>
+      <c r="D10" s="0">
+        <v>869.182620379632</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1476.7054596333444</v>
+      </c>
+      <c r="D11" s="0">
+        <v>328.98346611431509</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1104.5063568822814</v>
+      </c>
+      <c r="D12" s="0">
+        <v>328.46121207422669</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1113.5494197876064</v>
+      </c>
+      <c r="D13" s="0">
+        <v>868</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>737.37055943669645</v>
+      </c>
+      <c r="D14" s="0">
+        <v>869.87694241073473</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>722</v>
+      </c>
+      <c r="D15" s="0">
+        <v>327</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>345.59998908096031</v>
+      </c>
+      <c r="D16" s="0">
+        <v>327.18836282597613</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>355.52787151824356</v>
+      </c>
+      <c r="D17" s="0">
+        <v>865.00000000000011</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1670.8746535296575</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1094.0845244489574</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1667.9734582162946</v>
+      </c>
+      <c r="D19" s="0">
+        <v>558</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1298.9999999999998</v>
+      </c>
+      <c r="D20" s="0">
+        <v>555</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1303.3493827116019</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1100.3012493082249</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>931.52484896262547</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1101.5206728589721</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>916.4076645902577</v>
+      </c>
+      <c r="D23" s="0">
+        <v>551.7948190298614</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>534.46508385439233</v>
+      </c>
+      <c r="D24" s="0">
+        <v>554.4455764172319</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>549</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1094.0980695012088</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1474</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1008</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1466.3355062255928</v>
+      </c>
+      <c r="D27" s="0">
+        <v>466.68324673024046</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1094</v>
+      </c>
+      <c r="D28" s="0">
+        <v>464.06282172105097</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1101.0510306101908</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1009.2580222016863</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>727.28422113454724</v>
+      </c>
+      <c r="D30" s="0">
+        <v>1005.2802447597348</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>709.43600904846016</v>
+      </c>
+      <c r="D31" s="0">
+        <v>463.80569376586431</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>332.48909359995025</v>
+      </c>
+      <c r="D32" s="0">
+        <v>463.47228629221291</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>348.68442286943787</v>
+      </c>
+      <c r="D33" s="0">
+        <v>1000.3292348100124</v>
+      </c>
+      <c r="E33" s="0">
         <v>65</v>
       </c>
     </row>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohgookazaki/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E817E-1B3D-F54D-BABD-C0AF567B03AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF37658B-4958-A347-90BC-E31E5519B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="230429" sheetId="16" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="94" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -4013,577 +4013,576 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D7F6DC-A464-BD4E-AA5D-734B14C371F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="13.28515625" customWidth="true"/>
-    <col min="5" max="5" width="5.42578125" customWidth="true"/>
-    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1631.7425030099457</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>876.02871194456884</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1622.4061483041658</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>341.32671346786896</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1256</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>336</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1263.520209029972</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>879.01460290365162</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>891.62459762139895</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>879.04376388709545</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>875.28458590452396</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>333.24413555490423</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>496.83493585304365</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>332.79972769377798</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>504.0101420458949</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>877</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1487.3846762361873</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>869.182620379632</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1476.7054596333444</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>328.98346611431509</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1104.5063568822814</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>328.46121207422669</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1113.5494197876064</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>868</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>737.37055943669645</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>869.87694241073473</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>722</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>327</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>345.59998908096031</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>327.18836282597613</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>355.52787151824356</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>865.00000000000011</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1670.8746535296575</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>1094.0845244489574</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>1667.9734582162946</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>558</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1298.9999999999998</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>555</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1303.3493827116019</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>1100.3012493082249</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>931.52484896262547</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>1101.5206728589721</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>916.4076645902577</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>551.7948190298614</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>534.46508385439233</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>554.4455764172319</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>549</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>1094.0980695012088</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1474</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>1008</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1466.3355062255928</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>466.68324673024046</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1094</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>464.06282172105097</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>1101.0510306101908</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>1009.2580222016863</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>727.28422113454724</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>1005.2802447597348</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>709.43600904846016</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>463.80569376586431</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>332.48909359995025</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>463.47228629221291</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>348.68442286943787</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>1000.3292348100124</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
@@ -7910,957 +7909,580 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="13.28515625" customWidth="true"/>
+    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true"/>
+  </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1610</v>
-      </c>
-      <c r="D2">
-        <v>310</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-      <c r="G2">
-        <v>1604.6029030107932</v>
-      </c>
-      <c r="H2">
-        <v>280.65774254218428</v>
-      </c>
-      <c r="J2">
-        <f>C2-G2</f>
-        <v>5.3970969892068297</v>
-      </c>
-      <c r="K2">
-        <f>D2-H2</f>
-        <v>29.34225745781572</v>
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1592</v>
+      </c>
+      <c r="D2" s="0">
+        <v>320</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1634.1133863263742</v>
-      </c>
-      <c r="D3">
-        <v>840.99907164175033</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-      <c r="G3">
-        <v>1628.7162893371674</v>
-      </c>
-      <c r="H3">
-        <v>811.65681418393456</v>
-      </c>
-      <c r="J3">
-        <f>G3+$J$2</f>
-        <v>1634.1133863263742</v>
-      </c>
-      <c r="K3">
-        <f>H3+$K$2</f>
-        <v>840.99907164175033</v>
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1616.1133863263742</v>
+      </c>
+      <c r="D3" s="0">
+        <v>850.99907164175033</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1268.3970969892068</v>
-      </c>
-      <c r="D4">
-        <v>859.34225745781578</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-      <c r="G4">
-        <v>1263</v>
-      </c>
-      <c r="H4">
-        <v>830</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="0">G4+$J$2</f>
-        <v>1268.3970969892068</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K9" si="1">H4+$K$2</f>
-        <v>859.34225745781578</v>
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1250.3970969892068</v>
+      </c>
+      <c r="D4" s="0">
+        <v>869.34225745781578</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1246.3970969892068</v>
-      </c>
-      <c r="D5">
-        <v>314.34225745781572</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-      <c r="G5">
-        <v>1241</v>
-      </c>
-      <c r="H5">
-        <v>285</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1246.3970969892068</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>314.34225745781572</v>
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1228.3970969892068</v>
+      </c>
+      <c r="D5" s="0">
+        <v>324.34225745781572</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>865.67033058093421</v>
-      </c>
-      <c r="D6">
-        <v>320.34137828619572</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-      <c r="G6">
-        <v>860.27323359172738</v>
-      </c>
-      <c r="H6">
-        <v>290.99912082838</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>865.67033058093421</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>320.34137828619572</v>
+      <c r="C6" s="0">
+        <v>847.67033058093421</v>
+      </c>
+      <c r="D6" s="0">
+        <v>330.34137828619572</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>891.36408755458558</v>
-      </c>
-      <c r="D7">
-        <v>863.34225745781578</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-      <c r="G7">
-        <v>885.96699056537875</v>
-      </c>
-      <c r="H7">
-        <v>834</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>891.36408755458558</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>863.34225745781578</v>
+      <c r="C7" s="0">
+        <v>873.36408755458558</v>
+      </c>
+      <c r="D7" s="0">
+        <v>873.34225745781578</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>511.39709698920683</v>
-      </c>
-      <c r="D8">
-        <v>871.80117305920476</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-      <c r="G8">
-        <v>506</v>
-      </c>
-      <c r="H8">
-        <v>842.45891560138898</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>511.39709698920683</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>871.80117305920476</v>
+      <c r="C8" s="0">
+        <v>493.39709698920683</v>
+      </c>
+      <c r="D8" s="0">
+        <v>881.80117305920476</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>486.79800496054139</v>
-      </c>
-      <c r="D9">
-        <v>328.93127036364535</v>
-      </c>
-      <c r="E9">
-        <v>65</v>
-      </c>
-      <c r="G9">
-        <v>481.40090797133456</v>
-      </c>
-      <c r="H9">
-        <v>299.58901290582963</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>486.79800496054139</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>328.93127036364535</v>
+      <c r="C9" s="0">
+        <v>468.79800496054139</v>
+      </c>
+      <c r="D9" s="0">
+        <v>338.93127036364535</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1595</v>
-      </c>
-      <c r="D10">
-        <v>465</v>
-      </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-      <c r="G10">
-        <v>1606</v>
-      </c>
-      <c r="H10">
-        <v>425</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J26" si="2">C10-G10</f>
-        <v>-11</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K26" si="3">D10-H10</f>
-        <v>40</v>
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1588</v>
+      </c>
+      <c r="D10" s="0">
+        <v>455</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1609.9445240019663</v>
-      </c>
-      <c r="D11">
-        <v>999.47984336260345</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-      <c r="G11">
-        <v>1620.9445240019663</v>
-      </c>
-      <c r="H11">
-        <v>959.47984336260345</v>
-      </c>
-      <c r="J11">
-        <f>G11+J$10</f>
-        <v>1609.9445240019663</v>
-      </c>
-      <c r="K11">
-        <f>H11+K$10</f>
-        <v>999.47984336260345</v>
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1602.9445240019663</v>
+      </c>
+      <c r="D11" s="0">
+        <v>989.47984336260345</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1245</v>
-      </c>
-      <c r="D12">
-        <v>1014</v>
-      </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-      <c r="G12">
-        <v>1256</v>
-      </c>
-      <c r="H12">
-        <v>974</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J17" si="4">G12+J$10</f>
-        <v>1245</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K17" si="5">H12+K$10</f>
-        <v>1014</v>
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1238</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1004</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1226.2074574032038</v>
-      </c>
-      <c r="D13">
-        <v>471.50098570018065</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
-      </c>
-      <c r="G13">
-        <v>1237.2074574032038</v>
-      </c>
-      <c r="H13">
-        <v>431.50098570018065</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>1226.2074574032038</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>471.50098570018065</v>
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1219.2074574032038</v>
+      </c>
+      <c r="D13" s="0">
+        <v>461.50098570018065</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>841.36344463680052</v>
-      </c>
-      <c r="D14">
-        <v>477.74724778007908</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-      <c r="G14">
-        <v>852.36344463680052</v>
-      </c>
-      <c r="H14">
-        <v>437.74724778007908</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>841.36344463680052</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
-        <v>477.74724778007908</v>
+      <c r="C14" s="0">
+        <v>834.36344463680052</v>
+      </c>
+      <c r="D14" s="0">
+        <v>467.74724778007908</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>871.53773646259197</v>
-      </c>
-      <c r="D15">
-        <v>1021.0000000000001</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-      <c r="G15">
-        <v>882.53773646259197</v>
-      </c>
-      <c r="H15">
-        <v>981.00000000000011</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>871.53773646259197</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
-        <v>1021.0000000000001</v>
+      <c r="C15" s="0">
+        <v>864.53773646259197</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1011.0000000000001</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
         <v>7</v>
       </c>
-      <c r="C16">
-        <v>489.64185533341998</v>
-      </c>
-      <c r="D16">
-        <v>1029.3219241389984</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-      <c r="G16">
-        <v>500.64185533341998</v>
-      </c>
-      <c r="H16">
-        <v>989.32192413899827</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>489.64185533341998</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
-        <v>1029.3219241389984</v>
+      <c r="C16" s="0">
+        <v>482.64185533341998</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1019.3219241389984</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>463.89341345569784</v>
-      </c>
-      <c r="D17">
-        <v>488.84585525987632</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-      <c r="G17">
-        <v>474.89341345569784</v>
-      </c>
-      <c r="H17">
-        <v>448.84585525987632</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="4"/>
-        <v>463.89341345569784</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
-        <v>488.84585525987632</v>
+      <c r="C17" s="0">
+        <v>456.89341345569784</v>
+      </c>
+      <c r="D17" s="0">
+        <v>478.84585525987632</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1467.5283069529205</v>
-      </c>
-      <c r="D18">
-        <v>279.48143931656074</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-      <c r="G18">
-        <v>1467.5283069529205</v>
-      </c>
-      <c r="H18">
-        <v>279.48143931656074</v>
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1464.5283069529205</v>
+      </c>
+      <c r="D18" s="0">
+        <v>274.48143931656074</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1489.5885413497574</v>
-      </c>
-      <c r="D19">
-        <v>813.23295593386445</v>
-      </c>
-      <c r="E19">
-        <v>65</v>
-      </c>
-      <c r="G19">
-        <v>1489.5885413497574</v>
-      </c>
-      <c r="H19">
-        <v>813.23295593386445</v>
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1486.5885413497574</v>
+      </c>
+      <c r="D19" s="0">
+        <v>808.23295593386445</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1117.0168346154469</v>
-      </c>
-      <c r="D20">
-        <v>829.28943124222167</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-      <c r="G20">
-        <v>1117.0168346154469</v>
-      </c>
-      <c r="H20">
-        <v>829.28943124222167</v>
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1114.0168346154469</v>
+      </c>
+      <c r="D20" s="0">
+        <v>824.28943124222167</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1093.2565289139898</v>
-      </c>
-      <c r="D21">
-        <v>282.76894231476359</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-      <c r="G21">
-        <v>1093.2565289139898</v>
-      </c>
-      <c r="H21">
-        <v>282.76894231476359</v>
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1090.2565289139898</v>
+      </c>
+      <c r="D21" s="0">
+        <v>277.76894231476359</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>710.50943405789167</v>
-      </c>
-      <c r="D22">
-        <v>291.00000000000006</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-      <c r="G22">
-        <v>710.50943405789167</v>
-      </c>
-      <c r="H22">
-        <v>291.00000000000006</v>
+      <c r="C22" s="0">
+        <v>707.50943405789167</v>
+      </c>
+      <c r="D22" s="0">
+        <v>286.00000000000006</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>739</v>
-      </c>
-      <c r="D23">
-        <v>831.51615876175674</v>
-      </c>
-      <c r="E23">
-        <v>65</v>
-      </c>
-      <c r="G23">
-        <v>739</v>
-      </c>
-      <c r="H23">
-        <v>831.51615876175674</v>
+      <c r="C23" s="0">
+        <v>736</v>
+      </c>
+      <c r="D23" s="0">
+        <v>826.51615876175674</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
         <v>7</v>
       </c>
-      <c r="C24">
-        <v>358.00000000000006</v>
-      </c>
-      <c r="D24">
-        <v>836.56843813389787</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-      <c r="G24">
-        <v>358.00000000000006</v>
-      </c>
-      <c r="H24">
-        <v>836.56843813389787</v>
+      <c r="C24" s="0">
+        <v>355.00000000000006</v>
+      </c>
+      <c r="D24" s="0">
+        <v>831.56843813389787</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>335.52599426336445</v>
-      </c>
-      <c r="D25">
-        <v>300.52825243257473</v>
-      </c>
-      <c r="E25">
-        <v>65</v>
-      </c>
-      <c r="G25">
-        <v>335.52599426336445</v>
-      </c>
-      <c r="H25">
-        <v>300.52825243257473</v>
+      <c r="C25" s="0">
+        <v>332.52599426336445</v>
+      </c>
+      <c r="D25" s="0">
+        <v>295.52825243257473</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1440</v>
-      </c>
-      <c r="D26">
-        <v>450</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-      <c r="G26">
-        <v>1464.0259861843795</v>
-      </c>
-      <c r="H26">
-        <v>421.85523734651008</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>-24.025986184379462</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>28.14476265348992</v>
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1447</v>
+      </c>
+      <c r="D26" s="0">
+        <v>448</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1458.2983203939734</v>
-      </c>
-      <c r="D27">
-        <v>987.80748757663412</v>
-      </c>
-      <c r="E27">
-        <v>65</v>
-      </c>
-      <c r="G27">
-        <v>1482.3243065783529</v>
-      </c>
-      <c r="H27">
-        <v>959.6627249231442</v>
-      </c>
-      <c r="J27">
-        <f>G27+J$26</f>
-        <v>1458.2983203939734</v>
-      </c>
-      <c r="K27">
-        <f>H27+K$26</f>
-        <v>987.80748757663412</v>
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1465.2983203939734</v>
+      </c>
+      <c r="D27" s="0">
+        <v>985.80748757663412</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1087.8927864481791</v>
-      </c>
-      <c r="D28">
-        <v>998.63525095173111</v>
-      </c>
-      <c r="E28">
-        <v>65</v>
-      </c>
-      <c r="G28">
-        <v>1111.9187726325586</v>
-      </c>
-      <c r="H28">
-        <v>970.49048829824119</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ref="J28:J33" si="6">G28+J$26</f>
-        <v>1087.8927864481791</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ref="K28:K33" si="7">H28+K$26</f>
-        <v>998.63525095173111</v>
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1094.8927864481791</v>
+      </c>
+      <c r="D28" s="0">
+        <v>996.63525095173111</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1066.9740138156205</v>
-      </c>
-      <c r="D29">
-        <v>453.14476265348998</v>
-      </c>
-      <c r="E29">
-        <v>65</v>
-      </c>
-      <c r="G29">
-        <v>1091</v>
-      </c>
-      <c r="H29">
-        <v>425.00000000000006</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="6"/>
-        <v>1066.9740138156205</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="7"/>
-        <v>453.14476265348998</v>
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1073.9740138156205</v>
+      </c>
+      <c r="D29" s="0">
+        <v>451.14476265348998</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>683.45364405722387</v>
-      </c>
-      <c r="D30">
-        <v>462.61791541004521</v>
-      </c>
-      <c r="E30">
-        <v>65</v>
-      </c>
-      <c r="G30">
-        <v>707.47963024160333</v>
-      </c>
-      <c r="H30">
-        <v>434.47315275655529</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="6"/>
-        <v>683.45364405722387</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="7"/>
-        <v>462.61791541004521</v>
+      <c r="C30" s="0">
+        <v>690.45364405722387</v>
+      </c>
+      <c r="D30" s="0">
+        <v>460.61791541004521</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>712.97599525204703</v>
-      </c>
-      <c r="D31">
-        <v>1005.4059517454439</v>
-      </c>
-      <c r="E31">
-        <v>65</v>
-      </c>
-      <c r="G31">
-        <v>737.00198143642649</v>
-      </c>
-      <c r="H31">
-        <v>977.26118909195395</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="6"/>
-        <v>712.97599525204703</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="7"/>
-        <v>1005.4059517454439</v>
+      <c r="C31" s="0">
+        <v>719.97599525204703</v>
+      </c>
+      <c r="D31" s="0">
+        <v>1003.4059517454439</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
         <v>7</v>
       </c>
-      <c r="C32">
-        <v>336.97401381562054</v>
-      </c>
-      <c r="D32">
-        <v>1011.1447626534898</v>
-      </c>
-      <c r="E32">
-        <v>65</v>
-      </c>
-      <c r="G32">
-        <v>361</v>
-      </c>
-      <c r="H32">
-        <v>982.99999999999989</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="6"/>
-        <v>336.97401381562054</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="7"/>
-        <v>1011.1447626534898</v>
+      <c r="C32" s="0">
+        <v>343.97401381562054</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1009.1447626534898</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
         <v>8</v>
       </c>
-      <c r="C33">
-        <v>305.32538502469168</v>
-      </c>
-      <c r="D33">
-        <v>472.94631367607565</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
-      </c>
-      <c r="G33">
-        <v>329.35137120907115</v>
-      </c>
-      <c r="H33">
-        <v>444.80155102258573</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="6"/>
-        <v>305.32538502469168</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="7"/>
-        <v>472.94631367607565</v>
+      <c r="C33" s="0">
+        <v>312.32538502469168</v>
+      </c>
+      <c r="D33" s="0">
+        <v>470.94631367607565</v>
+      </c>
+      <c r="E33" s="0">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -8874,7 +8496,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -27,6 +27,7 @@
     <sheet name="240501" sheetId="11" r:id="rId12"/>
     <sheet name="240621" sheetId="13" r:id="rId17"/>
     <sheet name="240622" sheetId="14" r:id="rId18"/>
+    <sheet name="240828" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="74" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -4645,6 +4646,586 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="6.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1611.2292720117171</v>
+      </c>
+      <c r="D2" s="0">
+        <v>338.02283380034714</v>
+      </c>
+      <c r="E2" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1618</v>
+      </c>
+      <c r="D3" s="0">
+        <v>873</v>
+      </c>
+      <c r="E3" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1253.3901248978002</v>
+      </c>
+      <c r="D4" s="0">
+        <v>878.004657186401</v>
+      </c>
+      <c r="E4" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1247.3298617001483</v>
+      </c>
+      <c r="D5" s="0">
+        <v>332.57633759001806</v>
+      </c>
+      <c r="E5" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>866.28953338071472</v>
+      </c>
+      <c r="D6" s="0">
+        <v>332.6477698349708</v>
+      </c>
+      <c r="E6" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>882.67516776544289</v>
+      </c>
+      <c r="D7" s="0">
+        <v>874.63303438425419</v>
+      </c>
+      <c r="E7" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>499.00000000000006</v>
+      </c>
+      <c r="D8" s="0">
+        <v>870</v>
+      </c>
+      <c r="E8" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>483.53392609582073</v>
+      </c>
+      <c r="D9" s="0">
+        <v>330.21151328870832</v>
+      </c>
+      <c r="E9" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1602.5720858052957</v>
+      </c>
+      <c r="D10" s="0">
+        <v>479.00000000000006</v>
+      </c>
+      <c r="E10" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1611.6697320465623</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1012.071479392594</v>
+      </c>
+      <c r="E11" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1244.3663165587568</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1017.8421111887042</v>
+      </c>
+      <c r="E12" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1239.4073597680974</v>
+      </c>
+      <c r="D13" s="0">
+        <v>476.2096389680803</v>
+      </c>
+      <c r="E13" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>858</v>
+      </c>
+      <c r="D14" s="0">
+        <v>476</v>
+      </c>
+      <c r="E14" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>875.00660123453724</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1016.6623713982146</v>
+      </c>
+      <c r="E15" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>491.41224563335277</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1015.1859653421242</v>
+      </c>
+      <c r="E16" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>478.00000000000006</v>
+      </c>
+      <c r="D17" s="0">
+        <v>471.54026768194427</v>
+      </c>
+      <c r="E17" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1473.1978278146719</v>
+      </c>
+      <c r="D18" s="0">
+        <v>334.19938864339537</v>
+      </c>
+      <c r="E18" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1482.7441676226731</v>
+      </c>
+      <c r="D19" s="0">
+        <v>872.07660330574492</v>
+      </c>
+      <c r="E19" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1109.4778732563907</v>
+      </c>
+      <c r="D20" s="0">
+        <v>873.70594190979659</v>
+      </c>
+      <c r="E20" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1101</v>
+      </c>
+      <c r="D21" s="0">
+        <v>331</v>
+      </c>
+      <c r="E21" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>719.76067643648571</v>
+      </c>
+      <c r="D22" s="0">
+        <v>328.62199039186692</v>
+      </c>
+      <c r="E22" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>733.65336961722619</v>
+      </c>
+      <c r="D23" s="0">
+        <v>867.98769856330478</v>
+      </c>
+      <c r="E23" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>355</v>
+      </c>
+      <c r="D24" s="0">
+        <v>864</v>
+      </c>
+      <c r="E24" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>341</v>
+      </c>
+      <c r="D25" s="0">
+        <v>327</v>
+      </c>
+      <c r="E25" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1470.5057035800305</v>
+      </c>
+      <c r="D26" s="0">
+        <v>470</v>
+      </c>
+      <c r="E26" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1474</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1007.9999999999999</v>
+      </c>
+      <c r="E27" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1103.4447738129099</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1009.8364105411432</v>
+      </c>
+      <c r="E28" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1097</v>
+      </c>
+      <c r="D29" s="0">
+        <v>469.12107140231734</v>
+      </c>
+      <c r="E29" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>714.39773670552825</v>
+      </c>
+      <c r="D30" s="0">
+        <v>465.30329088212028</v>
+      </c>
+      <c r="E30" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>729.55746695772802</v>
+      </c>
+      <c r="D31" s="0">
+        <v>1010.0000000000001</v>
+      </c>
+      <c r="E31" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>352.64925385754344</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1008.3190819692509</v>
+      </c>
+      <c r="E32" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>336</v>
+      </c>
+      <c r="D33" s="0">
+        <v>466.99999999999994</v>
+      </c>
+      <c r="E33" s="0">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:AC33"/>

--- a/Soft X-ray/Four-View/fiberPositions.xlsx
+++ b/Soft X-ray/Four-View/fiberPositions.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohgookazaki/Documents/GitHub/test-open/Soft X-ray/Four-View/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF37658B-4958-A347-90BC-E31E5519B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3581D5DB-81AD-524E-9F36-3767ACFAAEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16160" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="230429" sheetId="16" r:id="rId1"/>
-    <sheet name="230830" sheetId="15" r:id="rId2"/>
-    <sheet name="230921" sheetId="4" r:id="rId3"/>
-    <sheet name="230920_backup" sheetId="3" r:id="rId4"/>
-    <sheet name="230920_backup2" sheetId="5" r:id="rId5"/>
-    <sheet name="230721" sheetId="1" r:id="rId6"/>
-    <sheet name="230712" sheetId="2" r:id="rId7"/>
-    <sheet name="230920" sheetId="6" r:id="rId8"/>
-    <sheet name="231216" sheetId="13" r:id="rId9"/>
-    <sheet name="240111_backup" sheetId="8" r:id="rId10"/>
-    <sheet name="240111" sheetId="7" r:id="rId11"/>
-    <sheet name="240501" sheetId="9" r:id="rId12"/>
-    <sheet name="240621" sheetId="10" r:id="rId13"/>
-    <sheet name="240622" sheetId="11" r:id="rId14"/>
-    <sheet name="240828" sheetId="17" r:id="rId15"/>
+    <sheet name="230829" sheetId="18" r:id="rId2"/>
+    <sheet name="230830" sheetId="15" r:id="rId3"/>
+    <sheet name="230921" sheetId="4" r:id="rId4"/>
+    <sheet name="230920_backup" sheetId="3" r:id="rId5"/>
+    <sheet name="230920_backup2" sheetId="5" r:id="rId6"/>
+    <sheet name="230721" sheetId="1" r:id="rId7"/>
+    <sheet name="230712" sheetId="2" r:id="rId8"/>
+    <sheet name="230920" sheetId="6" r:id="rId9"/>
+    <sheet name="231216" sheetId="13" r:id="rId10"/>
+    <sheet name="240111_backup" sheetId="8" r:id="rId11"/>
+    <sheet name="240111" sheetId="7" r:id="rId12"/>
+    <sheet name="240501" sheetId="9" r:id="rId13"/>
+    <sheet name="240621" sheetId="10" r:id="rId14"/>
+    <sheet name="240622" sheetId="11" r:id="rId15"/>
+    <sheet name="240828" sheetId="17" r:id="rId16"/>
+    <sheet name="241110" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="119" uniqueCount="23">
   <si>
     <t>center_X</t>
     <phoneticPr fontId="1"/>
@@ -1101,6 +1103,587 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABE9A69-76CE-E74C-8B0D-F73C461671C6}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7.6640625" customWidth="true"/>
+    <col min="3" max="4" width="12.6640625" customWidth="true"/>
+    <col min="5" max="5" width="6.6640625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1643.9999999999998</v>
+      </c>
+      <c r="D2">
+        <v>890.46737652347861</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1639.1717314198845</v>
+      </c>
+      <c r="D3">
+        <v>355.83237973804944</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1268.5762666689691</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1272.5801841324005</v>
+      </c>
+      <c r="D5">
+        <v>894.18178999713712</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>901.40459917471139</v>
+      </c>
+      <c r="D6">
+        <v>891.07874963393658</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>885.59657808465863</v>
+      </c>
+      <c r="D7">
+        <v>349</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>506.96689540353066</v>
+      </c>
+      <c r="D8">
+        <v>346.86695692728279</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>519.34751984964259</v>
+      </c>
+      <c r="D9">
+        <v>890</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1635.2250068153903</v>
+      </c>
+      <c r="D10">
+        <v>1033.651358203427</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1628.7010749651322</v>
+      </c>
+      <c r="D11">
+        <v>495.27290178450977</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1257.0758786270517</v>
+      </c>
+      <c r="D12">
+        <v>492.19384543003525</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1261.2034747743264</v>
+      </c>
+      <c r="D13">
+        <v>1036.3494990915842</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>888.85975735881163</v>
+      </c>
+      <c r="D14">
+        <v>1036.1252570136976</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>875.48745637488901</v>
+      </c>
+      <c r="D15">
+        <v>488.53178358312277</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>495.782476538195</v>
+      </c>
+      <c r="D16">
+        <v>489.51792350975768</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>506.55653425087291</v>
+      </c>
+      <c r="D17">
+        <v>1029.8142339811116</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1501</v>
+      </c>
+      <c r="D18">
+        <v>878.00000000000011</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1489</v>
+      </c>
+      <c r="D19">
+        <v>341</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1120.4400268714517</v>
+      </c>
+      <c r="D20">
+        <v>337.01796391130733</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1127.2251969457127</v>
+      </c>
+      <c r="D21">
+        <v>879.06141688646005</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>750.50109136046171</v>
+      </c>
+      <c r="D22">
+        <v>873.48663760499494</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>737.4743615261151</v>
+      </c>
+      <c r="D23">
+        <v>333</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>360.05779300371512</v>
+      </c>
+      <c r="D24">
+        <v>336.31099366099261</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>370.82446642322049</v>
+      </c>
+      <c r="D25">
+        <v>872.11683665181329</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1485.7148948701831</v>
+      </c>
+      <c r="D26">
+        <v>1016.6335969067704</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1479.2353306905293</v>
+      </c>
+      <c r="D27">
+        <v>478.50236367984337</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1107.2219701040583</v>
+      </c>
+      <c r="D28">
+        <v>477.16738984616353</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1113.4112184328715</v>
+      </c>
+      <c r="D29">
+        <v>1017.5839006362315</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>739.47095031350148</v>
+      </c>
+      <c r="D30">
+        <v>1016</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>725.00373505082587</v>
+      </c>
+      <c r="D31">
+        <v>474.4840362551991</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>345</v>
+      </c>
+      <c r="D32">
+        <v>473</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>363.43228956640741</v>
+      </c>
+      <c r="D33">
+        <v>1009.2040069956981</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4C6AA-75FF-D04D-AEB0-D50F87D3190D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -1682,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -1692,569 +2275,571 @@
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="true"/>
-    <col min="3" max="4" width="12.6640625" customWidth="true"/>
-    <col min="5" max="5" width="6.6640625" customWidth="true"/>
+    <col min="1" max="1" width="8.28515625" customWidth="true"/>
+    <col min="3" max="3" width="13.28515625" customWidth="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="4" max="4" width="13.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
         <v>1634.5832371432114</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>883</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
         <v>1632.4265443435393</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>348.1904554392429</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
         <v>1264.2992618674946</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>339.8398448017395</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
         <v>1272.4976351483458</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>884.50371781189858</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>896.0054514726379</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>886.00067032311472</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>884.39997528745789</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>338.15420968300811</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>504</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>338</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>515.458800788433</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>879.01899490184496</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
         <v>1619.4630275922909</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>1026.9493538404563</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
         <v>1615</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>490.5340062361679</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
         <v>1246.8986241372759</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>489.98930052173625</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
         <v>1250.6105560128537</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>1033.1994263586266</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>876.30901366636238</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>1029.3414742931636</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>863.11815473245372</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>482.1151043261882</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>483.03760659484539</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>482.63522811947422</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>494.06667877099005</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>1024.4941583555815</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
         <v>1479.4170525137188</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>878.80732756498946</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
         <v>1472</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>339</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
         <v>1098.9999999999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>333.46386067619034</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
         <v>1106.8380913459309</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>878.36948917416635</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>730</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>875</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>718.66826419851839</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>331.37423485472425</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>338.1778550489546</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>331.41781057527805</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>348.66064541799346</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>872.97155739522611</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
         <v>1471.0269453062842</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1014.9619501882065</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
         <v>1465</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>474</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
         <v>1092</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>472</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
         <v>1098.5015147541376</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>1017.4988351453728</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>722.70855122616899</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>1015.2579986889109</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>707.00866303979069</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>468.17576007912305</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>328.49685359317334</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>469.008965874051</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>344.52202340700165</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>1006.9625696988209</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>65</v>
       </c>
     </row>
@@ -2264,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2845,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96200FB-67F2-FE48-B485-4355BB1B4F4F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3427,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA00A1D1-EF52-DA4A-871D-DB1992668D0B}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -4009,12 +4594,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D7F6DC-A464-BD4E-AA5D-734B14C371F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4591,7 +5176,1172 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17488004-B21B-E446-814B-138ED2231A25}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="13.28515625" customWidth="true"/>
+    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1631.7425030099457</v>
+      </c>
+      <c r="D2" s="0">
+        <v>856.02871194456884</v>
+      </c>
+      <c r="E2" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1622.4061483041658</v>
+      </c>
+      <c r="D3" s="0">
+        <v>321.32671346786896</v>
+      </c>
+      <c r="E3" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1256</v>
+      </c>
+      <c r="D4" s="0">
+        <v>316</v>
+      </c>
+      <c r="E4" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1263.520209029972</v>
+      </c>
+      <c r="D5" s="0">
+        <v>859.01460290365162</v>
+      </c>
+      <c r="E5" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>891.62459762139895</v>
+      </c>
+      <c r="D6" s="0">
+        <v>859.04376388709545</v>
+      </c>
+      <c r="E6" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>875.28458590452396</v>
+      </c>
+      <c r="D7" s="0">
+        <v>313.24413555490423</v>
+      </c>
+      <c r="E7" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>496.83493585304365</v>
+      </c>
+      <c r="D8" s="0">
+        <v>312.79972769377798</v>
+      </c>
+      <c r="E8" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>504.0101420458949</v>
+      </c>
+      <c r="D9" s="0">
+        <v>857</v>
+      </c>
+      <c r="E9" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1482.3846762361873</v>
+      </c>
+      <c r="D10" s="0">
+        <v>871.182620379632</v>
+      </c>
+      <c r="E10" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1471.7054596333444</v>
+      </c>
+      <c r="D11" s="0">
+        <v>330.98346611431509</v>
+      </c>
+      <c r="E11" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1099.5063568822814</v>
+      </c>
+      <c r="D12" s="0">
+        <v>330.46121207422669</v>
+      </c>
+      <c r="E12" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1108.5494197876064</v>
+      </c>
+      <c r="D13" s="0">
+        <v>870</v>
+      </c>
+      <c r="E13" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0">
+        <v>732.37055943669645</v>
+      </c>
+      <c r="D14" s="0">
+        <v>871.87694241073473</v>
+      </c>
+      <c r="E14" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" s="0">
+        <v>717</v>
+      </c>
+      <c r="D15" s="0">
+        <v>329</v>
+      </c>
+      <c r="E15" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0">
+        <v>340.59998908096031</v>
+      </c>
+      <c r="D16" s="0">
+        <v>329.18836282597613</v>
+      </c>
+      <c r="E16" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0">
+        <v>350.52787151824356</v>
+      </c>
+      <c r="D17" s="0">
+        <v>867.00000000000011</v>
+      </c>
+      <c r="E17" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1668.8746535296575</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1114.0845244489574</v>
+      </c>
+      <c r="E18" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1665.9734582162946</v>
+      </c>
+      <c r="D19" s="0">
+        <v>578</v>
+      </c>
+      <c r="E19" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1296.9999999999998</v>
+      </c>
+      <c r="D20" s="0">
+        <v>575</v>
+      </c>
+      <c r="E20" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1301.3493827116019</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1120.3012493082249</v>
+      </c>
+      <c r="E21" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0">
+        <v>929.52484896262547</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1121.5206728589721</v>
+      </c>
+      <c r="E22" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0">
+        <v>914.4076645902577</v>
+      </c>
+      <c r="D23" s="0">
+        <v>571.7948190298614</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0">
+        <v>532.46508385439233</v>
+      </c>
+      <c r="D24" s="0">
+        <v>574.4455764172319</v>
+      </c>
+      <c r="E24" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0">
+        <v>547</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1114.0980695012088</v>
+      </c>
+      <c r="E25" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1471</v>
+      </c>
+      <c r="D26" s="0">
+        <v>996</v>
+      </c>
+      <c r="E26" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
+        <v>4</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1463.3355062255928</v>
+      </c>
+      <c r="D27" s="0">
+        <v>454.68324673024046</v>
+      </c>
+      <c r="E27" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1091</v>
+      </c>
+      <c r="D28" s="0">
+        <v>452.06282172105097</v>
+      </c>
+      <c r="E28" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1098.0510306101908</v>
+      </c>
+      <c r="D29" s="0">
+        <v>997.25802220168634</v>
+      </c>
+      <c r="E29" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
+        <v>4</v>
+      </c>
+      <c r="B30" s="0">
+        <v>5</v>
+      </c>
+      <c r="C30" s="0">
+        <v>724.28422113454724</v>
+      </c>
+      <c r="D30" s="0">
+        <v>993.28024475973484</v>
+      </c>
+      <c r="E30" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
+        <v>4</v>
+      </c>
+      <c r="B31" s="0">
+        <v>6</v>
+      </c>
+      <c r="C31" s="0">
+        <v>706.43600904846016</v>
+      </c>
+      <c r="D31" s="0">
+        <v>451.80569376586431</v>
+      </c>
+      <c r="E31" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
+        <v>4</v>
+      </c>
+      <c r="B32" s="0">
+        <v>7</v>
+      </c>
+      <c r="C32" s="0">
+        <v>329.48909359995025</v>
+      </c>
+      <c r="D32" s="0">
+        <v>451.47228629221291</v>
+      </c>
+      <c r="E32" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
+        <v>4</v>
+      </c>
+      <c r="B33" s="0">
+        <v>8</v>
+      </c>
+      <c r="C33" s="0">
+        <v>345.68442286943787</v>
+      </c>
+      <c r="D33" s="0">
+        <v>988.32923481001239</v>
+      </c>
+      <c r="E33" s="0">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE73315-C7F9-A74D-8A67-278E0C929C6C}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1653.7425030099457</v>
+      </c>
+      <c r="D2">
+        <v>889.02871194456884</v>
+      </c>
+      <c r="E2">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1644.4061483041658</v>
+      </c>
+      <c r="D3">
+        <v>354.32671346786896</v>
+      </c>
+      <c r="E3">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1278</v>
+      </c>
+      <c r="D4">
+        <v>349</v>
+      </c>
+      <c r="E4">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1285.520209029972</v>
+      </c>
+      <c r="D5">
+        <v>892.01460290365162</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>913.62459762139895</v>
+      </c>
+      <c r="D6">
+        <v>892.04376388709545</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>897.28458590452396</v>
+      </c>
+      <c r="D7">
+        <v>346.24413555490423</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>518.83493585304359</v>
+      </c>
+      <c r="D8">
+        <v>345.79972769377798</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>526.0101420458949</v>
+      </c>
+      <c r="D9">
+        <v>890</v>
+      </c>
+      <c r="E9">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1704.8746535296575</v>
+      </c>
+      <c r="D10">
+        <v>1005.0845244489575</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1701.9734582162946</v>
+      </c>
+      <c r="D11">
+        <v>469</v>
+      </c>
+      <c r="E11">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1332.9999999999998</v>
+      </c>
+      <c r="D12">
+        <v>466</v>
+      </c>
+      <c r="E12">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1337.3493827116019</v>
+      </c>
+      <c r="D13">
+        <v>1011.3012493082249</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>965.52484896262547</v>
+      </c>
+      <c r="D14">
+        <v>1012.5206728589721</v>
+      </c>
+      <c r="E14">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>950.4076645902577</v>
+      </c>
+      <c r="D15">
+        <v>462.79481902986134</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>568.46508385439233</v>
+      </c>
+      <c r="D16">
+        <v>465.4455764172319</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>583</v>
+      </c>
+      <c r="D17">
+        <v>1005.0980695012088</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1494.3846762361873</v>
+      </c>
+      <c r="D18">
+        <v>881.182620379632</v>
+      </c>
+      <c r="E18">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1483.7054596333444</v>
+      </c>
+      <c r="D19">
+        <v>340.98346611431509</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1111.5063568822814</v>
+      </c>
+      <c r="D20">
+        <v>340.46121207422669</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1120.5494197876064</v>
+      </c>
+      <c r="D21">
+        <v>880</v>
+      </c>
+      <c r="E21">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>744.37055943669645</v>
+      </c>
+      <c r="D22">
+        <v>881.87694241073473</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>729</v>
+      </c>
+      <c r="D23">
+        <v>339</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>352.59998908096031</v>
+      </c>
+      <c r="D24">
+        <v>339.18836282597613</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>362.52787151824356</v>
+      </c>
+      <c r="D25">
+        <v>877.00000000000011</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1498</v>
+      </c>
+      <c r="D26">
+        <v>1018</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1490.3355062255928</v>
+      </c>
+      <c r="D27">
+        <v>476.68324673024046</v>
+      </c>
+      <c r="E27">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1118</v>
+      </c>
+      <c r="D28">
+        <v>474.06282172105097</v>
+      </c>
+      <c r="E28">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1125.0510306101908</v>
+      </c>
+      <c r="D29">
+        <v>1019.2580222016863</v>
+      </c>
+      <c r="E29">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>751.28422113454724</v>
+      </c>
+      <c r="D30">
+        <v>1015.2802447597348</v>
+      </c>
+      <c r="E30">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>733.43600904846016</v>
+      </c>
+      <c r="D31">
+        <v>473.80569376586431</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>356.48909359995025</v>
+      </c>
+      <c r="D32">
+        <v>473.47228629221291</v>
+      </c>
+      <c r="E32">
+        <v>65</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>372.68442286943787</v>
+      </c>
+      <c r="D33">
+        <v>1010.3292348100124</v>
+      </c>
+      <c r="E33">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82059635-BEA6-F747-8536-EA5A758DA55C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -5173,7 +6923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -6397,7 +8147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55619896-D09A-7746-A7AB-407CD32ABD7F}">
   <dimension ref="A1:AC33"/>
   <sheetViews>
@@ -7687,7 +9437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
@@ -7907,581 +9657,580 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FAC-F287-564D-A828-85EA3FEE69F0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="13.28515625" customWidth="true"/>
-    <col min="4" max="4" width="13.28515625" customWidth="true"/>
-    <col min="5" max="5" width="5.42578125" customWidth="true"/>
+    <col min="1" max="1" width="8.33203125" customWidth="true"/>
+    <col min="2" max="2" width="7.1640625" customWidth="true"/>
+    <col min="3" max="4" width="13.33203125" customWidth="true"/>
+    <col min="5" max="5" width="5.5" customWidth="true"/>
   </cols>
   <sheetData>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="0" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
-      <c r="A2" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1592</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>320</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1616.1133863263742</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>850.99907164175033</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
-      <c r="A4" s="0">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0">
-        <v>3</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1250.3970969892068</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>869.34225745781578</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
-      <c r="A5" s="0">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1228.3970969892068</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>324.34225745781572</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
-      <c r="A6" s="0">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>847.67033058093421</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>330.34137828619572</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
-      <c r="A7" s="0">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>873.36408755458558</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>873.34225745781578</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
-      <c r="A8" s="0">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>493.39709698920683</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>881.80117305920476</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
-      <c r="A9" s="0">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>468.79800496054139</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>338.93127036364535</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
-      <c r="A10" s="0">
-        <v>2</v>
-      </c>
-      <c r="B10" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1588</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>455</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
-      <c r="A11" s="0">
-        <v>2</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>1602.9445240019663</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>989.47984336260345</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="0">
-        <v>2</v>
-      </c>
-      <c r="B12" s="0">
-        <v>3</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>1238</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>1004</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
-      <c r="A13" s="0">
-        <v>2</v>
-      </c>
-      <c r="B13" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1219.2074574032038</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>461.50098570018065</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="0">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>834.36344463680052</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>467.74724778007908</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="0">
-        <v>2</v>
-      </c>
-      <c r="B15" s="0">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>864.53773646259197</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>1011.0000000000001</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="0">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>482.64185533341998</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>1019.3219241389984</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="0">
-        <v>2</v>
-      </c>
-      <c r="B17" s="0">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>456.89341345569784</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>478.84585525987632</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="0">
-        <v>3</v>
-      </c>
-      <c r="B18" s="0">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>1464.5283069529205</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>274.48143931656074</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="0">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0">
-        <v>2</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>1486.5885413497574</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>808.23295593386445</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="0">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>1114.0168346154469</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>824.28943124222167</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="0">
-        <v>3</v>
-      </c>
-      <c r="B21" s="0">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>1090.2565289139898</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>277.76894231476359</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
-      <c r="A22" s="0">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>707.50943405789167</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>286.00000000000006</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
-      <c r="A23" s="0">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>736</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>826.51615876175674</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="0">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>7</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>355.00000000000006</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>831.56843813389787</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
-      <c r="A25" s="0">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>332.52599426336445</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>295.52825243257473</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
-      <c r="A26" s="0">
-        <v>4</v>
-      </c>
-      <c r="B26" s="0">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>1447</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>448</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
-      <c r="A27" s="0">
-        <v>4</v>
-      </c>
-      <c r="B27" s="0">
-        <v>2</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1465.2983203939734</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>985.80748757663412</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="0">
-        <v>4</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1094.8927864481791</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>996.63525095173111</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
-      <c r="A29" s="0">
-        <v>4</v>
-      </c>
-      <c r="B29" s="0">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
         <v>1073.9740138156205</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>451.14476265348998</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
-      <c r="A30" s="0">
-        <v>4</v>
-      </c>
-      <c r="B30" s="0">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>690.45364405722387</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>460.61791541004521</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
-      <c r="A31" s="0">
-        <v>4</v>
-      </c>
-      <c r="B31" s="0">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>719.97599525204703</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>1003.4059517454439</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="0">
-        <v>4</v>
-      </c>
-      <c r="B32" s="0">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>343.97401381562054</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>1009.1447626534898</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>65</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
-      <c r="A33" s="0">
-        <v>4</v>
-      </c>
-      <c r="B33" s="0">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>312.32538502469168</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>470.94631367607565</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>65</v>
       </c>
     </row>
@@ -8491,7 +10240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8B513D-DF9C-6D4B-8EB9-67E97D41F236}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -9071,7 +10820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -9651,585 +11400,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABE9A69-76CE-E74C-8B0D-F73C461671C6}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="7.6640625" customWidth="true"/>
-    <col min="3" max="4" width="12.6640625" customWidth="true"/>
-    <col min="5" max="5" width="6.6640625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1643.9999999999998</v>
-      </c>
-      <c r="D2">
-        <v>890.46737652347861</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1639.1717314198845</v>
-      </c>
-      <c r="D3">
-        <v>355.83237973804944</v>
-      </c>
-      <c r="E3">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1268.5762666689691</v>
-      </c>
-      <c r="D4">
-        <v>350</v>
-      </c>
-      <c r="E4">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1272.5801841324005</v>
-      </c>
-      <c r="D5">
-        <v>894.18178999713712</v>
-      </c>
-      <c r="E5">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>901.40459917471139</v>
-      </c>
-      <c r="D6">
-        <v>891.07874963393658</v>
-      </c>
-      <c r="E6">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>885.59657808465863</v>
-      </c>
-      <c r="D7">
-        <v>349</v>
-      </c>
-      <c r="E7">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>506.96689540353066</v>
-      </c>
-      <c r="D8">
-        <v>346.86695692728279</v>
-      </c>
-      <c r="E8">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>519.34751984964259</v>
-      </c>
-      <c r="D9">
-        <v>890</v>
-      </c>
-      <c r="E9">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1635.2250068153903</v>
-      </c>
-      <c r="D10">
-        <v>1033.651358203427</v>
-      </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1628.7010749651322</v>
-      </c>
-      <c r="D11">
-        <v>495.27290178450977</v>
-      </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1257.0758786270517</v>
-      </c>
-      <c r="D12">
-        <v>492.19384543003525</v>
-      </c>
-      <c r="E12">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1261.2034747743264</v>
-      </c>
-      <c r="D13">
-        <v>1036.3494990915842</v>
-      </c>
-      <c r="E13">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>888.85975735881163</v>
-      </c>
-      <c r="D14">
-        <v>1036.1252570136976</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>875.48745637488901</v>
-      </c>
-      <c r="D15">
-        <v>488.53178358312277</v>
-      </c>
-      <c r="E15">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>495.782476538195</v>
-      </c>
-      <c r="D16">
-        <v>489.51792350975768</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>506.55653425087291</v>
-      </c>
-      <c r="D17">
-        <v>1029.8142339811116</v>
-      </c>
-      <c r="E17">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1501</v>
-      </c>
-      <c r="D18">
-        <v>878.00000000000011</v>
-      </c>
-      <c r="E18">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1489</v>
-      </c>
-      <c r="D19">
-        <v>341</v>
-      </c>
-      <c r="E19">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>1120.4400268714517</v>
-      </c>
-      <c r="D20">
-        <v>337.01796391130733</v>
-      </c>
-      <c r="E20">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>1127.2251969457127</v>
-      </c>
-      <c r="D21">
-        <v>879.06141688646005</v>
-      </c>
-      <c r="E21">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>750.50109136046171</v>
-      </c>
-      <c r="D22">
-        <v>873.48663760499494</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>737.4743615261151</v>
-      </c>
-      <c r="D23">
-        <v>333</v>
-      </c>
-      <c r="E23">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>360.05779300371512</v>
-      </c>
-      <c r="D24">
-        <v>336.31099366099261</v>
-      </c>
-      <c r="E24">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>370.82446642322049</v>
-      </c>
-      <c r="D25">
-        <v>872.11683665181329</v>
-      </c>
-      <c r="E25">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1485.7148948701831</v>
-      </c>
-      <c r="D26">
-        <v>1016.6335969067704</v>
-      </c>
-      <c r="E26">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1479.2353306905293</v>
-      </c>
-      <c r="D27">
-        <v>478.50236367984337</v>
-      </c>
-      <c r="E27">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>1107.2219701040583</v>
-      </c>
-      <c r="D28">
-        <v>477.16738984616353</v>
-      </c>
-      <c r="E28">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>1113.4112184328715</v>
-      </c>
-      <c r="D29">
-        <v>1017.5839006362315</v>
-      </c>
-      <c r="E29">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>739.47095031350148</v>
-      </c>
-      <c r="D30">
-        <v>1016</v>
-      </c>
-      <c r="E30">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>725.00373505082587</v>
-      </c>
-      <c r="D31">
-        <v>474.4840362551991</v>
-      </c>
-      <c r="E31">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>345</v>
-      </c>
-      <c r="D32">
-        <v>473</v>
-      </c>
-      <c r="E32">
-        <v>65</v>
-      </c>
-    </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>363.43228956640741</v>
-      </c>
-      <c r="D33">
-        <v>1009.2040069956981</v>
-      </c>
-      <c r="E33">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>